--- a/Jogos_da_Semana_FlashScore_2025-02-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-08.xlsx
@@ -716,16 +716,16 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>3.2</v>
@@ -1269,7 +1269,7 @@
         <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K6" t="n">
         <v>2.3</v>
@@ -1317,7 +1317,7 @@
         <v>8</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA6" t="n">
         <v>8.5</v>
@@ -1563,19 +1563,19 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
         <v>3.5</v>
@@ -1596,7 +1596,7 @@
         <v>1.91</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z8" t="n">
         <v>8</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
@@ -1701,10 +1701,10 @@
         <v>2.38</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
         <v>1.2</v>
@@ -1743,7 +1743,7 @@
         <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
@@ -1758,7 +1758,7 @@
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
@@ -1906,7 +1906,7 @@
         <v>7</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
         <v>29</v>
@@ -1933,10 +1933,10 @@
         <v>21</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
@@ -2404,22 +2404,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
         <v>2.3</v>
       </c>
       <c r="L14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2458,13 +2458,13 @@
         <v>2.25</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB14" t="n">
         <v>34</v>
@@ -2491,16 +2491,16 @@
         <v>151</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL14" t="n">
         <v>9</v>
       </c>
       <c r="AM14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN14" t="n">
         <v>15</v>
@@ -3012,10 +3012,10 @@
         <v>1.73</v>
       </c>
       <c r="S18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U18" t="n">
         <v>1.44</v>
@@ -3069,7 +3069,7 @@
         <v>15</v>
       </c>
       <c r="AL18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM18" t="n">
         <v>34</v>
@@ -3554,22 +3554,22 @@
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
         <v>1.83</v>
       </c>
       <c r="L22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N22" t="n">
         <v>5.5</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6</v>
       </c>
       <c r="O22" t="n">
         <v>1.62</v>
@@ -3951,16 +3951,16 @@
         <v>51</v>
       </c>
       <c r="AP24" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="25">
@@ -4025,10 +4025,10 @@
         <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R25" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S25" t="n">
         <v>4</v>
@@ -4144,28 +4144,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H26" t="n">
         <v>2.88</v>
       </c>
       <c r="I26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N26" t="n">
         <v>5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N26" t="n">
-        <v>5.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.67</v>
@@ -4180,10 +4180,10 @@
         <v>1.36</v>
       </c>
       <c r="S26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="U26" t="n">
         <v>1.67</v>
@@ -4198,7 +4198,7 @@
         <v>1.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z26" t="n">
         <v>19</v>
@@ -4213,7 +4213,7 @@
         <v>41</v>
       </c>
       <c r="AD26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE26" t="n">
         <v>5</v>
@@ -4283,22 +4283,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K27" t="n">
         <v>1.8</v>
       </c>
       <c r="L27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.14</v>
@@ -4313,10 +4313,10 @@
         <v>2.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R27" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S27" t="n">
         <v>7</v>
@@ -4331,25 +4331,25 @@
         <v>2.08</v>
       </c>
       <c r="W27" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="X27" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC27" t="n">
         <v>26</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>29</v>
       </c>
       <c r="AD27" t="n">
         <v>51</v>
@@ -4361,26 +4361,26 @@
         <v>6.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH27" t="n">
         <v>101</v>
       </c>
       <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
         <v>13</v>
       </c>
       <c r="AM27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO27" t="n">
         <v>51</v>
@@ -4422,13 +4422,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
         <v>2.6</v>
       </c>
       <c r="I28" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J28" t="n">
         <v>3.75</v>
@@ -4437,7 +4437,7 @@
         <v>1.8</v>
       </c>
       <c r="L28" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
         <v>1.14</v>
@@ -4446,10 +4446,10 @@
         <v>5.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q28" t="n">
         <v>3.1</v>
@@ -4479,16 +4479,16 @@
         <v>6</v>
       </c>
       <c r="Z28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA28" t="n">
         <v>12</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>13</v>
       </c>
       <c r="AB28" t="n">
         <v>29</v>
       </c>
       <c r="AC28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD28" t="n">
         <v>51</v>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK28" t="n">
         <v>12</v>
@@ -4516,7 +4516,7 @@
         <v>13</v>
       </c>
       <c r="AM28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN28" t="n">
         <v>34</v>
@@ -4863,10 +4863,10 @@
         <v>5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q31" t="n">
         <v>3.4</v>
@@ -4981,7 +4981,7 @@
         <v>4.33</v>
       </c>
       <c r="H32" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I32" t="n">
         <v>1.8</v>
@@ -5008,10 +5008,10 @@
         <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R32" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S32" t="n">
         <v>2.3</v>
@@ -5026,10 +5026,10 @@
         <v>3.5</v>
       </c>
       <c r="W32" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X32" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y32" t="n">
         <v>17</v>
@@ -5065,7 +5065,7 @@
         <v>101</v>
       </c>
       <c r="AJ32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK32" t="n">
         <v>11</v>
@@ -5074,7 +5074,7 @@
         <v>8.5</v>
       </c>
       <c r="AM32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN32" t="n">
         <v>13</v>
@@ -5083,10 +5083,10 @@
         <v>19</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -5141,10 +5141,10 @@
         <v>4.33</v>
       </c>
       <c r="M33" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O33" t="n">
         <v>1.1</v>
@@ -5177,7 +5177,7 @@
         <v>2.75</v>
       </c>
       <c r="Y33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z33" t="n">
         <v>12</v>
@@ -5207,7 +5207,7 @@
         <v>26</v>
       </c>
       <c r="AI33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="n">
         <v>23</v>
@@ -5225,7 +5225,7 @@
         <v>29</v>
       </c>
       <c r="AO33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
@@ -5880,10 +5880,10 @@
         <v>3.4</v>
       </c>
       <c r="W38" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X38" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y38" t="n">
         <v>8.5</v>
@@ -5980,7 +5980,7 @@
         <v>2.5</v>
       </c>
       <c r="H39" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I39" t="n">
         <v>2.5</v>
@@ -5989,46 +5989,46 @@
         <v>3.1</v>
       </c>
       <c r="K39" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L39" t="n">
         <v>3.1</v>
       </c>
       <c r="M39" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P39" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="R39" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S39" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T39" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U39" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V39" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W39" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X39" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y39" t="n">
         <v>11</v>
@@ -6049,7 +6049,7 @@
         <v>23</v>
       </c>
       <c r="AE39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF39" t="n">
         <v>7</v>
@@ -6058,10 +6058,10 @@
         <v>12</v>
       </c>
       <c r="AH39" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI39" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ39" t="n">
         <v>11</v>
@@ -6081,8 +6081,12 @@
       <c r="AO39" t="n">
         <v>23</v>
       </c>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr"/>
+      <c r="AP39" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>1.8</v>
+      </c>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
     </row>
@@ -6263,16 +6267,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H41" t="n">
         <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J41" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K41" t="n">
         <v>2.4</v>
@@ -6281,10 +6285,10 @@
         <v>5.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O41" t="n">
         <v>1.2</v>
@@ -6317,7 +6321,7 @@
         <v>2</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z41" t="n">
         <v>8</v>
@@ -6326,7 +6330,7 @@
         <v>8.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC41" t="n">
         <v>12</v>
@@ -6344,7 +6348,7 @@
         <v>15</v>
       </c>
       <c r="AH41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI41" t="n">
         <v>201</v>
@@ -6353,13 +6357,13 @@
         <v>17</v>
       </c>
       <c r="AK41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM41" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN41" t="n">
         <v>41</v>
@@ -6549,19 +6553,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J43" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K43" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L43" t="n">
         <v>7.5</v>
@@ -6570,7 +6574,7 @@
         <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O43" t="n">
         <v>1.36</v>
@@ -6621,16 +6625,16 @@
         <v>41</v>
       </c>
       <c r="AE43" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH43" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI43" t="n">
         <v>1250</v>
@@ -6831,7 +6835,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H45" t="n">
         <v>3.1</v>
@@ -6942,10 +6946,10 @@
         <v>1.22</v>
       </c>
       <c r="AR45" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="46">
@@ -6980,7 +6984,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="H46" t="n">
         <v>4.1</v>
@@ -6995,7 +6999,7 @@
         <v>2.1</v>
       </c>
       <c r="L46" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M46" t="n">
         <v>1.08</v>
@@ -7037,7 +7041,7 @@
         <v>5</v>
       </c>
       <c r="Z46" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA46" t="n">
         <v>9.5</v>
@@ -7132,10 +7136,10 @@
         <v>3.6</v>
       </c>
       <c r="H47" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I47" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J47" t="n">
         <v>4</v>
@@ -7278,7 +7282,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H48" t="n">
         <v>3.75</v>
@@ -7389,10 +7393,10 @@
         <v>1.25</v>
       </c>
       <c r="AR48" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="49">
@@ -7991,28 +7995,28 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="H53" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I53" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="J53" t="n">
         <v>3.25</v>
       </c>
       <c r="K53" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L53" t="n">
         <v>3.15</v>
       </c>
       <c r="M53" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N53" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="O53" t="n">
         <v>1.31</v>
@@ -8021,10 +8025,10 @@
         <v>3.25</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R53" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S53" t="n">
         <v>3.2</v>
@@ -8045,10 +8049,10 @@
         <v>2.02</v>
       </c>
       <c r="Y53" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z53" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA53" t="n">
         <v>10.5</v>
@@ -8060,13 +8064,13 @@
         <v>24</v>
       </c>
       <c r="AD53" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE53" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AF53" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AG53" t="n">
         <v>14.5</v>
@@ -8078,10 +8082,10 @@
         <v>500</v>
       </c>
       <c r="AJ53" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK53" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL53" t="n">
         <v>10.25</v>
@@ -8294,7 +8298,7 @@
         <v>1.04</v>
       </c>
       <c r="N55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O55" t="n">
         <v>1.25</v>
@@ -8303,10 +8307,10 @@
         <v>3.75</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R55" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="S55" t="n">
         <v>3</v>
@@ -8321,7 +8325,7 @@
         <v>3</v>
       </c>
       <c r="W55" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X55" t="n">
         <v>2.1</v>
@@ -8444,7 +8448,7 @@
         <v>5</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R56" t="n">
         <v>2.4</v>
@@ -8465,7 +8469,7 @@
         <v>2.5</v>
       </c>
       <c r="X56" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Y56" t="n">
         <v>29</v>
@@ -8519,10 +8523,10 @@
         <v>41</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="AR56" t="inlineStr"/>
       <c r="AS56" t="inlineStr"/>
@@ -8562,13 +8566,13 @@
         <v>1.48</v>
       </c>
       <c r="H57" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K57" t="n">
         <v>2.4</v>
@@ -8577,10 +8581,10 @@
         <v>6</v>
       </c>
       <c r="M57" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O57" t="n">
         <v>1.2</v>
@@ -8589,7 +8593,7 @@
         <v>4.33</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R57" t="n">
         <v>2.15</v>
@@ -8601,16 +8605,16 @@
         <v>1.44</v>
       </c>
       <c r="U57" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V57" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W57" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="X57" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -8634,7 +8638,7 @@
         <v>13</v>
       </c>
       <c r="AF57" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG57" t="n">
         <v>17</v>
@@ -8844,41 +8848,111 @@
           <t>ZED</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr"/>
-      <c r="AF59" t="inlineStr"/>
-      <c r="AG59" t="inlineStr"/>
-      <c r="AH59" t="inlineStr"/>
-      <c r="AI59" t="inlineStr"/>
-      <c r="AJ59" t="inlineStr"/>
-      <c r="AK59" t="inlineStr"/>
-      <c r="AL59" t="inlineStr"/>
-      <c r="AM59" t="inlineStr"/>
-      <c r="AN59" t="inlineStr"/>
-      <c r="AO59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N59" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V59" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>60</v>
+      </c>
       <c r="AP59" t="inlineStr"/>
       <c r="AQ59" t="inlineStr"/>
       <c r="AR59" t="inlineStr"/>
@@ -8946,10 +9020,10 @@
         <v>4</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R60" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="S60" t="n">
         <v>3.2</v>
@@ -8964,10 +9038,10 @@
         <v>3</v>
       </c>
       <c r="W60" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="X60" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y60" t="n">
         <v>7</v>
@@ -9087,10 +9161,10 @@
         <v>3.4</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R61" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S61" t="n">
         <v>3.75</v>
@@ -9105,10 +9179,10 @@
         <v>2.63</v>
       </c>
       <c r="W61" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X61" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y61" t="n">
         <v>7</v>
@@ -10082,10 +10156,10 @@
         <v>4</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R68" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S68" t="n">
         <v>2.75</v>
@@ -10211,13 +10285,13 @@
         <v>5</v>
       </c>
       <c r="M69" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N69" t="n">
         <v>9</v>
       </c>
       <c r="O69" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P69" t="n">
         <v>3.25</v>
@@ -10232,7 +10306,7 @@
         <v>3.75</v>
       </c>
       <c r="T69" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U69" t="n">
         <v>1.44</v>
@@ -10423,28 +10497,28 @@
         <v>5.5</v>
       </c>
       <c r="M71" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N71" t="n">
         <v>10</v>
       </c>
       <c r="O71" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P71" t="n">
         <v>3.25</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R71" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S71" t="n">
         <v>3.75</v>
       </c>
       <c r="T71" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U71" t="n">
         <v>1.44</v>
@@ -10724,10 +10798,10 @@
       <c r="AP73" t="inlineStr"/>
       <c r="AQ73" t="inlineStr"/>
       <c r="AR73" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="74">
@@ -10762,19 +10836,19 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H74" t="n">
         <v>4.2</v>
       </c>
       <c r="I74" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K74" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L74" t="n">
         <v>7</v>
@@ -10816,13 +10890,13 @@
         <v>1.73</v>
       </c>
       <c r="Y74" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z74" t="n">
         <v>6.5</v>
       </c>
       <c r="AA74" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB74" t="n">
         <v>9.5</v>
@@ -10843,19 +10917,19 @@
         <v>19</v>
       </c>
       <c r="AH74" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI74" t="n">
         <v>351</v>
       </c>
       <c r="AJ74" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK74" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL74" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM74" t="n">
         <v>81</v>
@@ -10903,16 +10977,16 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H75" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I75" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J75" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K75" t="n">
         <v>2.1</v>
@@ -10921,10 +10995,10 @@
         <v>5</v>
       </c>
       <c r="M75" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N75" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O75" t="n">
         <v>1.33</v>
@@ -10951,22 +11025,22 @@
         <v>2.63</v>
       </c>
       <c r="W75" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X75" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y75" t="n">
         <v>6.5</v>
       </c>
       <c r="Z75" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA75" t="n">
         <v>8.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC75" t="n">
         <v>15</v>
@@ -10978,13 +11052,13 @@
         <v>9</v>
       </c>
       <c r="AF75" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH75" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI75" t="n">
         <v>351</v>
@@ -11213,10 +11287,10 @@
         <v>17</v>
       </c>
       <c r="O77" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P77" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q77" t="n">
         <v>1.53</v>
@@ -11294,10 +11368,10 @@
         <v>23</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AQ77" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AR77" t="inlineStr"/>
       <c r="AS77" t="inlineStr"/>
@@ -11349,13 +11423,13 @@
         <v>2.2</v>
       </c>
       <c r="L78" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M78" t="n">
         <v>1.04</v>
       </c>
       <c r="N78" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O78" t="n">
         <v>1.25</v>
@@ -11412,7 +11486,7 @@
         <v>7</v>
       </c>
       <c r="AG78" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH78" t="n">
         <v>41</v>
@@ -11475,16 +11549,16 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
         <v>3.8</v>
       </c>
       <c r="I79" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J79" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K79" t="n">
         <v>2.4</v>
@@ -11541,7 +11615,7 @@
         <v>19</v>
       </c>
       <c r="AC79" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD79" t="n">
         <v>21</v>
@@ -11568,13 +11642,13 @@
         <v>21</v>
       </c>
       <c r="AL79" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM79" t="n">
         <v>41</v>
       </c>
       <c r="AN79" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO79" t="n">
         <v>26</v>
@@ -12332,16 +12406,16 @@
         <v>2.55</v>
       </c>
       <c r="H85" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I85" t="n">
         <v>2.5</v>
       </c>
       <c r="J85" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K85" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L85" t="n">
         <v>3.1</v>
@@ -12359,16 +12433,16 @@
         <v>4</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R85" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S85" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T85" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U85" t="n">
         <v>1.33</v>
@@ -12377,10 +12451,10 @@
         <v>3.25</v>
       </c>
       <c r="W85" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X85" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y85" t="n">
         <v>11</v>
@@ -12398,22 +12472,22 @@
         <v>19</v>
       </c>
       <c r="AD85" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF85" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG85" t="n">
         <v>12</v>
       </c>
       <c r="AH85" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI85" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ85" t="n">
         <v>11</v>
@@ -12431,7 +12505,7 @@
         <v>19</v>
       </c>
       <c r="AO85" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP85" t="inlineStr"/>
       <c r="AQ85" t="inlineStr"/>
@@ -12619,19 +12693,19 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H87" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I87" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J87" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K87" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L87" t="n">
         <v>2.6</v>
@@ -12649,10 +12723,10 @@
         <v>3.75</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R87" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S87" t="n">
         <v>3</v>
@@ -12676,7 +12750,7 @@
         <v>12</v>
       </c>
       <c r="Z87" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA87" t="n">
         <v>13</v>
@@ -12691,10 +12765,10 @@
         <v>34</v>
       </c>
       <c r="AE87" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF87" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG87" t="n">
         <v>13</v>
@@ -12709,7 +12783,7 @@
         <v>8</v>
       </c>
       <c r="AK87" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL87" t="n">
         <v>8.5</v>
@@ -13050,22 +13124,22 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H90" t="n">
         <v>3.25</v>
       </c>
       <c r="I90" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J90" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K90" t="n">
         <v>2.2</v>
       </c>
       <c r="L90" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M90" t="n">
         <v>1.05</v>
@@ -13092,10 +13166,10 @@
         <v>1.36</v>
       </c>
       <c r="U90" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V90" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W90" t="n">
         <v>1.67</v>
@@ -13113,10 +13187,10 @@
         <v>9.5</v>
       </c>
       <c r="AB90" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC90" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD90" t="n">
         <v>26</v>
@@ -13137,16 +13211,16 @@
         <v>151</v>
       </c>
       <c r="AJ90" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK90" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL90" t="n">
         <v>11</v>
       </c>
       <c r="AM90" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN90" t="n">
         <v>23</v>
@@ -13191,22 +13265,22 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H91" t="n">
         <v>3.25</v>
       </c>
       <c r="I91" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J91" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K91" t="n">
         <v>2.2</v>
       </c>
       <c r="L91" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M91" t="n">
         <v>1.05</v>
@@ -13221,10 +13295,10 @@
         <v>3.75</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R91" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S91" t="n">
         <v>3.25</v>
@@ -13239,25 +13313,25 @@
         <v>2.75</v>
       </c>
       <c r="W91" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X91" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y91" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA91" t="n">
         <v>9</v>
       </c>
-      <c r="Z91" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA91" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AB91" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC91" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD91" t="n">
         <v>26</v>
@@ -13281,13 +13355,13 @@
         <v>10</v>
       </c>
       <c r="AK91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL91" t="n">
         <v>11</v>
       </c>
       <c r="AM91" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN91" t="n">
         <v>23</v>
@@ -13332,22 +13406,22 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H92" t="n">
         <v>3.25</v>
       </c>
       <c r="I92" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K92" t="n">
         <v>2.25</v>
       </c>
       <c r="L92" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M92" t="n">
         <v>1.04</v>
@@ -13356,22 +13430,22 @@
         <v>13</v>
       </c>
       <c r="O92" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P92" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R92" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S92" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T92" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U92" t="n">
         <v>1.33</v>
@@ -13380,22 +13454,22 @@
         <v>3.25</v>
       </c>
       <c r="W92" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X92" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y92" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z92" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA92" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB92" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC92" t="n">
         <v>17</v>
@@ -13407,7 +13481,7 @@
         <v>13</v>
       </c>
       <c r="AF92" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG92" t="n">
         <v>12</v>
@@ -13419,22 +13493,22 @@
         <v>151</v>
       </c>
       <c r="AJ92" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK92" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL92" t="n">
         <v>11</v>
       </c>
       <c r="AM92" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO92" t="n">
         <v>29</v>
-      </c>
-      <c r="AN92" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO92" t="n">
-        <v>26</v>
       </c>
       <c r="AP92" t="inlineStr"/>
       <c r="AQ92" t="inlineStr"/>
@@ -13606,22 +13680,22 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="H94" t="n">
         <v>3.05</v>
       </c>
       <c r="I94" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="J94" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K94" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="L94" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
@@ -13644,10 +13718,10 @@
         <v>1.29</v>
       </c>
       <c r="U94" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="V94" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="W94" t="n">
         <v>1.65</v>
@@ -13659,25 +13733,25 @@
         <v>8.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA94" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB94" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC94" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AD94" t="n">
         <v>27</v>
       </c>
       <c r="AE94" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF94" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AG94" t="n">
         <v>12.5</v>
@@ -13686,7 +13760,7 @@
         <v>55</v>
       </c>
       <c r="AI94" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AJ94" t="n">
         <v>8.75</v>
@@ -13695,7 +13769,7 @@
         <v>14.5</v>
       </c>
       <c r="AL94" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AM94" t="n">
         <v>35</v>
@@ -14742,7 +14816,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H102" t="n">
         <v>3</v>
@@ -14757,7 +14831,7 @@
         <v>2</v>
       </c>
       <c r="L102" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M102" t="n">
         <v>1.08</v>
@@ -14796,10 +14870,10 @@
         <v>1.8</v>
       </c>
       <c r="Y102" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z102" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA102" t="n">
         <v>10</v>
@@ -14913,10 +14987,10 @@
         <v>4</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R103" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S103" t="n">
         <v>2.75</v>
@@ -15045,7 +15119,7 @@
         <v>1.07</v>
       </c>
       <c r="N104" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O104" t="n">
         <v>1.36</v>
@@ -15186,7 +15260,7 @@
         <v>1.08</v>
       </c>
       <c r="N105" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O105" t="n">
         <v>1.4</v>
@@ -15195,10 +15269,10 @@
         <v>2.75</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R105" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S105" t="n">
         <v>4.33</v>
@@ -15380,55 +15454,55 @@
         <v>4.75</v>
       </c>
       <c r="H107" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I107" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J107" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K107" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L107" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M107" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N107" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R107" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T107" t="n">
         <v>1.29</v>
       </c>
-      <c r="P107" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R107" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S107" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T107" t="n">
-        <v>1.3</v>
-      </c>
       <c r="U107" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V107" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W107" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X107" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y107" t="n">
         <v>12</v>
@@ -15449,10 +15523,10 @@
         <v>41</v>
       </c>
       <c r="AE107" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF107" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG107" t="n">
         <v>17</v>
@@ -15461,13 +15535,13 @@
         <v>51</v>
       </c>
       <c r="AI107" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ107" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK107" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AL107" t="n">
         <v>8.5</v>
@@ -15476,10 +15550,10 @@
         <v>13</v>
       </c>
       <c r="AN107" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO107" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP107" t="n">
         <v>2.03</v>
@@ -16074,22 +16148,22 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H112" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I112" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J112" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K112" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L112" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
@@ -16100,16 +16174,16 @@
         <v>3.25</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R112" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S112" t="n">
         <v>2.72</v>
       </c>
       <c r="T112" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr"/>
@@ -16120,28 +16194,28 @@
         <v>1.98</v>
       </c>
       <c r="Y112" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Z112" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA112" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AB112" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC112" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD112" t="n">
         <v>35</v>
       </c>
       <c r="AE112" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF112" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AG112" t="n">
         <v>14</v>
@@ -16153,19 +16227,19 @@
         <v>450</v>
       </c>
       <c r="AJ112" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AK112" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AL112" t="n">
         <v>8.5</v>
       </c>
       <c r="AM112" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AN112" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO112" t="n">
         <v>25</v>
@@ -16476,41 +16550,107 @@
           <t>COD Meknes</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H115" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I115" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L115" t="n">
+        <v>5.2</v>
+      </c>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr"/>
-      <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
-      <c r="Z115" t="inlineStr"/>
-      <c r="AA115" t="inlineStr"/>
-      <c r="AB115" t="inlineStr"/>
-      <c r="AC115" t="inlineStr"/>
-      <c r="AD115" t="inlineStr"/>
-      <c r="AE115" t="inlineStr"/>
-      <c r="AF115" t="inlineStr"/>
-      <c r="AG115" t="inlineStr"/>
-      <c r="AH115" t="inlineStr"/>
-      <c r="AI115" t="inlineStr"/>
-      <c r="AJ115" t="inlineStr"/>
-      <c r="AK115" t="inlineStr"/>
-      <c r="AL115" t="inlineStr"/>
-      <c r="AM115" t="inlineStr"/>
-      <c r="AN115" t="inlineStr"/>
-      <c r="AO115" t="inlineStr"/>
+      <c r="O115" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P115" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="R115" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S115" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U115" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V115" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="W115" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="X115" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>35</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>45</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>60</v>
+      </c>
       <c r="AP115" t="inlineStr"/>
       <c r="AQ115" t="inlineStr"/>
       <c r="AR115" t="inlineStr"/>
@@ -16547,9 +16687,15 @@
           <t>IR Tanger</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H116" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I116" t="n">
+        <v>6.4</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
@@ -16618,9 +16764,15 @@
           <t>Difaa El Jadidi</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H117" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3.85</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
@@ -17238,16 +17390,16 @@
         <v>51</v>
       </c>
       <c r="AP121" t="n">
-        <v>2.21</v>
+        <v>2.17</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AR121" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="122">
@@ -17423,28 +17575,28 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H123" t="n">
         <v>4</v>
       </c>
       <c r="I123" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J123" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K123" t="n">
         <v>2.25</v>
       </c>
       <c r="L123" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M123" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N123" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O123" t="n">
         <v>1.25</v>
@@ -17471,10 +17623,10 @@
         <v>3</v>
       </c>
       <c r="W123" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X123" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y123" t="n">
         <v>7</v>
@@ -17486,7 +17638,7 @@
         <v>8.5</v>
       </c>
       <c r="AB123" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC123" t="n">
         <v>13</v>
@@ -17498,10 +17650,10 @@
         <v>11</v>
       </c>
       <c r="AF123" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG123" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH123" t="n">
         <v>51</v>
@@ -17510,7 +17662,7 @@
         <v>301</v>
       </c>
       <c r="AJ123" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK123" t="n">
         <v>29</v>
@@ -17594,10 +17746,10 @@
         <v>3</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R124" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S124" t="n">
         <v>4</v>
@@ -17812,10 +17964,10 @@
       <c r="AP125" t="inlineStr"/>
       <c r="AQ125" t="inlineStr"/>
       <c r="AR125" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="126">
@@ -18035,7 +18187,7 @@
         <v>1.2</v>
       </c>
       <c r="U127" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V127" t="n">
         <v>2.5</v>
@@ -18176,10 +18328,10 @@
         <v>1.25</v>
       </c>
       <c r="U128" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V128" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W128" t="n">
         <v>2</v>
@@ -18317,7 +18469,7 @@
         <v>1.22</v>
       </c>
       <c r="U129" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V129" t="n">
         <v>2.5</v>
@@ -18458,10 +18610,10 @@
         <v>1.25</v>
       </c>
       <c r="U130" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V130" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W130" t="n">
         <v>2</v>
@@ -18599,10 +18751,10 @@
         <v>1.25</v>
       </c>
       <c r="U131" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V131" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W131" t="n">
         <v>1.83</v>
@@ -18698,46 +18850,102 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H132" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="I132" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+        <v>2.03</v>
+      </c>
+      <c r="J132" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K132" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="L132" t="n">
+        <v>2.47</v>
+      </c>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr"/>
-      <c r="T132" t="inlineStr"/>
+      <c r="O132" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P132" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R132" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S132" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1.69</v>
+      </c>
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr"/>
-      <c r="W132" t="inlineStr"/>
-      <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
-      <c r="Z132" t="inlineStr"/>
-      <c r="AA132" t="inlineStr"/>
-      <c r="AB132" t="inlineStr"/>
-      <c r="AC132" t="inlineStr"/>
-      <c r="AD132" t="inlineStr"/>
-      <c r="AE132" t="inlineStr"/>
-      <c r="AF132" t="inlineStr"/>
-      <c r="AG132" t="inlineStr"/>
-      <c r="AH132" t="inlineStr"/>
-      <c r="AI132" t="inlineStr"/>
-      <c r="AJ132" t="inlineStr"/>
-      <c r="AK132" t="inlineStr"/>
-      <c r="AL132" t="inlineStr"/>
-      <c r="AM132" t="inlineStr"/>
-      <c r="AN132" t="inlineStr"/>
-      <c r="AO132" t="inlineStr"/>
+      <c r="W132" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X132" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>15</v>
+      </c>
       <c r="AP132" t="inlineStr"/>
       <c r="AQ132" t="inlineStr"/>
       <c r="AR132" t="inlineStr"/>
@@ -18916,106 +19124,106 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.25</v>
+        <v>4.7</v>
       </c>
       <c r="H134" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="I134" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="J134" t="n">
-        <v>4.35</v>
+        <v>4.6</v>
       </c>
       <c r="K134" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="L134" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="M134" t="n">
         <v>1.03</v>
       </c>
       <c r="N134" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O134" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P134" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R134" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="S134" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T134" t="n">
         <v>1.65</v>
       </c>
       <c r="U134" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="V134" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="W134" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="X134" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="Y134" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="Z134" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AA134" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB134" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AC134" t="n">
+        <v>37</v>
+      </c>
+      <c r="AD134" t="n">
         <v>35</v>
       </c>
-      <c r="AD134" t="n">
-        <v>32</v>
-      </c>
       <c r="AE134" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF134" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AG134" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH134" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI134" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ134" t="n">
         <v>10.75</v>
       </c>
       <c r="AK134" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AL134" t="n">
         <v>8.25</v>
       </c>
       <c r="AM134" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AN134" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO134" t="n">
         <v>18</v>
@@ -19057,28 +19265,28 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H135" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I135" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J135" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K135" t="n">
         <v>2.1</v>
       </c>
       <c r="L135" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M135" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N135" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O135" t="n">
         <v>1.29</v>
@@ -19111,16 +19319,16 @@
         <v>2</v>
       </c>
       <c r="Y135" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z135" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA135" t="n">
         <v>10</v>
       </c>
       <c r="AB135" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC135" t="n">
         <v>21</v>
@@ -19138,19 +19346,19 @@
         <v>15</v>
       </c>
       <c r="AH135" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI135" t="n">
         <v>500</v>
       </c>
       <c r="AJ135" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK135" t="n">
         <v>13</v>
       </c>
       <c r="AL135" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM135" t="n">
         <v>26</v>
@@ -19762,22 +19970,22 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H140" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="I140" t="n">
         <v>11.5</v>
       </c>
       <c r="J140" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="K140" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="L140" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="M140" t="n">
         <v>1.02</v>
@@ -19786,73 +19994,73 @@
         <v>9.75</v>
       </c>
       <c r="O140" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="P140" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="R140" t="n">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="S140" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="T140" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="U140" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="V140" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="W140" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="X140" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="Y140" t="n">
-        <v>9</v>
+        <v>10.75</v>
       </c>
       <c r="Z140" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA140" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AB140" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="AC140" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE140" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD140" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE140" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AF140" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AG140" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH140" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AI140" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AJ140" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AK140" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL140" t="n">
         <v>40</v>
@@ -19861,10 +20069,10 @@
         <v>450</v>
       </c>
       <c r="AN140" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AO140" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AP140" t="inlineStr"/>
       <c r="AQ140" t="inlineStr"/>
@@ -19933,7 +20141,7 @@
         <v>3.25</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R141" t="n">
         <v>1.83</v>
@@ -19969,7 +20177,7 @@
         <v>23</v>
       </c>
       <c r="AC141" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AD141" t="n">
         <v>26</v>
@@ -20124,13 +20332,13 @@
         <v>1.9</v>
       </c>
       <c r="J143" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="K143" t="n">
         <v>2.12</v>
       </c>
       <c r="L143" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="M143" t="n">
         <v>1.07</v>
@@ -20157,7 +20365,7 @@
         <v>1.3</v>
       </c>
       <c r="U143" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="V143" t="n">
         <v>2.87</v>
@@ -20169,10 +20377,10 @@
         <v>1.93</v>
       </c>
       <c r="Y143" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Z143" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA143" t="n">
         <v>14.5</v>
@@ -20196,13 +20404,13 @@
         <v>15</v>
       </c>
       <c r="AH143" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI143" t="n">
         <v>600</v>
       </c>
       <c r="AJ143" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AK143" t="n">
         <v>9.25</v>
@@ -20400,19 +20608,19 @@
         <v>2.37</v>
       </c>
       <c r="H145" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I145" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J145" t="n">
         <v>2.92</v>
       </c>
-      <c r="J145" t="n">
-        <v>2.95</v>
-      </c>
       <c r="K145" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L145" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M145" t="n">
         <v>1.06</v>
@@ -20421,52 +20629,52 @@
         <v>7.8</v>
       </c>
       <c r="O145" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P145" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R145" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S145" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T145" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="U145" t="n">
         <v>1.42</v>
       </c>
       <c r="V145" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="W145" t="n">
         <v>1.65</v>
       </c>
       <c r="X145" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Y145" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z145" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA145" t="n">
         <v>9.5</v>
       </c>
       <c r="AB145" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AD145" t="n">
         <v>27</v>
-      </c>
-      <c r="AC145" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD145" t="n">
-        <v>28</v>
       </c>
       <c r="AE145" t="n">
         <v>7.8</v>
@@ -20478,7 +20686,7 @@
         <v>13.5</v>
       </c>
       <c r="AH145" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI145" t="n">
         <v>450</v>
@@ -20499,7 +20707,7 @@
         <v>27</v>
       </c>
       <c r="AO145" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP145" t="inlineStr"/>
       <c r="AQ145" t="inlineStr"/>
@@ -20589,13 +20797,13 @@
         <v>1.7</v>
       </c>
       <c r="X146" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="Y146" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="Z146" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA146" t="n">
         <v>8.5</v>
@@ -20622,10 +20830,10 @@
         <v>65</v>
       </c>
       <c r="AI146" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AJ146" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK146" t="n">
         <v>35</v>
@@ -20820,16 +21028,16 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="H148" t="n">
         <v>3.4</v>
       </c>
       <c r="I148" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J148" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="K148" t="n">
         <v>2.12</v>
@@ -20856,28 +21064,28 @@
         <v>1.93</v>
       </c>
       <c r="S148" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="T148" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="U148" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="V148" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="W148" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X148" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="Y148" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z148" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA148" t="n">
         <v>8.75</v>
@@ -20889,7 +21097,7 @@
         <v>17</v>
       </c>
       <c r="AD148" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE148" t="n">
         <v>7.7</v>
@@ -20910,7 +21118,7 @@
         <v>10.25</v>
       </c>
       <c r="AK148" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL148" t="n">
         <v>10.5</v>
@@ -20919,7 +21127,7 @@
         <v>37</v>
       </c>
       <c r="AN148" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO148" t="n">
         <v>29</v>
@@ -21418,16 +21626,16 @@
         <v>2.63</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R152" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S152" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T152" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U152" t="n">
         <v>1.53</v>
@@ -21495,10 +21703,10 @@
       <c r="AP152" t="inlineStr"/>
       <c r="AQ152" t="inlineStr"/>
       <c r="AR152" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS152" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="153">
@@ -22524,19 +22732,19 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H160" t="n">
         <v>3.6</v>
       </c>
       <c r="I160" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J160" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K160" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L160" t="n">
         <v>2.6</v>
@@ -22572,28 +22780,28 @@
         <v>3.25</v>
       </c>
       <c r="W160" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X160" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y160" t="n">
         <v>13</v>
       </c>
       <c r="Z160" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA160" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB160" t="n">
         <v>41</v>
       </c>
       <c r="AC160" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD160" t="n">
         <v>29</v>
-      </c>
-      <c r="AD160" t="n">
-        <v>34</v>
       </c>
       <c r="AE160" t="n">
         <v>13</v>
@@ -22611,16 +22819,16 @@
         <v>151</v>
       </c>
       <c r="AJ160" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK160" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL160" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM160" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN160" t="n">
         <v>15</v>
@@ -23326,10 +23534,10 @@
         <v>5.8</v>
       </c>
       <c r="Q166" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="R166" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="S166" t="n">
         <v>1.82</v>
@@ -23440,19 +23648,19 @@
         <v>1.45</v>
       </c>
       <c r="H167" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="I167" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="J167" t="n">
         <v>1.91</v>
       </c>
       <c r="K167" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L167" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="M167" t="n">
         <v>1.03</v>
@@ -23473,70 +23681,70 @@
         <v>2.5</v>
       </c>
       <c r="S167" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T167" t="n">
         <v>1.65</v>
       </c>
       <c r="U167" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="V167" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="W167" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X167" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y167" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z167" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AA167" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB167" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AC167" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AD167" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE167" t="n">
         <v>9.25</v>
       </c>
       <c r="AF167" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AG167" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH167" t="n">
         <v>50</v>
       </c>
       <c r="AI167" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AJ167" t="n">
         <v>21</v>
       </c>
       <c r="AK167" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL167" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AM167" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN167" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO167" t="n">
         <v>45</v>
@@ -23581,22 +23789,22 @@
         <v>1.29</v>
       </c>
       <c r="H168" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I168" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="J168" t="n">
         <v>1.7</v>
       </c>
       <c r="K168" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="L168" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="M168" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N168" t="n">
         <v>9.75</v>
@@ -23614,25 +23822,25 @@
         <v>2.67</v>
       </c>
       <c r="S168" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T168" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="U168" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="V168" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="W168" t="n">
         <v>1.7</v>
       </c>
       <c r="X168" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="Y168" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z168" t="n">
         <v>7.9</v>
@@ -23641,22 +23849,22 @@
         <v>8.5</v>
       </c>
       <c r="AB168" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AC168" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD168" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE168" t="n">
         <v>9.75</v>
       </c>
       <c r="AF168" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG168" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH168" t="n">
         <v>60</v>
@@ -23665,22 +23873,22 @@
         <v>350</v>
       </c>
       <c r="AJ168" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AK168" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN168" t="n">
         <v>90</v>
       </c>
-      <c r="AL168" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM168" t="n">
-        <v>350</v>
-      </c>
-      <c r="AN168" t="n">
-        <v>110</v>
-      </c>
       <c r="AO168" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AP168" t="inlineStr"/>
       <c r="AQ168" t="inlineStr"/>
@@ -23856,60 +24064,60 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H170" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I170" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J170" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="K170" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L170" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P170" t="n">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="Q170" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="R170" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S170" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="T170" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="U170" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="V170" t="n">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="W170" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="X170" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Y170" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="Z170" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA170" t="n">
         <v>8.25</v>
@@ -23918,34 +24126,34 @@
         <v>12</v>
       </c>
       <c r="AC170" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD170" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE170" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AF170" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AG170" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH170" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI170" t="n">
         <v>900</v>
       </c>
       <c r="AJ170" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK170" t="n">
         <v>30</v>
       </c>
       <c r="AL170" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AM170" t="n">
         <v>110</v>
@@ -23954,7 +24162,7 @@
         <v>60</v>
       </c>
       <c r="AO170" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AP170" t="inlineStr"/>
       <c r="AQ170" t="inlineStr"/>
@@ -23993,84 +24201,84 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.77</v>
+        <v>2.55</v>
       </c>
       <c r="H171" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I171" t="n">
-        <v>2.47</v>
+        <v>2.72</v>
       </c>
       <c r="J171" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K171" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L171" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P171" t="n">
-        <v>2.57</v>
+        <v>2.45</v>
       </c>
       <c r="Q171" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="R171" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="S171" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="T171" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="U171" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="V171" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="W171" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="X171" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y171" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="Z171" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AA171" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB171" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AC171" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AD171" t="n">
         <v>40</v>
       </c>
       <c r="AE171" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AF171" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AG171" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH171" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI171" t="n">
         <v>800</v>
@@ -24079,19 +24287,19 @@
         <v>7</v>
       </c>
       <c r="AK171" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AL171" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AM171" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AN171" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AO171" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AP171" t="inlineStr"/>
       <c r="AQ171" t="inlineStr"/>
@@ -24136,7 +24344,7 @@
         <v>4.45</v>
       </c>
       <c r="I172" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="J172" t="n">
         <v>1.85</v>
@@ -24145,7 +24353,7 @@
         <v>2.52</v>
       </c>
       <c r="L172" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M172" t="n">
         <v>1.03</v>
@@ -24175,7 +24383,7 @@
         <v>1.26</v>
       </c>
       <c r="V172" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="W172" t="n">
         <v>1.62</v>
@@ -24184,7 +24392,7 @@
         <v>2.15</v>
       </c>
       <c r="Y172" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z172" t="n">
         <v>8.5</v>
@@ -24193,13 +24401,13 @@
         <v>8.25</v>
       </c>
       <c r="AB172" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC172" t="n">
         <v>10.25</v>
       </c>
       <c r="AD172" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE172" t="n">
         <v>9.5</v>
@@ -24211,7 +24419,7 @@
         <v>15.5</v>
       </c>
       <c r="AH172" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI172" t="n">
         <v>300</v>
@@ -24223,16 +24431,16 @@
         <v>45</v>
       </c>
       <c r="AL172" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AM172" t="n">
         <v>150</v>
       </c>
       <c r="AN172" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO172" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP172" t="inlineStr"/>
       <c r="AQ172" t="inlineStr"/>
@@ -24271,82 +24479,82 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H173" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I173" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J173" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K173" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L173" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N173" t="n">
+        <v>9</v>
+      </c>
+      <c r="O173" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P173" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R173" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S173" t="n">
         <v>2.42</v>
       </c>
-      <c r="J173" t="n">
-        <v>3</v>
-      </c>
-      <c r="K173" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="L173" t="n">
-        <v>3</v>
-      </c>
-      <c r="M173" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N173" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O173" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P173" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q173" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R173" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="S173" t="n">
-        <v>2.55</v>
-      </c>
       <c r="T173" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="U173" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="V173" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="W173" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="X173" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="Y173" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="Z173" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AA173" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB173" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AC173" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AD173" t="n">
         <v>24</v>
       </c>
       <c r="AE173" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF173" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AG173" t="n">
         <v>12.5</v>
@@ -24355,25 +24563,25 @@
         <v>45</v>
       </c>
       <c r="AI173" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AJ173" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AK173" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL173" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AM173" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN173" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO173" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP173" t="inlineStr"/>
       <c r="AQ173" t="inlineStr"/>
@@ -24412,28 +24620,28 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H174" t="n">
-        <v>4.55</v>
+        <v>4.25</v>
       </c>
       <c r="I174" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="J174" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="K174" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L174" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="M174" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N174" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O174" t="n">
         <v>1.18</v>
@@ -24442,79 +24650,79 @@
         <v>4.25</v>
       </c>
       <c r="Q174" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R174" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="S174" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="T174" t="n">
         <v>1.53</v>
       </c>
       <c r="U174" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="V174" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="W174" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X174" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Y174" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z174" t="n">
         <v>7.2</v>
       </c>
       <c r="AA174" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB174" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AC174" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD174" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE174" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF174" t="n">
         <v>9</v>
       </c>
-      <c r="AF174" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AG174" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH174" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI174" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AJ174" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AK174" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AL174" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AM174" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AN174" t="n">
+        <v>90</v>
+      </c>
+      <c r="AO174" t="n">
         <v>65</v>
-      </c>
-      <c r="AO174" t="n">
-        <v>60</v>
       </c>
       <c r="AP174" t="inlineStr"/>
       <c r="AQ174" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-08.xlsx
@@ -722,10 +722,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S2" t="n">
         <v>3.2</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H3" t="n">
         <v>5.5</v>
@@ -848,13 +848,13 @@
         <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -863,10 +863,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
         <v>3.2</v>
@@ -887,7 +887,7 @@
         <v>1.62</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z3" t="n">
         <v>6</v>
@@ -932,7 +932,7 @@
         <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO3" t="n">
         <v>51</v>
@@ -1419,10 +1419,10 @@
         <v>3.6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1431,10 +1431,10 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R7" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
         <v>3</v>
@@ -1563,7 +1563,7 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.3</v>
@@ -1713,16 +1713,16 @@
         <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U9" t="n">
         <v>1.3</v>
@@ -1731,10 +1731,10 @@
         <v>3.4</v>
       </c>
       <c r="W9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y9" t="n">
         <v>15</v>
@@ -1743,7 +1743,7 @@
         <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
@@ -1758,19 +1758,19 @@
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>41</v>
       </c>
       <c r="AI9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK9" t="n">
         <v>10</v>
@@ -1788,10 +1788,10 @@
         <v>21</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
@@ -1988,13 +1988,13 @@
         <v>2.38</v>
       </c>
       <c r="L11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O11" t="n">
         <v>1.22</v>
@@ -2148,10 +2148,10 @@
         <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S12" t="n">
         <v>3.4</v>
@@ -2262,25 +2262,25 @@
         <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I13" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>1.91</v>
       </c>
       <c r="L13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O13" t="n">
         <v>1.53</v>
@@ -2331,37 +2331,37 @@
         <v>41</v>
       </c>
       <c r="AE13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG13" t="n">
         <v>19</v>
       </c>
       <c r="AH13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI13" t="n">
         <v>501</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL13" t="n">
         <v>15</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>13</v>
       </c>
       <c r="AM13" t="n">
         <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2585,10 +2585,10 @@
         <v>3.5</v>
       </c>
       <c r="S15" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T15" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
         <v>1.18</v>
@@ -2705,7 +2705,7 @@
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
@@ -2714,10 +2714,10 @@
         <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
         <v>2.05</v>
@@ -2744,7 +2744,7 @@
         <v>1.95</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
         <v>15</v>
@@ -2768,7 +2768,7 @@
         <v>6</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
         <v>51</v>
@@ -2786,7 +2786,7 @@
         <v>9.5</v>
       </c>
       <c r="AM16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN16" t="n">
         <v>19</v>
@@ -2976,13 +2976,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J18" t="n">
         <v>3</v>
@@ -2994,28 +2994,28 @@
         <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U18" t="n">
         <v>1.44</v>
@@ -3117,13 +3117,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J19" t="n">
         <v>2.3</v>
@@ -3138,7 +3138,7 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -3153,10 +3153,10 @@
         <v>1.73</v>
       </c>
       <c r="S19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U19" t="n">
         <v>1.44</v>
@@ -3431,22 +3431,22 @@
         <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U21" t="n">
         <v>1.36</v>
@@ -3548,13 +3548,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J22" t="n">
         <v>3</v>
@@ -3566,10 +3566,10 @@
         <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N22" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O22" t="n">
         <v>1.62</v>
@@ -3596,16 +3596,16 @@
         <v>2.1</v>
       </c>
       <c r="W22" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y22" t="n">
         <v>5</v>
       </c>
       <c r="Z22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA22" t="n">
         <v>10</v>
@@ -3620,13 +3620,13 @@
         <v>41</v>
       </c>
       <c r="AE22" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH22" t="n">
         <v>101</v>
@@ -3635,16 +3635,16 @@
         <v>101</v>
       </c>
       <c r="AJ22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK22" t="n">
         <v>19</v>
       </c>
       <c r="AL22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN22" t="n">
         <v>41</v>
@@ -4025,16 +4025,16 @@
         <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R25" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T25" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U25" t="n">
         <v>1.5</v>
@@ -4144,22 +4144,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="H26" t="n">
         <v>2.88</v>
       </c>
       <c r="I26" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L26" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
         <v>1.17</v>
@@ -4198,7 +4198,7 @@
         <v>1.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z26" t="n">
         <v>19</v>
@@ -4207,13 +4207,13 @@
         <v>17</v>
       </c>
       <c r="AB26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="n">
         <v>41</v>
       </c>
       <c r="AD26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AE26" t="n">
         <v>5</v>
@@ -4301,10 +4301,10 @@
         <v>4.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O27" t="n">
         <v>1.67</v>
@@ -4422,28 +4422,28 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H28" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="I28" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K28" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L28" t="n">
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O28" t="n">
         <v>1.62</v>
@@ -4485,13 +4485,13 @@
         <v>12</v>
       </c>
       <c r="AB28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC28" t="n">
         <v>29</v>
       </c>
       <c r="AD28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -4510,7 +4510,7 @@
         <v>6.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL28" t="n">
         <v>13</v>
@@ -4561,13 +4561,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H29" t="n">
         <v>2.88</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J29" t="n">
         <v>2.88</v>
@@ -4576,7 +4576,7 @@
         <v>1.8</v>
       </c>
       <c r="L29" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
         <v>1.17</v>
@@ -4591,22 +4591,22 @@
         <v>2</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T29" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="U29" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V29" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="W29" t="n">
         <v>2.75</v>
@@ -4618,7 +4618,7 @@
         <v>4.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA29" t="n">
         <v>11</v>
@@ -4633,16 +4633,16 @@
         <v>51</v>
       </c>
       <c r="AE29" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AF29" t="n">
         <v>6.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH29" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="n">
@@ -4661,7 +4661,7 @@
         <v>51</v>
       </c>
       <c r="AO29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
@@ -4990,16 +4990,16 @@
         <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L32" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O32" t="n">
         <v>1.17</v>
@@ -5056,7 +5056,7 @@
         <v>7.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH32" t="n">
         <v>34</v>
@@ -5083,10 +5083,10 @@
         <v>19</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -5123,34 +5123,34 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J33" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K33" t="n">
         <v>2.63</v>
       </c>
       <c r="L33" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O33" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q33" t="n">
         <v>1.36</v>
@@ -5177,16 +5177,16 @@
         <v>2.75</v>
       </c>
       <c r="Y33" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z33" t="n">
         <v>13</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>12</v>
       </c>
       <c r="AA33" t="n">
         <v>9</v>
       </c>
       <c r="AB33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC33" t="n">
         <v>12</v>
@@ -5207,16 +5207,16 @@
         <v>26</v>
       </c>
       <c r="AI33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ33" t="n">
         <v>23</v>
       </c>
       <c r="AK33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM33" t="n">
         <v>51</v>
@@ -5225,7 +5225,7 @@
         <v>29</v>
       </c>
       <c r="AO33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
@@ -5549,13 +5549,13 @@
         <v>1.33</v>
       </c>
       <c r="H36" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I36" t="n">
         <v>9</v>
       </c>
       <c r="J36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K36" t="n">
         <v>2.5</v>
@@ -5576,10 +5576,10 @@
         <v>4.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R36" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S36" t="n">
         <v>2.5</v>
@@ -5609,7 +5609,7 @@
         <v>8.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC36" t="n">
         <v>11</v>
@@ -5621,7 +5621,7 @@
         <v>13</v>
       </c>
       <c r="AF36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG36" t="n">
         <v>21</v>
@@ -5651,10 +5651,10 @@
         <v>51</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
@@ -5721,16 +5721,16 @@
         <v>3.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R37" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S37" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T37" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U37" t="n">
         <v>1.4</v>
@@ -5980,7 +5980,7 @@
         <v>2.5</v>
       </c>
       <c r="H39" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I39" t="n">
         <v>2.5</v>
@@ -6019,16 +6019,16 @@
         <v>1.5</v>
       </c>
       <c r="U39" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V39" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W39" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X39" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y39" t="n">
         <v>11</v>
@@ -6058,7 +6058,7 @@
         <v>12</v>
       </c>
       <c r="AH39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI39" t="n">
         <v>126</v>
@@ -6185,13 +6185,13 @@
         <v>8.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC40" t="n">
         <v>12</v>
       </c>
       <c r="AD40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE40" t="n">
         <v>15</v>
@@ -6432,22 +6432,22 @@
         <v>8</v>
       </c>
       <c r="O42" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P42" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R42" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S42" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T42" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U42" t="n">
         <v>1.53</v>
@@ -6515,10 +6515,10 @@
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
       <c r="AR42" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="43">
@@ -6574,7 +6574,7 @@
         <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O43" t="n">
         <v>1.36</v>
@@ -6730,10 +6730,10 @@
         <v>1.75</v>
       </c>
       <c r="S44" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T44" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U44" t="n">
         <v>1.44</v>
@@ -6835,22 +6835,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H45" t="n">
         <v>3.1</v>
       </c>
       <c r="I45" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J45" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K45" t="n">
         <v>1.91</v>
       </c>
       <c r="L45" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
         <v>1.11</v>
@@ -6871,10 +6871,10 @@
         <v>1.48</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T45" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U45" t="n">
         <v>1.57</v>
@@ -6901,7 +6901,7 @@
         <v>21</v>
       </c>
       <c r="AC45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD45" t="n">
         <v>41</v>
@@ -6931,7 +6931,7 @@
         <v>13</v>
       </c>
       <c r="AM45" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN45" t="n">
         <v>34</v>
@@ -6940,16 +6940,16 @@
         <v>41</v>
       </c>
       <c r="AP45" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR45" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="46">
@@ -6984,10 +6984,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H46" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I46" t="n">
         <v>7</v>
@@ -6999,7 +6999,7 @@
         <v>2.1</v>
       </c>
       <c r="L46" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M46" t="n">
         <v>1.08</v>
@@ -7008,16 +7008,16 @@
         <v>7.5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P46" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R46" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S46" t="n">
         <v>4.33</v>
@@ -7041,13 +7041,13 @@
         <v>5</v>
       </c>
       <c r="Z46" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA46" t="n">
         <v>9.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC46" t="n">
         <v>15</v>
@@ -7071,19 +7071,19 @@
         <v>101</v>
       </c>
       <c r="AJ46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK46" t="n">
         <v>34</v>
       </c>
       <c r="AL46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM46" t="n">
         <v>81</v>
       </c>
       <c r="AN46" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AO46" t="n">
         <v>67</v>
@@ -7133,13 +7133,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H47" t="n">
         <v>2.88</v>
       </c>
       <c r="I47" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J47" t="n">
         <v>4</v>
@@ -7148,7 +7148,7 @@
         <v>2</v>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M47" t="n">
         <v>1.08</v>
@@ -7297,13 +7297,13 @@
         <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M48" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N48" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O48" t="n">
         <v>1.5</v>
@@ -7354,7 +7354,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF48" t="n">
         <v>7.5</v>
@@ -7434,13 +7434,13 @@
         <v>3.1</v>
       </c>
       <c r="H49" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I49" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K49" t="n">
         <v>2.1</v>
@@ -7452,7 +7452,7 @@
         <v>1.06</v>
       </c>
       <c r="N49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O49" t="n">
         <v>1.3</v>
@@ -7464,7 +7464,7 @@
         <v>2.05</v>
       </c>
       <c r="R49" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S49" t="n">
         <v>3.5</v>
@@ -7524,10 +7524,10 @@
         <v>10</v>
       </c>
       <c r="AL49" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM49" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN49" t="n">
         <v>19</v>
@@ -7995,13 +7995,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="H53" t="n">
         <v>3.35</v>
       </c>
       <c r="I53" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="J53" t="n">
         <v>3.25</v>
@@ -8010,7 +8010,7 @@
         <v>2.07</v>
       </c>
       <c r="L53" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="M53" t="n">
         <v>1.06</v>
@@ -8037,10 +8037,10 @@
         <v>1.32</v>
       </c>
       <c r="U53" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="V53" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="W53" t="n">
         <v>1.72</v>
@@ -8049,10 +8049,10 @@
         <v>2.02</v>
       </c>
       <c r="Y53" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA53" t="n">
         <v>10.5</v>
@@ -8076,7 +8076,7 @@
         <v>14.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI53" t="n">
         <v>500</v>
@@ -8085,10 +8085,10 @@
         <v>8.5</v>
       </c>
       <c r="AK53" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL53" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AM53" t="n">
         <v>30</v>
@@ -8307,10 +8307,10 @@
         <v>3.75</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R55" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S55" t="n">
         <v>3</v>
@@ -8587,22 +8587,22 @@
         <v>13</v>
       </c>
       <c r="O57" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P57" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R57" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S57" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T57" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U57" t="n">
         <v>1.33</v>
@@ -8849,13 +8849,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="H59" t="n">
         <v>2.62</v>
       </c>
       <c r="I59" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="J59" t="n">
         <v>3.2</v>
@@ -8864,13 +8864,13 @@
         <v>1.8</v>
       </c>
       <c r="L59" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="M59" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="N59" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="O59" t="n">
         <v>1.62</v>
@@ -8885,43 +8885,43 @@
         <v>1.38</v>
       </c>
       <c r="S59" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="T59" t="n">
         <v>1.13</v>
       </c>
       <c r="U59" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V59" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="W59" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X59" t="n">
         <v>1.6</v>
       </c>
       <c r="Y59" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="Z59" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA59" t="n">
         <v>10.25</v>
       </c>
       <c r="AB59" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC59" t="n">
         <v>27</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>28</v>
       </c>
       <c r="AD59" t="n">
         <v>50</v>
       </c>
       <c r="AE59" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AF59" t="n">
         <v>5.4</v>
@@ -8936,10 +8936,10 @@
         <v>101</v>
       </c>
       <c r="AJ59" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AK59" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL59" t="n">
         <v>13</v>
@@ -8948,10 +8948,10 @@
         <v>55</v>
       </c>
       <c r="AN59" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AO59" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AP59" t="inlineStr"/>
       <c r="AQ59" t="inlineStr"/>
@@ -9020,16 +9020,16 @@
         <v>4</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R60" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S60" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T60" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U60" t="n">
         <v>1.36</v>
@@ -9038,10 +9038,10 @@
         <v>3</v>
       </c>
       <c r="W60" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X60" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y60" t="n">
         <v>7</v>
@@ -9053,7 +9053,7 @@
         <v>8.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC60" t="n">
         <v>12</v>
@@ -9074,7 +9074,7 @@
         <v>51</v>
       </c>
       <c r="AI60" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ60" t="n">
         <v>15</v>
@@ -9083,7 +9083,7 @@
         <v>29</v>
       </c>
       <c r="AL60" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM60" t="n">
         <v>67</v>
@@ -9131,16 +9131,16 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H61" t="n">
         <v>3.5</v>
       </c>
       <c r="I61" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J61" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K61" t="n">
         <v>2.1</v>
@@ -9161,10 +9161,10 @@
         <v>3.4</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R61" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S61" t="n">
         <v>3.75</v>
@@ -9185,10 +9185,10 @@
         <v>1.83</v>
       </c>
       <c r="Y61" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA61" t="n">
         <v>9</v>
@@ -9197,13 +9197,13 @@
         <v>19</v>
       </c>
       <c r="AC61" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD61" t="n">
         <v>29</v>
       </c>
       <c r="AE61" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF61" t="n">
         <v>6.5</v>
@@ -9218,7 +9218,7 @@
         <v>301</v>
       </c>
       <c r="AJ61" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK61" t="n">
         <v>17</v>
@@ -9227,7 +9227,7 @@
         <v>12</v>
       </c>
       <c r="AM61" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN61" t="n">
         <v>29</v>
@@ -9272,13 +9272,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H62" t="n">
         <v>3.9</v>
       </c>
       <c r="I62" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J62" t="n">
         <v>2.3</v>
@@ -9287,7 +9287,7 @@
         <v>2.2</v>
       </c>
       <c r="L62" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M62" t="n">
         <v>1.05</v>
@@ -9320,16 +9320,16 @@
         <v>2.75</v>
       </c>
       <c r="W62" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X62" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y62" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA62" t="n">
         <v>8.5</v>
@@ -9341,7 +9341,7 @@
         <v>15</v>
       </c>
       <c r="AD62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE62" t="n">
         <v>11</v>
@@ -9350,13 +9350,13 @@
         <v>7.5</v>
       </c>
       <c r="AG62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH62" t="n">
         <v>51</v>
       </c>
       <c r="AI62" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ62" t="n">
         <v>12</v>
@@ -9413,13 +9413,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H63" t="n">
         <v>4.5</v>
       </c>
       <c r="I63" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J63" t="n">
         <v>2.05</v>
@@ -9443,10 +9443,10 @@
         <v>3.75</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R63" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S63" t="n">
         <v>3.2</v>
@@ -9485,7 +9485,7 @@
         <v>29</v>
       </c>
       <c r="AE63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF63" t="n">
         <v>8.5</v>
@@ -9515,7 +9515,7 @@
         <v>41</v>
       </c>
       <c r="AO63" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP63" t="inlineStr"/>
       <c r="AQ63" t="inlineStr"/>
@@ -9560,7 +9560,7 @@
         <v>3.1</v>
       </c>
       <c r="I64" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J64" t="n">
         <v>2.88</v>
@@ -9569,13 +9569,13 @@
         <v>1.95</v>
       </c>
       <c r="L64" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M64" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N64" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O64" t="n">
         <v>1.5</v>
@@ -9608,7 +9608,7 @@
         <v>1.67</v>
       </c>
       <c r="Y64" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z64" t="n">
         <v>8.5</v>
@@ -9647,7 +9647,7 @@
         <v>17</v>
       </c>
       <c r="AL64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM64" t="n">
         <v>41</v>
@@ -9656,15 +9656,15 @@
         <v>41</v>
       </c>
       <c r="AO64" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP64" t="inlineStr"/>
       <c r="AQ64" t="inlineStr"/>
       <c r="AR64" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="65">
@@ -10015,16 +10015,16 @@
         <v>3.5</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R67" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S67" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T67" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U67" t="n">
         <v>1.4</v>
@@ -10138,16 +10138,16 @@
         <v>2</v>
       </c>
       <c r="K68" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L68" t="n">
         <v>6</v>
       </c>
       <c r="M68" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N68" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O68" t="n">
         <v>1.22</v>
@@ -10479,13 +10479,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H71" t="n">
         <v>3.6</v>
       </c>
       <c r="I71" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J71" t="n">
         <v>2.3</v>
@@ -10497,10 +10497,10 @@
         <v>5.5</v>
       </c>
       <c r="M71" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N71" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O71" t="n">
         <v>1.33</v>
@@ -10509,10 +10509,10 @@
         <v>3.25</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R71" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S71" t="n">
         <v>3.75</v>
@@ -10551,7 +10551,7 @@
         <v>29</v>
       </c>
       <c r="AE71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF71" t="n">
         <v>7</v>
@@ -10566,7 +10566,7 @@
         <v>401</v>
       </c>
       <c r="AJ71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK71" t="n">
         <v>26</v>
@@ -10691,28 +10691,28 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I73" t="n">
         <v>2.63</v>
       </c>
       <c r="J73" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K73" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L73" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M73" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N73" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O73" t="n">
         <v>1.5</v>
@@ -10721,67 +10721,67 @@
         <v>2.5</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R73" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S73" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T73" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U73" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V73" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W73" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X73" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y73" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z73" t="n">
         <v>13</v>
       </c>
       <c r="AA73" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB73" t="n">
         <v>29</v>
       </c>
       <c r="AC73" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD73" t="n">
         <v>41</v>
       </c>
       <c r="AE73" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF73" t="n">
         <v>6</v>
       </c>
       <c r="AG73" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH73" t="n">
         <v>67</v>
       </c>
       <c r="AI73" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AJ73" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK73" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL73" t="n">
         <v>11</v>
@@ -10790,7 +10790,7 @@
         <v>26</v>
       </c>
       <c r="AN73" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO73" t="n">
         <v>41</v>
@@ -10798,10 +10798,10 @@
       <c r="AP73" t="inlineStr"/>
       <c r="AQ73" t="inlineStr"/>
       <c r="AR73" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="74">
@@ -10836,46 +10836,46 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I74" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J74" t="n">
         <v>1.95</v>
       </c>
       <c r="K74" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L74" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M74" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N74" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O74" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P74" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R74" t="n">
         <v>2</v>
       </c>
       <c r="S74" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T74" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U74" t="n">
         <v>1.36</v>
@@ -10884,10 +10884,10 @@
         <v>3</v>
       </c>
       <c r="W74" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X74" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y74" t="n">
         <v>6.5</v>
@@ -10896,10 +10896,10 @@
         <v>6.5</v>
       </c>
       <c r="AA74" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB74" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC74" t="n">
         <v>12</v>
@@ -10911,10 +10911,10 @@
         <v>11</v>
       </c>
       <c r="AF74" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG74" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH74" t="n">
         <v>67</v>
@@ -10977,22 +10977,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>3.6</v>
       </c>
       <c r="I75" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J75" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K75" t="n">
         <v>2.1</v>
       </c>
       <c r="L75" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M75" t="n">
         <v>1.06</v>
@@ -11007,10 +11007,10 @@
         <v>3.25</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R75" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S75" t="n">
         <v>3.75</v>
@@ -11031,7 +11031,7 @@
         <v>1.73</v>
       </c>
       <c r="Y75" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z75" t="n">
         <v>7.5</v>
@@ -11064,13 +11064,13 @@
         <v>351</v>
       </c>
       <c r="AJ75" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK75" t="n">
         <v>23</v>
       </c>
       <c r="AL75" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM75" t="n">
         <v>51</v>
@@ -11121,10 +11121,10 @@
         <v>2.15</v>
       </c>
       <c r="H76" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I76" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J76" t="n">
         <v>2.63</v>
@@ -11408,46 +11408,46 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H78" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I78" t="n">
         <v>2.25</v>
       </c>
       <c r="J78" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K78" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L78" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M78" t="n">
         <v>1.04</v>
       </c>
       <c r="N78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O78" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P78" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="R78" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="S78" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T78" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U78" t="n">
         <v>1.36</v>
@@ -11456,13 +11456,13 @@
         <v>3</v>
       </c>
       <c r="W78" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X78" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y78" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z78" t="n">
         <v>15</v>
@@ -11477,10 +11477,10 @@
         <v>21</v>
       </c>
       <c r="AD78" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF78" t="n">
         <v>7</v>
@@ -11492,10 +11492,10 @@
         <v>41</v>
       </c>
       <c r="AI78" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ78" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK78" t="n">
         <v>12</v>
@@ -11510,7 +11510,7 @@
         <v>17</v>
       </c>
       <c r="AO78" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP78" t="inlineStr"/>
       <c r="AQ78" t="inlineStr"/>
@@ -11712,28 +11712,28 @@
         <v>3.25</v>
       </c>
       <c r="M80" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T80" t="n">
         <v>1.29</v>
-      </c>
-      <c r="P80" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R80" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S80" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T80" t="n">
-        <v>1.3</v>
       </c>
       <c r="U80" t="n">
         <v>1.4</v>
@@ -11976,22 +11976,22 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I82" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J82" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K82" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L82" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M82" t="n">
         <v>1.03</v>
@@ -12006,10 +12006,10 @@
         <v>4.33</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R82" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S82" t="n">
         <v>2.63</v>
@@ -12018,10 +12018,10 @@
         <v>1.44</v>
       </c>
       <c r="U82" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V82" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W82" t="n">
         <v>1.67</v>
@@ -12033,19 +12033,19 @@
         <v>8.5</v>
       </c>
       <c r="Z82" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA82" t="n">
         <v>8.5</v>
       </c>
       <c r="AB82" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC82" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD82" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE82" t="n">
         <v>15</v>
@@ -12060,13 +12060,13 @@
         <v>41</v>
       </c>
       <c r="AI82" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ82" t="n">
         <v>15</v>
       </c>
       <c r="AK82" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL82" t="n">
         <v>15</v>
@@ -12288,10 +12288,10 @@
         <v>4.5</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R84" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S84" t="n">
         <v>2.5</v>
@@ -12363,10 +12363,10 @@
         <v>21</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AR84" t="inlineStr"/>
       <c r="AS84" t="inlineStr"/>
@@ -12403,10 +12403,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H85" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I85" t="n">
         <v>2.5</v>
@@ -12415,52 +12415,52 @@
         <v>3.2</v>
       </c>
       <c r="K85" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L85" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M85" t="n">
         <v>1.04</v>
       </c>
       <c r="N85" t="n">
+        <v>12</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V85" t="n">
+        <v>3</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z85" t="n">
         <v>13</v>
-      </c>
-      <c r="O85" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P85" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R85" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S85" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T85" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U85" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V85" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W85" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X85" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>15</v>
       </c>
       <c r="AA85" t="n">
         <v>10</v>
@@ -12469,19 +12469,19 @@
         <v>26</v>
       </c>
       <c r="AC85" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD85" t="n">
         <v>26</v>
       </c>
       <c r="AE85" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF85" t="n">
         <v>6.5</v>
       </c>
       <c r="AG85" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH85" t="n">
         <v>41</v>
@@ -12490,10 +12490,10 @@
         <v>151</v>
       </c>
       <c r="AJ85" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL85" t="n">
         <v>10</v>
@@ -12568,10 +12568,10 @@
         <v>6.5</v>
       </c>
       <c r="O86" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P86" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q86" t="n">
         <v>2.7</v>
@@ -12649,10 +12649,10 @@
         <v>51</v>
       </c>
       <c r="AP86" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AR86" t="n">
         <v>2.03</v>
@@ -12693,19 +12693,19 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H87" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I87" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J87" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K87" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L87" t="n">
         <v>2.6</v>
@@ -12723,10 +12723,10 @@
         <v>3.75</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R87" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S87" t="n">
         <v>3</v>
@@ -12750,7 +12750,7 @@
         <v>12</v>
       </c>
       <c r="Z87" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA87" t="n">
         <v>13</v>
@@ -12765,10 +12765,10 @@
         <v>34</v>
       </c>
       <c r="AE87" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF87" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG87" t="n">
         <v>13</v>
@@ -12783,7 +12783,7 @@
         <v>8</v>
       </c>
       <c r="AK87" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL87" t="n">
         <v>8.5</v>
@@ -13265,13 +13265,13 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H91" t="n">
         <v>3.25</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J91" t="n">
         <v>2.88</v>
@@ -13280,7 +13280,7 @@
         <v>2.2</v>
       </c>
       <c r="L91" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M91" t="n">
         <v>1.05</v>
@@ -13325,7 +13325,7 @@
         <v>11</v>
       </c>
       <c r="AA91" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB91" t="n">
         <v>21</v>
@@ -13355,7 +13355,7 @@
         <v>10</v>
       </c>
       <c r="AK91" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL91" t="n">
         <v>11</v>
@@ -13427,7 +13427,7 @@
         <v>1.04</v>
       </c>
       <c r="N92" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O92" t="n">
         <v>1.22</v>
@@ -13436,10 +13436,10 @@
         <v>4</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R92" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S92" t="n">
         <v>2.75</v>
@@ -13448,10 +13448,10 @@
         <v>1.4</v>
       </c>
       <c r="U92" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V92" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W92" t="n">
         <v>1.62</v>
@@ -13478,7 +13478,7 @@
         <v>23</v>
       </c>
       <c r="AE92" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF92" t="n">
         <v>6.5</v>
@@ -13493,7 +13493,7 @@
         <v>151</v>
       </c>
       <c r="AJ92" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK92" t="n">
         <v>17</v>
@@ -14113,10 +14113,10 @@
         <v>8</v>
       </c>
       <c r="M97" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N97" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O97" t="n">
         <v>1.18</v>
@@ -14125,10 +14125,10 @@
         <v>4.5</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R97" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S97" t="n">
         <v>2.5</v>
@@ -14200,10 +14200,10 @@
         <v>51</v>
       </c>
       <c r="AP97" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR97" t="inlineStr"/>
       <c r="AS97" t="inlineStr"/>
@@ -14409,22 +14409,22 @@
         <v>8</v>
       </c>
       <c r="O99" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P99" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R99" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S99" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T99" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U99" t="n">
         <v>1.53</v>
@@ -14469,7 +14469,7 @@
         <v>67</v>
       </c>
       <c r="AI99" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AJ99" t="n">
         <v>6.5</v>
@@ -14492,10 +14492,10 @@
       <c r="AP99" t="inlineStr"/>
       <c r="AQ99" t="inlineStr"/>
       <c r="AR99" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="100">
@@ -14530,28 +14530,28 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="H100" t="n">
         <v>4.33</v>
       </c>
       <c r="I100" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="J100" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K100" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L100" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="M100" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N100" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O100" t="n">
         <v>1.22</v>
@@ -14578,25 +14578,25 @@
         <v>3.25</v>
       </c>
       <c r="W100" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X100" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y100" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z100" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA100" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB100" t="n">
         <v>67</v>
       </c>
       <c r="AC100" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD100" t="n">
         <v>41</v>
@@ -14614,25 +14614,25 @@
         <v>51</v>
       </c>
       <c r="AI100" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ100" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK100" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AL100" t="n">
         <v>8.5</v>
       </c>
       <c r="AM100" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN100" t="n">
         <v>12</v>
       </c>
       <c r="AO100" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP100" t="inlineStr"/>
       <c r="AQ100" t="inlineStr"/>
@@ -14816,7 +14816,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H102" t="n">
         <v>3</v>
@@ -14831,7 +14831,7 @@
         <v>2</v>
       </c>
       <c r="L102" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M102" t="n">
         <v>1.08</v>
@@ -14870,10 +14870,10 @@
         <v>1.8</v>
       </c>
       <c r="Y102" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z102" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA102" t="n">
         <v>10</v>
@@ -14969,10 +14969,10 @@
         <v>4.75</v>
       </c>
       <c r="K103" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L103" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M103" t="n">
         <v>1.04</v>
@@ -14987,10 +14987,10 @@
         <v>4</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R103" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S103" t="n">
         <v>2.75</v>
@@ -14999,10 +14999,10 @@
         <v>1.4</v>
       </c>
       <c r="U103" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V103" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W103" t="n">
         <v>1.7</v>
@@ -15035,7 +15035,7 @@
         <v>7</v>
       </c>
       <c r="AG103" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH103" t="n">
         <v>41</v>
@@ -15128,10 +15128,10 @@
         <v>3</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R104" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S104" t="n">
         <v>4</v>
@@ -15451,13 +15451,13 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H107" t="n">
         <v>3.7</v>
       </c>
       <c r="I107" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J107" t="n">
         <v>5.5</v>
@@ -15472,25 +15472,25 @@
         <v>1.06</v>
       </c>
       <c r="N107" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O107" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P107" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R107" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S107" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T107" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U107" t="n">
         <v>1.44</v>
@@ -15499,19 +15499,19 @@
         <v>2.63</v>
       </c>
       <c r="W107" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X107" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y107" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z107" t="n">
         <v>23</v>
       </c>
       <c r="AA107" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB107" t="n">
         <v>51</v>
@@ -15523,22 +15523,22 @@
         <v>41</v>
       </c>
       <c r="AE107" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF107" t="n">
         <v>7</v>
       </c>
       <c r="AG107" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH107" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI107" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AJ107" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK107" t="n">
         <v>7.5</v>
@@ -15891,13 +15891,13 @@
         <v>5.6</v>
       </c>
       <c r="J110" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="K110" t="n">
         <v>2.42</v>
       </c>
       <c r="L110" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
@@ -15911,7 +15911,7 @@
         <v>1.5</v>
       </c>
       <c r="R110" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="S110" t="n">
         <v>2.18</v>
@@ -15946,10 +15946,10 @@
         <v>20</v>
       </c>
       <c r="AE110" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF110" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AG110" t="n">
         <v>15</v>
@@ -15961,13 +15961,13 @@
         <v>350</v>
       </c>
       <c r="AJ110" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK110" t="n">
         <v>40</v>
       </c>
       <c r="AL110" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AM110" t="n">
         <v>110</v>
@@ -16148,22 +16148,22 @@
         </is>
       </c>
       <c r="G112" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H112" t="n">
         <v>3.5</v>
       </c>
-      <c r="H112" t="n">
-        <v>3.6</v>
-      </c>
       <c r="I112" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="J112" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K112" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L112" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
@@ -16171,19 +16171,19 @@
         <v>1.25</v>
       </c>
       <c r="P112" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R112" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S112" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="T112" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr"/>
@@ -16194,28 +16194,28 @@
         <v>1.98</v>
       </c>
       <c r="Y112" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="Z112" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AA112" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AB112" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC112" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD112" t="n">
         <v>35</v>
       </c>
       <c r="AE112" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AF112" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AG112" t="n">
         <v>14</v>
@@ -16227,19 +16227,19 @@
         <v>450</v>
       </c>
       <c r="AJ112" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AK112" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL112" t="n">
         <v>8.5</v>
       </c>
       <c r="AM112" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AN112" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO112" t="n">
         <v>25</v>
@@ -16551,110 +16551,118 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.84</v>
+        <v>1.62</v>
       </c>
       <c r="H115" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I115" t="n">
-        <v>4.1</v>
+        <v>5.25</v>
       </c>
       <c r="J115" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K115" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L115" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N115" t="n">
+        <v>7</v>
+      </c>
       <c r="O115" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="P115" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="R115" t="n">
         <v>1.53</v>
       </c>
       <c r="S115" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T115" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U115" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="V115" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="W115" t="n">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="X115" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="Y115" t="n">
         <v>5</v>
       </c>
       <c r="Z115" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AA115" t="n">
-        <v>7.2</v>
+        <v>9.5</v>
       </c>
       <c r="AB115" t="n">
         <v>12</v>
       </c>
       <c r="AC115" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD115" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AE115" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AF115" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="AG115" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AH115" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI115" t="n">
         <v>101</v>
       </c>
       <c r="AJ115" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="AK115" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AL115" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AM115" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AN115" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AO115" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AP115" t="inlineStr"/>
       <c r="AQ115" t="inlineStr"/>
-      <c r="AR115" t="inlineStr"/>
-      <c r="AS115" t="inlineStr"/>
+      <c r="AR115" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -16688,46 +16696,110 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="H116" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I116" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr"/>
-      <c r="Z116" t="inlineStr"/>
-      <c r="AA116" t="inlineStr"/>
-      <c r="AB116" t="inlineStr"/>
-      <c r="AC116" t="inlineStr"/>
-      <c r="AD116" t="inlineStr"/>
-      <c r="AE116" t="inlineStr"/>
-      <c r="AF116" t="inlineStr"/>
-      <c r="AG116" t="inlineStr"/>
-      <c r="AH116" t="inlineStr"/>
-      <c r="AI116" t="inlineStr"/>
-      <c r="AJ116" t="inlineStr"/>
-      <c r="AK116" t="inlineStr"/>
-      <c r="AL116" t="inlineStr"/>
-      <c r="AM116" t="inlineStr"/>
-      <c r="AN116" t="inlineStr"/>
-      <c r="AO116" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L116" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N116" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P116" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R116" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S116" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U116" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V116" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X116" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>51</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>67</v>
+      </c>
       <c r="AP116" t="inlineStr"/>
       <c r="AQ116" t="inlineStr"/>
       <c r="AR116" t="inlineStr"/>
@@ -16765,50 +16837,118 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="H117" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I117" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
-      <c r="Z117" t="inlineStr"/>
-      <c r="AA117" t="inlineStr"/>
-      <c r="AB117" t="inlineStr"/>
-      <c r="AC117" t="inlineStr"/>
-      <c r="AD117" t="inlineStr"/>
-      <c r="AE117" t="inlineStr"/>
-      <c r="AF117" t="inlineStr"/>
-      <c r="AG117" t="inlineStr"/>
-      <c r="AH117" t="inlineStr"/>
-      <c r="AI117" t="inlineStr"/>
-      <c r="AJ117" t="inlineStr"/>
-      <c r="AK117" t="inlineStr"/>
-      <c r="AL117" t="inlineStr"/>
-      <c r="AM117" t="inlineStr"/>
-      <c r="AN117" t="inlineStr"/>
-      <c r="AO117" t="inlineStr"/>
+        <v>3.8</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L117" t="n">
+        <v>5</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N117" t="n">
+        <v>8</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P117" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R117" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S117" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U117" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V117" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W117" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X117" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>900</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>51</v>
+      </c>
       <c r="AP117" t="inlineStr"/>
       <c r="AQ117" t="inlineStr"/>
-      <c r="AR117" t="inlineStr"/>
-      <c r="AS117" t="inlineStr"/>
+      <c r="AR117" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -17390,16 +17530,16 @@
         <v>51</v>
       </c>
       <c r="AP121" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AR121" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AS121" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="122">
@@ -17599,16 +17739,16 @@
         <v>11</v>
       </c>
       <c r="O123" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P123" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R123" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S123" t="n">
         <v>3.25</v>
@@ -17734,28 +17874,28 @@
         <v>3</v>
       </c>
       <c r="M124" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N124" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O124" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P124" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R124" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S124" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T124" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U124" t="n">
         <v>1.5</v>
@@ -17860,7 +18000,7 @@
         <v>4.2</v>
       </c>
       <c r="H125" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I125" t="n">
         <v>1.95</v>
@@ -17875,22 +18015,22 @@
         <v>2.75</v>
       </c>
       <c r="M125" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N125" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O125" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P125" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R125" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S125" t="n">
         <v>5.5</v>
@@ -17899,16 +18039,16 @@
         <v>1.14</v>
       </c>
       <c r="U125" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V125" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W125" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="X125" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="Y125" t="n">
         <v>8.5</v>
@@ -17929,7 +18069,7 @@
         <v>51</v>
       </c>
       <c r="AE125" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF125" t="n">
         <v>6.5</v>
@@ -17944,19 +18084,19 @@
         <v>1250</v>
       </c>
       <c r="AJ125" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AK125" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AL125" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM125" t="n">
         <v>17</v>
       </c>
       <c r="AN125" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO125" t="n">
         <v>41</v>
@@ -17964,10 +18104,10 @@
       <c r="AP125" t="inlineStr"/>
       <c r="AQ125" t="inlineStr"/>
       <c r="AR125" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="126">
@@ -18457,16 +18597,16 @@
         <v>2.75</v>
       </c>
       <c r="Q129" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R129" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S129" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T129" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U129" t="n">
         <v>1.5</v>
@@ -18586,10 +18726,10 @@
         <v>5</v>
       </c>
       <c r="M130" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N130" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O130" t="n">
         <v>1.36</v>
@@ -18598,16 +18738,16 @@
         <v>3</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R130" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S130" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T130" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U130" t="n">
         <v>1.44</v>
@@ -18850,101 +18990,109 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H132" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I132" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="J132" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K132" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="L132" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N132" t="n">
+        <v>9.75</v>
+      </c>
       <c r="O132" t="n">
         <v>1.13</v>
       </c>
       <c r="P132" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="R132" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="S132" t="n">
-        <v>2.09</v>
+        <v>1.98</v>
       </c>
       <c r="T132" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U132" t="inlineStr"/>
-      <c r="V132" t="inlineStr"/>
+        <v>1.75</v>
+      </c>
+      <c r="U132" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V132" t="n">
+        <v>3.65</v>
+      </c>
       <c r="W132" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X132" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Y132" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ132" t="n">
         <v>13</v>
       </c>
-      <c r="Z132" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA132" t="n">
+      <c r="AK132" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL132" t="n">
         <v>9</v>
       </c>
-      <c r="AB132" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC132" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD132" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE132" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF132" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AG132" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AH132" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI132" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ132" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK132" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL132" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AM132" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AN132" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AO132" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AP132" t="inlineStr"/>
       <c r="AQ132" t="inlineStr"/>
@@ -18983,34 +19131,34 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H133" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I133" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J133" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K133" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L133" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="M133" t="n">
         <v>1.03</v>
       </c>
       <c r="N133" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O133" t="n">
         <v>1.17</v>
       </c>
       <c r="P133" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="Q133" t="n">
         <v>1.52</v>
@@ -19025,7 +19173,7 @@
         <v>1.57</v>
       </c>
       <c r="U133" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="V133" t="n">
         <v>3.3</v>
@@ -19040,28 +19188,28 @@
         <v>14.5</v>
       </c>
       <c r="Z133" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA133" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AB133" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC133" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AD133" t="n">
         <v>26</v>
       </c>
       <c r="AE133" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF133" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG133" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH133" t="n">
         <v>37</v>
@@ -19070,7 +19218,7 @@
         <v>200</v>
       </c>
       <c r="AJ133" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AK133" t="n">
         <v>12</v>
@@ -19082,7 +19230,7 @@
         <v>19</v>
       </c>
       <c r="AN133" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO133" t="n">
         <v>18</v>
@@ -19124,22 +19272,22 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="H134" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="I134" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J134" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="K134" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="L134" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="M134" t="n">
         <v>1.03</v>
@@ -19157,7 +19305,7 @@
         <v>1.45</v>
       </c>
       <c r="R134" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="S134" t="n">
         <v>2.1</v>
@@ -19166,16 +19314,16 @@
         <v>1.65</v>
       </c>
       <c r="U134" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="V134" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="W134" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="X134" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="Y134" t="n">
         <v>19.5</v>
@@ -19184,34 +19332,34 @@
         <v>32</v>
       </c>
       <c r="AA134" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB134" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AC134" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD134" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE134" t="n">
         <v>9.75</v>
       </c>
       <c r="AF134" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AG134" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH134" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI134" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AJ134" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK134" t="n">
         <v>9.75</v>
@@ -19220,10 +19368,10 @@
         <v>8.25</v>
       </c>
       <c r="AM134" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AN134" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AO134" t="n">
         <v>18</v>
@@ -19265,22 +19413,22 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H135" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I135" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="J135" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K135" t="n">
         <v>2.1</v>
       </c>
       <c r="L135" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M135" t="n">
         <v>1.05</v>
@@ -19319,16 +19467,16 @@
         <v>2</v>
       </c>
       <c r="Y135" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z135" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA135" t="n">
         <v>10</v>
       </c>
       <c r="AB135" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC135" t="n">
         <v>21</v>
@@ -19358,7 +19506,7 @@
         <v>13</v>
       </c>
       <c r="AL135" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM135" t="n">
         <v>26</v>
@@ -19985,7 +20133,7 @@
         <v>2.95</v>
       </c>
       <c r="L140" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="M140" t="n">
         <v>1.02</v>
@@ -19994,52 +20142,52 @@
         <v>9.75</v>
       </c>
       <c r="O140" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P140" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="R140" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="S140" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T140" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U140" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="V140" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="W140" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="X140" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Y140" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Z140" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AA140" t="n">
         <v>10.25</v>
       </c>
       <c r="AB140" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AC140" t="n">
         <v>10.25</v>
       </c>
       <c r="AD140" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE140" t="n">
         <v>10.5</v>
@@ -20048,16 +20196,16 @@
         <v>15</v>
       </c>
       <c r="AG140" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH140" t="n">
         <v>100</v>
       </c>
       <c r="AI140" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AJ140" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK140" t="n">
         <v>110</v>
@@ -20066,7 +20214,7 @@
         <v>40</v>
       </c>
       <c r="AM140" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AN140" t="n">
         <v>150</v>
@@ -20126,7 +20274,7 @@
         <v>2.05</v>
       </c>
       <c r="L141" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M141" t="n">
         <v>1.06</v>
@@ -20204,7 +20352,7 @@
         <v>16</v>
       </c>
       <c r="AL141" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AM141" t="n">
         <v>40</v>
@@ -20251,41 +20399,111 @@
           <t>Tampines</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
-      <c r="Z142" t="inlineStr"/>
-      <c r="AA142" t="inlineStr"/>
-      <c r="AB142" t="inlineStr"/>
-      <c r="AC142" t="inlineStr"/>
-      <c r="AD142" t="inlineStr"/>
-      <c r="AE142" t="inlineStr"/>
-      <c r="AF142" t="inlineStr"/>
-      <c r="AG142" t="inlineStr"/>
-      <c r="AH142" t="inlineStr"/>
-      <c r="AI142" t="inlineStr"/>
-      <c r="AJ142" t="inlineStr"/>
-      <c r="AK142" t="inlineStr"/>
-      <c r="AL142" t="inlineStr"/>
-      <c r="AM142" t="inlineStr"/>
-      <c r="AN142" t="inlineStr"/>
-      <c r="AO142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>7</v>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J142" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K142" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N142" t="n">
+        <v>34</v>
+      </c>
+      <c r="O142" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P142" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R142" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S142" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T142" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U142" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="V142" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X142" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>17</v>
+      </c>
       <c r="AP142" t="inlineStr"/>
       <c r="AQ142" t="inlineStr"/>
       <c r="AR142" t="inlineStr"/>
@@ -20323,7 +20541,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="H143" t="n">
         <v>3.2</v>
@@ -20332,7 +20550,7 @@
         <v>1.9</v>
       </c>
       <c r="J143" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="K143" t="n">
         <v>2.12</v>
@@ -20341,10 +20559,10 @@
         <v>2.42</v>
       </c>
       <c r="M143" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N143" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="O143" t="n">
         <v>1.33</v>
@@ -20368,7 +20586,7 @@
         <v>1.39</v>
       </c>
       <c r="V143" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="W143" t="n">
         <v>1.78</v>
@@ -20377,7 +20595,7 @@
         <v>1.93</v>
       </c>
       <c r="Y143" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Z143" t="n">
         <v>27</v>
@@ -20392,10 +20610,10 @@
         <v>45</v>
       </c>
       <c r="AD143" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE143" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AF143" t="n">
         <v>6.5</v>
@@ -20410,10 +20628,10 @@
         <v>600</v>
       </c>
       <c r="AJ143" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AK143" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AL143" t="n">
         <v>8.75</v>
@@ -20422,10 +20640,10 @@
         <v>18</v>
       </c>
       <c r="AN143" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO143" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP143" t="inlineStr"/>
       <c r="AQ143" t="inlineStr"/>
@@ -20464,19 +20682,19 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H144" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="I144" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J144" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="K144" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L144" t="n">
         <v>5.4</v>
@@ -20485,25 +20703,25 @@
         <v>1.05</v>
       </c>
       <c r="N144" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O144" t="n">
         <v>1.27</v>
       </c>
       <c r="P144" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R144" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S144" t="n">
         <v>2.95</v>
       </c>
       <c r="T144" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="U144" t="n">
         <v>1.39</v>
@@ -20512,22 +20730,22 @@
         <v>2.85</v>
       </c>
       <c r="W144" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="X144" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Y144" t="n">
         <v>6.5</v>
       </c>
       <c r="Z144" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AA144" t="n">
         <v>8.75</v>
       </c>
       <c r="AB144" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AC144" t="n">
         <v>13.5</v>
@@ -20536,19 +20754,19 @@
         <v>30</v>
       </c>
       <c r="AE144" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF144" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AG144" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH144" t="n">
         <v>100</v>
       </c>
       <c r="AI144" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AJ144" t="n">
         <v>13.5</v>
@@ -20557,13 +20775,13 @@
         <v>35</v>
       </c>
       <c r="AL144" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AM144" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN144" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO144" t="n">
         <v>65</v>
@@ -20605,7 +20823,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="H145" t="n">
         <v>3.25</v>
@@ -20614,25 +20832,25 @@
         <v>2.95</v>
       </c>
       <c r="J145" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="K145" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L145" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="M145" t="n">
         <v>1.06</v>
       </c>
       <c r="N145" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O145" t="n">
         <v>1.29</v>
       </c>
       <c r="P145" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q145" t="n">
         <v>1.85</v>
@@ -20656,28 +20874,28 @@
         <v>1.65</v>
       </c>
       <c r="X145" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Y145" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="Z145" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA145" t="n">
         <v>9.5</v>
       </c>
       <c r="AB145" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC145" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AD145" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE145" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AF145" t="n">
         <v>6.6</v>
@@ -20686,16 +20904,16 @@
         <v>13.5</v>
       </c>
       <c r="AH145" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI145" t="n">
         <v>450</v>
       </c>
       <c r="AJ145" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK145" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL145" t="n">
         <v>11</v>
@@ -20704,7 +20922,7 @@
         <v>40</v>
       </c>
       <c r="AN145" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO145" t="n">
         <v>32</v>
@@ -20746,19 +20964,19 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H146" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I146" t="n">
         <v>5</v>
       </c>
       <c r="J146" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="K146" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L146" t="n">
         <v>5</v>
@@ -20770,7 +20988,7 @@
         <v>8.75</v>
       </c>
       <c r="O146" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P146" t="n">
         <v>3.85</v>
@@ -20788,19 +21006,19 @@
         <v>1.44</v>
       </c>
       <c r="U146" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="V146" t="n">
         <v>2.95</v>
       </c>
       <c r="W146" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X146" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="Y146" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="Z146" t="n">
         <v>8.75</v>
@@ -20821,25 +21039,25 @@
         <v>8.75</v>
       </c>
       <c r="AF146" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AG146" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH146" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI146" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AJ146" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK146" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AL146" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AM146" t="n">
         <v>100</v>
@@ -20887,106 +21105,106 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
       <c r="H147" t="n">
         <v>3.1</v>
       </c>
       <c r="I147" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="J147" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K147" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L147" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N147" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O147" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P147" t="n">
         <v>3</v>
       </c>
-      <c r="M147" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N147" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O147" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P147" t="n">
-        <v>2.9</v>
-      </c>
       <c r="Q147" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R147" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S147" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="T147" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="U147" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V147" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="W147" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X147" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="Y147" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z147" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AA147" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB147" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AC147" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AD147" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AE147" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AF147" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AG147" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH147" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI147" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AJ147" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AK147" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AL147" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AM147" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AN147" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO147" t="n">
         <v>32</v>
@@ -21031,61 +21249,61 @@
         <v>2.22</v>
       </c>
       <c r="H148" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I148" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="J148" t="n">
         <v>2.8</v>
       </c>
       <c r="K148" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L148" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="M148" t="n">
         <v>1.05</v>
       </c>
       <c r="N148" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="O148" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P148" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="R148" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S148" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="T148" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="U148" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="V148" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="W148" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X148" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Y148" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="Z148" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AA148" t="n">
         <v>8.75</v>
@@ -21094,16 +21312,16 @@
         <v>22</v>
       </c>
       <c r="AC148" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD148" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE148" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AF148" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AG148" t="n">
         <v>12.5</v>
@@ -21112,10 +21330,10 @@
         <v>50</v>
       </c>
       <c r="AI148" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AJ148" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AK148" t="n">
         <v>16.5</v>
@@ -21127,10 +21345,10 @@
         <v>37</v>
       </c>
       <c r="AN148" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO148" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP148" t="inlineStr"/>
       <c r="AQ148" t="inlineStr"/>
@@ -21175,10 +21393,10 @@
         <v>3.4</v>
       </c>
       <c r="I149" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J149" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="K149" t="n">
         <v>2.15</v>
@@ -21190,40 +21408,40 @@
         <v>1.07</v>
       </c>
       <c r="N149" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O149" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P149" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="Q149" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="R149" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S149" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="T149" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="U149" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="V149" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="W149" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="X149" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="Y149" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z149" t="n">
         <v>22</v>
@@ -21238,40 +21456,40 @@
         <v>40</v>
       </c>
       <c r="AD149" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE149" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AF149" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AG149" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH149" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI149" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AJ149" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AK149" t="n">
         <v>8.25</v>
       </c>
       <c r="AL149" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AM149" t="n">
         <v>15</v>
       </c>
       <c r="AN149" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO149" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AP149" t="inlineStr"/>
       <c r="AQ149" t="inlineStr"/>
@@ -21885,10 +22103,10 @@
         <v>1.42</v>
       </c>
       <c r="H154" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I154" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J154" t="n">
         <v>1.91</v>
@@ -21897,52 +22115,52 @@
         <v>2.5</v>
       </c>
       <c r="L154" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M154" t="n">
         <v>1.03</v>
       </c>
       <c r="N154" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O154" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P154" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q154" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R154" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S154" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T154" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U154" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V154" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W154" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="X154" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Y154" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z154" t="n">
         <v>7.5</v>
       </c>
       <c r="AA154" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB154" t="n">
         <v>10</v>
@@ -21951,25 +22169,25 @@
         <v>11</v>
       </c>
       <c r="AD154" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE154" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF154" t="n">
         <v>9.5</v>
       </c>
       <c r="AG154" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH154" t="n">
         <v>51</v>
       </c>
       <c r="AI154" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ154" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK154" t="n">
         <v>34</v>
@@ -21987,10 +22205,10 @@
         <v>41</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AR154" t="inlineStr"/>
       <c r="AS154" t="inlineStr"/>
@@ -22450,82 +22668,82 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H158" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I158" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="J158" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="K158" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="L158" t="n">
         <v>2.62</v>
       </c>
       <c r="M158" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N158" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="O158" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P158" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q158" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S158" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V158" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X158" t="n">
         <v>1.93</v>
       </c>
-      <c r="R158" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S158" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T158" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U158" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="V158" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="W158" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X158" t="n">
-        <v>1.95</v>
-      </c>
       <c r="Y158" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z158" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AA158" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AB158" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC158" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD158" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AE158" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AF158" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AG158" t="n">
         <v>14</v>
@@ -22537,19 +22755,19 @@
         <v>500</v>
       </c>
       <c r="AJ158" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AK158" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AL158" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AM158" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AN158" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO158" t="n">
         <v>27</v>
@@ -22591,7 +22809,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H159" t="n">
         <v>3.4</v>
@@ -22606,7 +22824,7 @@
         <v>2.1</v>
       </c>
       <c r="L159" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M159" t="n">
         <v>1.06</v>
@@ -22651,7 +22869,7 @@
         <v>12</v>
       </c>
       <c r="AA159" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB159" t="n">
         <v>23</v>
@@ -22690,7 +22908,7 @@
         <v>29</v>
       </c>
       <c r="AN159" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO159" t="n">
         <v>29</v>
@@ -23115,10 +23333,10 @@
         <v>3.4</v>
       </c>
       <c r="Q163" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R163" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S163" t="n">
         <v>3.5</v>
@@ -23160,7 +23378,7 @@
         <v>9.5</v>
       </c>
       <c r="AF163" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG163" t="n">
         <v>15</v>
@@ -23187,7 +23405,7 @@
         <v>21</v>
       </c>
       <c r="AO163" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP163" t="inlineStr"/>
       <c r="AQ163" t="inlineStr"/>
@@ -23645,28 +23863,28 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="H167" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="I167" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J167" t="n">
         <v>1.91</v>
       </c>
       <c r="K167" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="L167" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M167" t="n">
         <v>1.03</v>
       </c>
       <c r="N167" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O167" t="n">
         <v>1.15</v>
@@ -23696,7 +23914,7 @@
         <v>1.6</v>
       </c>
       <c r="X167" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Y167" t="n">
         <v>9.75</v>
@@ -23714,16 +23932,16 @@
         <v>10.5</v>
       </c>
       <c r="AD167" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE167" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF167" t="n">
         <v>9</v>
       </c>
       <c r="AG167" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH167" t="n">
         <v>50</v>
@@ -23786,7 +24004,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H168" t="n">
         <v>5.1</v>
@@ -23798,13 +24016,13 @@
         <v>1.7</v>
       </c>
       <c r="K168" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="L168" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M168" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N168" t="n">
         <v>9.75</v>
@@ -23840,7 +24058,7 @@
         <v>2.02</v>
       </c>
       <c r="Y168" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z168" t="n">
         <v>7.9</v>
@@ -23852,7 +24070,7 @@
         <v>9</v>
       </c>
       <c r="AC168" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD168" t="n">
         <v>20</v>
@@ -23873,13 +24091,13 @@
         <v>350</v>
       </c>
       <c r="AJ168" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK168" t="n">
         <v>75</v>
       </c>
       <c r="AL168" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM168" t="n">
         <v>250</v>
@@ -24067,7 +24285,7 @@
         <v>1.65</v>
       </c>
       <c r="H170" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I170" t="n">
         <v>5.2</v>
@@ -24084,37 +24302,37 @@
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P170" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="Q170" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R170" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S170" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T170" t="n">
         <v>1.23</v>
       </c>
       <c r="U170" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V170" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="W170" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X170" t="n">
         <v>1.65</v>
       </c>
       <c r="Y170" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z170" t="n">
         <v>6.9</v>
@@ -24132,13 +24350,13 @@
         <v>32</v>
       </c>
       <c r="AE170" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AF170" t="n">
         <v>6.8</v>
       </c>
       <c r="AG170" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH170" t="n">
         <v>110</v>
@@ -24147,10 +24365,10 @@
         <v>900</v>
       </c>
       <c r="AJ170" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK170" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL170" t="n">
         <v>17.5</v>
@@ -24159,7 +24377,7 @@
         <v>110</v>
       </c>
       <c r="AN170" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO170" t="n">
         <v>70</v>
@@ -24344,16 +24562,16 @@
         <v>4.45</v>
       </c>
       <c r="I172" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="J172" t="n">
         <v>1.85</v>
       </c>
       <c r="K172" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="L172" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="M172" t="n">
         <v>1.03</v>
@@ -24362,10 +24580,10 @@
         <v>9.5</v>
       </c>
       <c r="O172" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P172" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="Q172" t="n">
         <v>1.45</v>
@@ -24383,7 +24601,7 @@
         <v>1.26</v>
       </c>
       <c r="V172" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="W172" t="n">
         <v>1.62</v>
@@ -24392,7 +24610,7 @@
         <v>2.15</v>
       </c>
       <c r="Y172" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z172" t="n">
         <v>8.5</v>
@@ -24401,13 +24619,13 @@
         <v>8.25</v>
       </c>
       <c r="AB172" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AC172" t="n">
         <v>10.25</v>
       </c>
       <c r="AD172" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE172" t="n">
         <v>9.5</v>
@@ -24419,28 +24637,28 @@
         <v>15.5</v>
       </c>
       <c r="AH172" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI172" t="n">
         <v>300</v>
       </c>
       <c r="AJ172" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK172" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL172" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AM172" t="n">
         <v>150</v>
       </c>
       <c r="AN172" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO172" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP172" t="inlineStr"/>
       <c r="AQ172" t="inlineStr"/>
@@ -24620,22 +24838,22 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H174" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="I174" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="J174" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="K174" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="L174" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="M174" t="n">
         <v>1.04</v>
@@ -24650,16 +24868,16 @@
         <v>4.25</v>
       </c>
       <c r="Q174" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R174" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="S174" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T174" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="U174" t="n">
         <v>1.31</v>
@@ -24668,10 +24886,10 @@
         <v>3.2</v>
       </c>
       <c r="W174" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X174" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Y174" t="n">
         <v>8</v>
@@ -24683,10 +24901,10 @@
         <v>8</v>
       </c>
       <c r="AB174" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AC174" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AD174" t="n">
         <v>22</v>
@@ -24695,34 +24913,34 @@
         <v>8.75</v>
       </c>
       <c r="AF174" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AG174" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH174" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI174" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AJ174" t="n">
         <v>24</v>
       </c>
       <c r="AK174" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL174" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AM174" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AN174" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AO174" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AP174" t="inlineStr"/>
       <c r="AQ174" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-08.xlsx
@@ -1133,10 +1133,10 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O5" t="n">
         <v>1.14</v>
@@ -1290,16 +1290,16 @@
         <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U6" t="n">
         <v>1.3</v>
@@ -1314,10 +1314,10 @@
         <v>2.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA6" t="n">
         <v>8.5</v>
@@ -1338,7 +1338,7 @@
         <v>8</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>41</v>
@@ -1364,8 +1364,12 @@
       <c r="AO6" t="n">
         <v>41</v>
       </c>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
+      <c r="AP6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1.84</v>
+      </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
     </row>
@@ -1476,7 +1480,7 @@
         <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
@@ -1683,13 +1687,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J9" t="n">
         <v>4.33</v>
@@ -1737,13 +1741,13 @@
         <v>2.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z9" t="n">
         <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
@@ -1788,10 +1792,10 @@
         <v>21</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
@@ -1846,10 +1850,10 @@
         <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
         <v>1.14</v>
@@ -1858,10 +1862,10 @@
         <v>5.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S10" t="n">
         <v>2.2</v>
@@ -2136,10 +2140,10 @@
         <v>2.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
         <v>1.29</v>
@@ -2936,10 +2940,10 @@
         <v>41</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -3283,7 +3287,7 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O20" t="n">
         <v>1.17</v>
@@ -3367,10 +3371,10 @@
         <v>21</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -3407,13 +3411,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H21" t="n">
         <v>3.7</v>
       </c>
       <c r="I21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
         <v>2.4</v>
@@ -3425,10 +3429,10 @@
         <v>4.33</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
         <v>1.2</v>
@@ -3470,7 +3474,7 @@
         <v>8.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC21" t="n">
         <v>13</v>
@@ -3876,10 +3880,10 @@
         <v>2.63</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S24" t="n">
         <v>4.5</v>
@@ -3957,10 +3961,10 @@
         <v>1.28</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="25">
@@ -4981,7 +4985,7 @@
         <v>4.33</v>
       </c>
       <c r="H32" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
         <v>1.8</v>
@@ -4990,7 +4994,7 @@
         <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L32" t="n">
         <v>2.3</v>
@@ -4999,13 +5003,13 @@
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O32" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q32" t="n">
         <v>1.53</v>
@@ -5014,16 +5018,16 @@
         <v>2.5</v>
       </c>
       <c r="S32" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T32" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U32" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V32" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W32" t="n">
         <v>1.5</v>
@@ -5032,7 +5036,7 @@
         <v>2.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z32" t="n">
         <v>26</v>
@@ -5050,13 +5054,13 @@
         <v>29</v>
       </c>
       <c r="AE32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF32" t="n">
         <v>7.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH32" t="n">
         <v>34</v>
@@ -5083,10 +5087,10 @@
         <v>19</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -5129,7 +5133,7 @@
         <v>4.1</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J33" t="n">
         <v>2.25</v>
@@ -5186,7 +5190,7 @@
         <v>9.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC33" t="n">
         <v>12</v>
@@ -5204,7 +5208,7 @@
         <v>11</v>
       </c>
       <c r="AH33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI33" t="n">
         <v>67</v>
@@ -5570,16 +5574,16 @@
         <v>15</v>
       </c>
       <c r="O36" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P36" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R36" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S36" t="n">
         <v>2.63</v>
@@ -5691,28 +5695,28 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H37" t="n">
         <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J37" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K37" t="n">
         <v>2.1</v>
       </c>
       <c r="L37" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O37" t="n">
         <v>1.29</v>
@@ -5754,7 +5758,7 @@
         <v>10</v>
       </c>
       <c r="AB37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC37" t="n">
         <v>21</v>
@@ -5778,7 +5782,7 @@
         <v>201</v>
       </c>
       <c r="AJ37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK37" t="n">
         <v>13</v>
@@ -5856,22 +5860,22 @@
         <v>17</v>
       </c>
       <c r="O38" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R38" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S38" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T38" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U38" t="n">
         <v>1.29</v>
@@ -5937,10 +5941,10 @@
         <v>34</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr"/>
@@ -6411,25 +6415,25 @@
         <v>2.25</v>
       </c>
       <c r="H42" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
         <v>3.5</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O42" t="n">
         <v>1.44</v>
@@ -6450,25 +6454,25 @@
         <v>1.18</v>
       </c>
       <c r="U42" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V42" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W42" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X42" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z42" t="n">
         <v>9.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB42" t="n">
         <v>21</v>
@@ -6477,10 +6481,10 @@
         <v>21</v>
       </c>
       <c r="AD42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE42" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF42" t="n">
         <v>6</v>
@@ -6489,7 +6493,7 @@
         <v>17</v>
       </c>
       <c r="AH42" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI42" t="n">
         <v>351</v>
@@ -6498,7 +6502,7 @@
         <v>8.5</v>
       </c>
       <c r="AK42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL42" t="n">
         <v>13</v>
@@ -6515,10 +6519,10 @@
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
       <c r="AR42" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -6553,13 +6557,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H43" t="n">
         <v>4.1</v>
       </c>
       <c r="I43" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J43" t="n">
         <v>2.05</v>
@@ -6571,10 +6575,10 @@
         <v>7.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O43" t="n">
         <v>1.36</v>
@@ -6601,10 +6605,10 @@
         <v>2.63</v>
       </c>
       <c r="W43" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="X43" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Y43" t="n">
         <v>5.5</v>
@@ -6625,13 +6629,13 @@
         <v>34</v>
       </c>
       <c r="AE43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH43" t="n">
         <v>81</v>
@@ -6640,7 +6644,7 @@
         <v>1250</v>
       </c>
       <c r="AJ43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK43" t="n">
         <v>34</v>
@@ -6697,55 +6701,55 @@
         <v>5.25</v>
       </c>
       <c r="H44" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J44" t="n">
         <v>5.5</v>
       </c>
       <c r="K44" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L44" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T44" t="n">
         <v>1.3</v>
       </c>
-      <c r="P44" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S44" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.29</v>
-      </c>
       <c r="U44" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V44" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W44" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X44" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y44" t="n">
         <v>13</v>
@@ -6835,28 +6839,28 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H45" t="n">
         <v>3.1</v>
       </c>
       <c r="I45" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J45" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K45" t="n">
         <v>1.91</v>
       </c>
       <c r="L45" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O45" t="n">
         <v>1.5</v>
@@ -6877,10 +6881,10 @@
         <v>1.14</v>
       </c>
       <c r="U45" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V45" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W45" t="n">
         <v>2.2</v>
@@ -6913,7 +6917,7 @@
         <v>6</v>
       </c>
       <c r="AG45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH45" t="n">
         <v>81</v>
@@ -6931,7 +6935,7 @@
         <v>13</v>
       </c>
       <c r="AM45" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN45" t="n">
         <v>34</v>
@@ -6984,28 +6988,28 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I46" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J46" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K46" t="n">
         <v>2.1</v>
       </c>
       <c r="L46" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M46" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O46" t="n">
         <v>1.4</v>
@@ -7032,22 +7036,22 @@
         <v>2.5</v>
       </c>
       <c r="W46" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="X46" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y46" t="n">
         <v>5</v>
       </c>
       <c r="Z46" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA46" t="n">
         <v>9.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC46" t="n">
         <v>15</v>
@@ -7056,13 +7060,13 @@
         <v>41</v>
       </c>
       <c r="AE46" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF46" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH46" t="n">
         <v>101</v>
@@ -7071,19 +7075,19 @@
         <v>101</v>
       </c>
       <c r="AJ46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK46" t="n">
         <v>34</v>
       </c>
       <c r="AL46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM46" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN46" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO46" t="n">
         <v>67</v>
@@ -7136,7 +7140,7 @@
         <v>3.5</v>
       </c>
       <c r="H47" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I47" t="n">
         <v>2.3</v>
@@ -7145,7 +7149,7 @@
         <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L47" t="n">
         <v>3.1</v>
@@ -7220,7 +7224,7 @@
         <v>351</v>
       </c>
       <c r="AJ47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK47" t="n">
         <v>10</v>
@@ -7282,16 +7286,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H48" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I48" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J48" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K48" t="n">
         <v>2</v>
@@ -7312,10 +7316,10 @@
         <v>2.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R48" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -7324,16 +7328,16 @@
         <v>1.17</v>
       </c>
       <c r="U48" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V48" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W48" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="X48" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Y48" t="n">
         <v>4.75</v>
@@ -7378,7 +7382,7 @@
         <v>21</v>
       </c>
       <c r="AM48" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN48" t="n">
         <v>51</v>
@@ -7393,10 +7397,10 @@
         <v>1.25</v>
       </c>
       <c r="AR48" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="49">
@@ -7431,10 +7435,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H49" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I49" t="n">
         <v>2.15</v>
@@ -7464,7 +7468,7 @@
         <v>2.05</v>
       </c>
       <c r="R49" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S49" t="n">
         <v>3.5</v>
@@ -7488,7 +7492,7 @@
         <v>9.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA49" t="n">
         <v>12</v>
@@ -7995,16 +7999,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="H53" t="n">
         <v>3.35</v>
       </c>
       <c r="I53" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="J53" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K53" t="n">
         <v>2.07</v>
@@ -8022,7 +8026,7 @@
         <v>1.31</v>
       </c>
       <c r="P53" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q53" t="n">
         <v>1.91</v>
@@ -8031,16 +8035,16 @@
         <v>1.83</v>
       </c>
       <c r="S53" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T53" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="U53" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="V53" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="W53" t="n">
         <v>1.72</v>
@@ -8049,22 +8053,22 @@
         <v>2.02</v>
       </c>
       <c r="Y53" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z53" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA53" t="n">
         <v>10.5</v>
       </c>
       <c r="AB53" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC53" t="n">
         <v>24</v>
       </c>
       <c r="AD53" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE53" t="n">
         <v>7.7</v>
@@ -8076,13 +8080,13 @@
         <v>14.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI53" t="n">
         <v>500</v>
       </c>
       <c r="AJ53" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK53" t="n">
         <v>13.5</v>
@@ -8091,7 +8095,7 @@
         <v>10</v>
       </c>
       <c r="AM53" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN53" t="n">
         <v>22</v>
@@ -8418,22 +8422,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H56" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I56" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="J56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K56" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L56" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M56" t="n">
         <v>1.03</v>
@@ -8448,55 +8452,55 @@
         <v>5</v>
       </c>
       <c r="Q56" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T56" t="n">
         <v>1.53</v>
       </c>
-      <c r="R56" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S56" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T56" t="n">
-        <v>1.57</v>
-      </c>
       <c r="U56" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V56" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W56" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X56" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y56" t="n">
         <v>29</v>
       </c>
       <c r="Z56" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB56" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AC56" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD56" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE56" t="n">
         <v>15</v>
       </c>
       <c r="AF56" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG56" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH56" t="n">
         <v>101</v>
@@ -8508,10 +8512,10 @@
         <v>7.5</v>
       </c>
       <c r="AK56" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AL56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM56" t="n">
         <v>6.5</v>
@@ -8520,13 +8524,13 @@
         <v>12</v>
       </c>
       <c r="AO56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AR56" t="inlineStr"/>
       <c r="AS56" t="inlineStr"/>
@@ -8593,10 +8597,10 @@
         <v>4</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R57" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S57" t="n">
         <v>2.75</v>
@@ -9083,7 +9087,7 @@
         <v>29</v>
       </c>
       <c r="AL60" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM60" t="n">
         <v>67</v>
@@ -9155,16 +9159,16 @@
         <v>10</v>
       </c>
       <c r="O61" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P61" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q61" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R61" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S61" t="n">
         <v>3.5</v>
@@ -9443,10 +9447,10 @@
         <v>3.75</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R63" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S63" t="n">
         <v>3.2</v>
@@ -9554,34 +9558,34 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>3.1</v>
       </c>
       <c r="I64" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J64" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K64" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L64" t="n">
         <v>4.5</v>
       </c>
       <c r="M64" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N64" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O64" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P64" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q64" t="n">
         <v>2.5</v>
@@ -9611,7 +9615,7 @@
         <v>6</v>
       </c>
       <c r="Z64" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA64" t="n">
         <v>9.5</v>
@@ -9641,7 +9645,7 @@
         <v>501</v>
       </c>
       <c r="AJ64" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK64" t="n">
         <v>17</v>
@@ -9653,7 +9657,7 @@
         <v>41</v>
       </c>
       <c r="AN64" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO64" t="n">
         <v>41</v>
@@ -9661,10 +9665,10 @@
       <c r="AP64" t="inlineStr"/>
       <c r="AQ64" t="inlineStr"/>
       <c r="AR64" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="65">
@@ -9876,10 +9880,10 @@
         <v>2.4</v>
       </c>
       <c r="S66" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T66" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U66" t="n">
         <v>1.29</v>
@@ -9945,10 +9949,10 @@
         <v>41</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AR66" t="inlineStr"/>
       <c r="AS66" t="inlineStr"/>
@@ -10479,16 +10483,16 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H71" t="n">
         <v>3.7</v>
       </c>
       <c r="I71" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J71" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K71" t="n">
         <v>2.2</v>
@@ -10497,10 +10501,10 @@
         <v>5.5</v>
       </c>
       <c r="M71" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N71" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O71" t="n">
         <v>1.3</v>
@@ -10509,10 +10513,10 @@
         <v>3.4</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R71" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S71" t="n">
         <v>3.5</v>
@@ -10536,7 +10540,7 @@
         <v>6.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA71" t="n">
         <v>8.5</v>
@@ -10560,13 +10564,13 @@
         <v>19</v>
       </c>
       <c r="AH71" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI71" t="n">
         <v>401</v>
       </c>
       <c r="AJ71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK71" t="n">
         <v>26</v>
@@ -10581,7 +10585,7 @@
         <v>41</v>
       </c>
       <c r="AO71" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP71" t="inlineStr"/>
       <c r="AQ71" t="inlineStr"/>
@@ -10715,22 +10719,22 @@
         <v>6.5</v>
       </c>
       <c r="O73" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P73" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R73" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S73" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T73" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U73" t="n">
         <v>1.62</v>
@@ -10798,10 +10802,10 @@
       <c r="AP73" t="inlineStr"/>
       <c r="AQ73" t="inlineStr"/>
       <c r="AR73" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="74">
@@ -11223,10 +11227,10 @@
         <v>26</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AR76" t="inlineStr"/>
       <c r="AS76" t="inlineStr"/>
@@ -11311,7 +11315,7 @@
         <v>3.5</v>
       </c>
       <c r="W77" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X77" t="n">
         <v>2.5</v>
@@ -11438,10 +11442,10 @@
         <v>4</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R78" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S78" t="n">
         <v>2.75</v>
@@ -11456,7 +11460,7 @@
         <v>3.25</v>
       </c>
       <c r="W78" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X78" t="n">
         <v>2.25</v>
@@ -11579,16 +11583,16 @@
         <v>5</v>
       </c>
       <c r="Q79" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T79" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R79" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S79" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T79" t="n">
-        <v>1.53</v>
       </c>
       <c r="U79" t="n">
         <v>1.29</v>
@@ -11597,7 +11601,7 @@
         <v>3.5</v>
       </c>
       <c r="W79" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X79" t="n">
         <v>2.5</v>
@@ -11654,10 +11658,10 @@
         <v>26</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AR79" t="inlineStr"/>
       <c r="AS79" t="inlineStr"/>
@@ -11724,10 +11728,10 @@
         <v>3.4</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R80" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S80" t="n">
         <v>3.5</v>
@@ -11742,7 +11746,7 @@
         <v>2.75</v>
       </c>
       <c r="W80" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="X80" t="n">
         <v>2</v>
@@ -11883,7 +11887,7 @@
         <v>3.4</v>
       </c>
       <c r="W81" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X81" t="n">
         <v>2.25</v>
@@ -12001,7 +12005,7 @@
         <v>1.03</v>
       </c>
       <c r="N82" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O82" t="n">
         <v>1.18</v>
@@ -12010,10 +12014,10 @@
         <v>4.5</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R82" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S82" t="n">
         <v>2.5</v>
@@ -12028,7 +12032,7 @@
         <v>3.4</v>
       </c>
       <c r="W82" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X82" t="n">
         <v>2.1</v>
@@ -12085,10 +12089,10 @@
         <v>34</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AR82" t="inlineStr"/>
       <c r="AS82" t="inlineStr"/>
@@ -12125,13 +12129,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H83" t="n">
         <v>3.6</v>
       </c>
       <c r="I83" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J83" t="n">
         <v>2.5</v>
@@ -12146,7 +12150,7 @@
         <v>1.04</v>
       </c>
       <c r="N83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O83" t="n">
         <v>1.25</v>
@@ -12173,16 +12177,16 @@
         <v>3</v>
       </c>
       <c r="W83" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X83" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y83" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z83" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA83" t="n">
         <v>8.5</v>
@@ -12194,10 +12198,10 @@
         <v>15</v>
       </c>
       <c r="AD83" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE83" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF83" t="n">
         <v>7</v>
@@ -12441,16 +12445,16 @@
         <v>3.75</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R85" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S85" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T85" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U85" t="n">
         <v>1.36</v>
@@ -12552,10 +12556,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H86" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I86" t="n">
         <v>3.5</v>
@@ -12564,16 +12568,16 @@
         <v>3.25</v>
       </c>
       <c r="K86" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L86" t="n">
         <v>4</v>
       </c>
       <c r="M86" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N86" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O86" t="n">
         <v>1.53</v>
@@ -12600,10 +12604,10 @@
         <v>2.2</v>
       </c>
       <c r="W86" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X86" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y86" t="n">
         <v>6</v>
@@ -12612,7 +12616,7 @@
         <v>10</v>
       </c>
       <c r="AA86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB86" t="n">
         <v>23</v>
@@ -12624,7 +12628,7 @@
         <v>41</v>
       </c>
       <c r="AE86" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF86" t="n">
         <v>5.5</v>
@@ -12654,19 +12658,19 @@
         <v>34</v>
       </c>
       <c r="AO86" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP86" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AR86" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="87">
@@ -13438,22 +13442,22 @@
         <v>15</v>
       </c>
       <c r="O92" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P92" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R92" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S92" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T92" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U92" t="n">
         <v>1.3</v>
@@ -13696,42 +13700,42 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H94" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I94" t="n">
         <v>2.65</v>
       </c>
       <c r="J94" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K94" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="L94" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P94" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="R94" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="S94" t="n">
-        <v>2.52</v>
+        <v>2.67</v>
       </c>
       <c r="T94" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U94" t="n">
         <v>1.42</v>
@@ -13740,13 +13744,13 @@
         <v>2.45</v>
       </c>
       <c r="W94" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X94" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="Y94" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z94" t="n">
         <v>13.5</v>
@@ -13755,34 +13759,34 @@
         <v>9.25</v>
       </c>
       <c r="AB94" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC94" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD94" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE94" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF94" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AG94" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH94" t="n">
         <v>45</v>
       </c>
       <c r="AI94" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AJ94" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AK94" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL94" t="n">
         <v>9.75</v>
@@ -13791,10 +13795,10 @@
         <v>32</v>
       </c>
       <c r="AN94" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO94" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP94" t="inlineStr"/>
       <c r="AQ94" t="inlineStr"/>
@@ -13833,22 +13837,22 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="H95" t="n">
         <v>3.3</v>
       </c>
       <c r="I95" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J95" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="K95" t="n">
         <v>2.12</v>
       </c>
       <c r="L95" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
@@ -13880,22 +13884,22 @@
         <v>1.53</v>
       </c>
       <c r="X95" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Y95" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z95" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA95" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB95" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AC95" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD95" t="n">
         <v>23</v>
@@ -13916,22 +13920,22 @@
         <v>250</v>
       </c>
       <c r="AJ95" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AK95" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL95" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AM95" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN95" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO95" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP95" t="inlineStr"/>
       <c r="AQ95" t="inlineStr"/>
@@ -14132,7 +14136,7 @@
         <v>1.03</v>
       </c>
       <c r="N97" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O97" t="n">
         <v>1.18</v>
@@ -14274,10 +14278,10 @@
         <v>3.6</v>
       </c>
       <c r="M98" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N98" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O98" t="n">
         <v>1.4</v>
@@ -14546,10 +14550,10 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H100" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I100" t="n">
         <v>1.4</v>
@@ -14561,7 +14565,7 @@
         <v>2.4</v>
       </c>
       <c r="L100" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M100" t="n">
         <v>1.03</v>
@@ -14624,7 +14628,7 @@
         <v>9</v>
       </c>
       <c r="AG100" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH100" t="n">
         <v>51</v>
@@ -14633,7 +14637,7 @@
         <v>301</v>
       </c>
       <c r="AJ100" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK100" t="n">
         <v>7</v>
@@ -14642,7 +14646,7 @@
         <v>8.5</v>
       </c>
       <c r="AM100" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN100" t="n">
         <v>12</v>
@@ -14705,28 +14709,28 @@
         <v>3.75</v>
       </c>
       <c r="M101" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N101" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O101" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P101" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R101" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S101" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T101" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U101" t="n">
         <v>1.5</v>
@@ -14832,7 +14836,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H102" t="n">
         <v>3</v>
@@ -14853,7 +14857,7 @@
         <v>1.08</v>
       </c>
       <c r="N102" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O102" t="n">
         <v>1.4</v>
@@ -14919,7 +14923,7 @@
         <v>351</v>
       </c>
       <c r="AJ102" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK102" t="n">
         <v>15</v>
@@ -14994,7 +14998,7 @@
         <v>1.04</v>
       </c>
       <c r="N103" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O103" t="n">
         <v>1.22</v>
@@ -15003,10 +15007,10 @@
         <v>4</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R103" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S103" t="n">
         <v>2.75</v>
@@ -15416,10 +15420,10 @@
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P106" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="Q106" t="n">
         <v>1.65</v>
@@ -15428,18 +15432,18 @@
         <v>2</v>
       </c>
       <c r="S106" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="T106" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr"/>
       <c r="W106" t="n">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="X106" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="Y106" t="n">
         <v>6.1</v>
@@ -15529,13 +15533,13 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H107" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I107" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J107" t="n">
         <v>5.5</v>
@@ -15544,7 +15548,7 @@
         <v>2.2</v>
       </c>
       <c r="L107" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M107" t="n">
         <v>1.05</v>
@@ -15565,10 +15569,10 @@
         <v>1.83</v>
       </c>
       <c r="S107" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T107" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U107" t="n">
         <v>1.4</v>
@@ -15583,7 +15587,7 @@
         <v>1.8</v>
       </c>
       <c r="Y107" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z107" t="n">
         <v>26</v>
@@ -15619,7 +15623,7 @@
         <v>6.5</v>
       </c>
       <c r="AK107" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AL107" t="n">
         <v>8.5</v>
@@ -15628,7 +15632,7 @@
         <v>12</v>
       </c>
       <c r="AN107" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO107" t="n">
         <v>29</v>
@@ -15960,22 +15964,22 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H110" t="n">
-        <v>4.3</v>
+        <v>4.05</v>
       </c>
       <c r="I110" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J110" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K110" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="L110" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
@@ -15986,51 +15990,51 @@
         <v>4.75</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R110" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="S110" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="T110" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U110" t="inlineStr"/>
       <c r="V110" t="inlineStr"/>
       <c r="W110" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="X110" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="Y110" t="n">
         <v>9.25</v>
       </c>
       <c r="Z110" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA110" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB110" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AC110" t="n">
         <v>11</v>
       </c>
       <c r="AD110" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE110" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AF110" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AG110" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH110" t="n">
         <v>50</v>
@@ -16039,16 +16043,16 @@
         <v>300</v>
       </c>
       <c r="AJ110" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK110" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AL110" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AM110" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN110" t="n">
         <v>45</v>
@@ -16226,77 +16230,77 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H112" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I112" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J112" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K112" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L112" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P112" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R112" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S112" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="T112" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr"/>
       <c r="W112" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="X112" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="Y112" t="n">
         <v>12</v>
       </c>
       <c r="Z112" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA112" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB112" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC112" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AD112" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AE112" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF112" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AG112" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH112" t="n">
         <v>60</v>
@@ -16305,7 +16309,7 @@
         <v>450</v>
       </c>
       <c r="AJ112" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AK112" t="n">
         <v>9</v>
@@ -16314,10 +16318,10 @@
         <v>8.25</v>
       </c>
       <c r="AM112" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AN112" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO112" t="n">
         <v>24</v>
@@ -16362,19 +16366,19 @@
         <v>1.53</v>
       </c>
       <c r="H113" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I113" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J113" t="n">
         <v>2.07</v>
       </c>
       <c r="K113" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L113" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
@@ -16403,43 +16407,43 @@
         <v>2.55</v>
       </c>
       <c r="W113" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="X113" t="n">
         <v>1.75</v>
       </c>
       <c r="Y113" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Z113" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AA113" t="n">
         <v>8.25</v>
       </c>
       <c r="AB113" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AC113" t="n">
         <v>12.5</v>
       </c>
       <c r="AD113" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE113" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF113" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AG113" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH113" t="n">
         <v>90</v>
       </c>
       <c r="AI113" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AJ113" t="n">
         <v>14</v>
@@ -16451,10 +16455,10 @@
         <v>17.5</v>
       </c>
       <c r="AM113" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN113" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO113" t="n">
         <v>60</v>
@@ -16736,10 +16740,10 @@
       <c r="AP115" t="inlineStr"/>
       <c r="AQ115" t="inlineStr"/>
       <c r="AR115" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="116">
@@ -16777,7 +16781,7 @@
         <v>1.48</v>
       </c>
       <c r="H116" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I116" t="n">
         <v>6</v>
@@ -16810,10 +16814,10 @@
         <v>1.75</v>
       </c>
       <c r="S116" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T116" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U116" t="n">
         <v>1.44</v>
@@ -16840,7 +16844,7 @@
         <v>10</v>
       </c>
       <c r="AC116" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD116" t="n">
         <v>34</v>
@@ -17229,10 +17233,10 @@
         <v>17</v>
       </c>
       <c r="O119" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P119" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q119" t="n">
         <v>1.57</v>
@@ -17241,10 +17245,10 @@
         <v>2.35</v>
       </c>
       <c r="S119" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T119" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U119" t="n">
         <v>1.29</v>
@@ -17310,10 +17314,10 @@
         <v>51</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AR119" t="n">
         <v>1.26</v>
@@ -17378,16 +17382,16 @@
         <v>11</v>
       </c>
       <c r="O120" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P120" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R120" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S120" t="n">
         <v>3.25</v>
@@ -17521,28 +17525,28 @@
         <v>7</v>
       </c>
       <c r="M121" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N121" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O121" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P121" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R121" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S121" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T121" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U121" t="n">
         <v>1.33</v>
@@ -17652,16 +17656,16 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H122" t="n">
         <v>3.4</v>
       </c>
       <c r="I122" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J122" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K122" t="n">
         <v>2.1</v>
@@ -17673,7 +17677,7 @@
         <v>1.06</v>
       </c>
       <c r="N122" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O122" t="n">
         <v>1.33</v>
@@ -17709,10 +17713,10 @@
         <v>7.5</v>
       </c>
       <c r="Z122" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA122" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB122" t="n">
         <v>21</v>
@@ -17736,16 +17740,16 @@
         <v>51</v>
       </c>
       <c r="AI122" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ122" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK122" t="n">
         <v>15</v>
       </c>
       <c r="AL122" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM122" t="n">
         <v>34</v>
@@ -17793,13 +17797,13 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H123" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I123" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J123" t="n">
         <v>2.2</v>
@@ -17811,10 +17815,10 @@
         <v>5.5</v>
       </c>
       <c r="M123" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N123" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O123" t="n">
         <v>1.25</v>
@@ -17823,10 +17827,10 @@
         <v>3.75</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R123" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S123" t="n">
         <v>3.25</v>
@@ -17841,13 +17845,13 @@
         <v>3</v>
       </c>
       <c r="W123" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X123" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y123" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z123" t="n">
         <v>7.5</v>
@@ -18093,10 +18097,10 @@
         <v>2.75</v>
       </c>
       <c r="M125" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N125" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O125" t="n">
         <v>1.53</v>
@@ -18645,40 +18649,40 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H129" t="n">
         <v>2.75</v>
       </c>
       <c r="I129" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J129" t="n">
         <v>3.2</v>
       </c>
       <c r="K129" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L129" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M129" t="n">
         <v>1.08</v>
       </c>
       <c r="N129" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O129" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P129" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q129" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R129" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S129" t="n">
         <v>4</v>
@@ -18687,28 +18691,28 @@
         <v>1.22</v>
       </c>
       <c r="U129" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V129" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W129" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X129" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y129" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z129" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA129" t="n">
         <v>10</v>
       </c>
       <c r="AB129" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC129" t="n">
         <v>21</v>
@@ -18723,13 +18727,13 @@
         <v>5.5</v>
       </c>
       <c r="AG129" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH129" t="n">
         <v>51</v>
       </c>
       <c r="AI129" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ129" t="n">
         <v>9</v>
@@ -18741,13 +18745,13 @@
         <v>12</v>
       </c>
       <c r="AM129" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN129" t="n">
         <v>29</v>
       </c>
-      <c r="AN129" t="n">
-        <v>26</v>
-      </c>
       <c r="AO129" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP129" t="inlineStr"/>
       <c r="AQ129" t="inlineStr"/>
@@ -18798,7 +18802,7 @@
         <v>2.5</v>
       </c>
       <c r="K130" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L130" t="n">
         <v>5</v>
@@ -18810,40 +18814,40 @@
         <v>9</v>
       </c>
       <c r="O130" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P130" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R130" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S130" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T130" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U130" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V130" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W130" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X130" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Y130" t="n">
         <v>6</v>
       </c>
       <c r="Z130" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA130" t="n">
         <v>9</v>
@@ -18855,10 +18859,10 @@
         <v>17</v>
       </c>
       <c r="AD130" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE130" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF130" t="n">
         <v>7</v>
@@ -19209,28 +19213,28 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H133" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I133" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J133" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K133" t="n">
         <v>2.35</v>
       </c>
       <c r="L133" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="M133" t="n">
         <v>1.03</v>
       </c>
       <c r="N133" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O133" t="n">
         <v>1.17</v>
@@ -19257,22 +19261,22 @@
         <v>3.35</v>
       </c>
       <c r="W133" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X133" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="Y133" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z133" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA133" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB133" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC133" t="n">
         <v>27</v>
@@ -19281,13 +19285,13 @@
         <v>26</v>
       </c>
       <c r="AE133" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF133" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AG133" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH133" t="n">
         <v>37</v>
@@ -19296,22 +19300,22 @@
         <v>200</v>
       </c>
       <c r="AJ133" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK133" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AL133" t="n">
         <v>8.5</v>
       </c>
       <c r="AM133" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AN133" t="n">
         <v>13</v>
       </c>
       <c r="AO133" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AP133" t="inlineStr"/>
       <c r="AQ133" t="inlineStr"/>
@@ -19350,7 +19354,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="H134" t="n">
         <v>4.3</v>
@@ -19359,13 +19363,13 @@
         <v>1.6</v>
       </c>
       <c r="J134" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="K134" t="n">
         <v>2.5</v>
       </c>
       <c r="L134" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="M134" t="n">
         <v>1.03</v>
@@ -19404,16 +19408,16 @@
         <v>2.35</v>
       </c>
       <c r="Y134" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z134" t="n">
         <v>30</v>
       </c>
       <c r="AA134" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB134" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AC134" t="n">
         <v>35</v>
@@ -19491,16 +19495,16 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H135" t="n">
         <v>3.4</v>
       </c>
       <c r="I135" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J135" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K135" t="n">
         <v>2.1</v>
@@ -19509,10 +19513,10 @@
         <v>3.1</v>
       </c>
       <c r="M135" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N135" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O135" t="n">
         <v>1.29</v>
@@ -19545,7 +19549,7 @@
         <v>2</v>
       </c>
       <c r="Y135" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z135" t="n">
         <v>13</v>
@@ -19587,7 +19591,7 @@
         <v>10</v>
       </c>
       <c r="AM135" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN135" t="n">
         <v>21</v>
@@ -19650,22 +19654,22 @@
         <v>3</v>
       </c>
       <c r="M136" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N136" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O136" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P136" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R136" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S136" t="n">
         <v>2.75</v>
@@ -19914,28 +19918,28 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H138" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I138" t="n">
         <v>5</v>
       </c>
       <c r="J138" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K138" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L138" t="n">
         <v>5</v>
       </c>
       <c r="M138" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N138" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O138" t="n">
         <v>1.22</v>
@@ -19944,10 +19948,10 @@
         <v>4</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R138" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S138" t="n">
         <v>2.75</v>
@@ -19956,10 +19960,10 @@
         <v>1.4</v>
       </c>
       <c r="U138" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V138" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W138" t="n">
         <v>1.8</v>
@@ -20199,10 +20203,10 @@
         <v>1.17</v>
       </c>
       <c r="H140" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I140" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="J140" t="n">
         <v>1.5</v>
@@ -20232,40 +20236,40 @@
         <v>3.25</v>
       </c>
       <c r="S140" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T140" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U140" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="V140" t="n">
         <v>4.1</v>
       </c>
       <c r="W140" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="X140" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Y140" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z140" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA140" t="n">
         <v>10.5</v>
       </c>
       <c r="AB140" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AC140" t="n">
         <v>10</v>
       </c>
       <c r="AD140" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE140" t="n">
         <v>10.75</v>
@@ -20292,7 +20296,7 @@
         <v>37</v>
       </c>
       <c r="AM140" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AN140" t="n">
         <v>120</v>
@@ -20352,31 +20356,31 @@
         <v>2.05</v>
       </c>
       <c r="L141" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="M141" t="n">
         <v>1.06</v>
       </c>
       <c r="N141" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="O141" t="n">
         <v>1.3</v>
       </c>
       <c r="P141" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q141" t="n">
         <v>1.88</v>
       </c>
       <c r="R141" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S141" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T141" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="U141" t="n">
         <v>1.42</v>
@@ -20409,7 +20413,7 @@
         <v>25</v>
       </c>
       <c r="AE141" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AF141" t="n">
         <v>6.2</v>
@@ -20424,7 +20428,7 @@
         <v>400</v>
       </c>
       <c r="AJ141" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK141" t="n">
         <v>16</v>
@@ -20619,28 +20623,28 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="H143" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I143" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J143" t="n">
         <v>4.6</v>
       </c>
       <c r="K143" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L143" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="M143" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N143" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="O143" t="n">
         <v>1.33</v>
@@ -20658,13 +20662,13 @@
         <v>3.3</v>
       </c>
       <c r="T143" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="U143" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="V143" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="W143" t="n">
         <v>1.78</v>
@@ -20673,10 +20677,10 @@
         <v>1.93</v>
       </c>
       <c r="Y143" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="Z143" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA143" t="n">
         <v>15</v>
@@ -20685,16 +20689,16 @@
         <v>90</v>
       </c>
       <c r="AC143" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD143" t="n">
         <v>50</v>
       </c>
       <c r="AE143" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AF143" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AG143" t="n">
         <v>15</v>
@@ -20706,16 +20710,16 @@
         <v>600</v>
       </c>
       <c r="AJ143" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AK143" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL143" t="n">
         <v>8.5</v>
       </c>
       <c r="AM143" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN143" t="n">
         <v>16.5</v>
@@ -20910,13 +20914,13 @@
         <v>2.95</v>
       </c>
       <c r="J145" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="K145" t="n">
         <v>2.05</v>
       </c>
       <c r="L145" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="M145" t="n">
         <v>1.06</v>
@@ -20931,16 +20935,16 @@
         <v>3.4</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R145" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S145" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T145" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U145" t="n">
         <v>1.42</v>
@@ -20952,25 +20956,25 @@
         <v>1.65</v>
       </c>
       <c r="X145" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Y145" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z145" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA145" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB145" t="n">
         <v>27</v>
       </c>
       <c r="AC145" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AD145" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE145" t="n">
         <v>7.8</v>
@@ -20988,10 +20992,10 @@
         <v>450</v>
       </c>
       <c r="AJ145" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK145" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL145" t="n">
         <v>11</v>
@@ -21000,7 +21004,7 @@
         <v>40</v>
       </c>
       <c r="AN145" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO145" t="n">
         <v>32</v>
@@ -21045,19 +21049,19 @@
         <v>1.7</v>
       </c>
       <c r="H146" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I146" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="J146" t="n">
         <v>2.25</v>
       </c>
       <c r="K146" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L146" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M146" t="n">
         <v>1.05</v>
@@ -21078,13 +21082,13 @@
         <v>2.05</v>
       </c>
       <c r="S146" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="T146" t="n">
         <v>1.42</v>
       </c>
       <c r="U146" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="V146" t="n">
         <v>2.95</v>
@@ -21117,7 +21121,7 @@
         <v>8.75</v>
       </c>
       <c r="AF146" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AG146" t="n">
         <v>15.5</v>
@@ -21138,7 +21142,7 @@
         <v>15.5</v>
       </c>
       <c r="AM146" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN146" t="n">
         <v>45</v>
@@ -21189,7 +21193,7 @@
         <v>3.1</v>
       </c>
       <c r="I147" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="J147" t="n">
         <v>3.15</v>
@@ -21204,37 +21208,37 @@
         <v>1.07</v>
       </c>
       <c r="N147" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="O147" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P147" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q147" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R147" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S147" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U147" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V147" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="X147" t="n">
         <v>2</v>
-      </c>
-      <c r="R147" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S147" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T147" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U147" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="V147" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="W147" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X147" t="n">
-        <v>1.98</v>
       </c>
       <c r="Y147" t="n">
         <v>8.5</v>
@@ -21243,7 +21247,7 @@
         <v>13.5</v>
       </c>
       <c r="AA147" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB147" t="n">
         <v>30</v>
@@ -21255,22 +21259,22 @@
         <v>30</v>
       </c>
       <c r="AE147" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AF147" t="n">
         <v>6</v>
       </c>
       <c r="AG147" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH147" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI147" t="n">
         <v>450</v>
       </c>
       <c r="AJ147" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AK147" t="n">
         <v>13</v>
@@ -21282,10 +21286,10 @@
         <v>30</v>
       </c>
       <c r="AN147" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO147" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP147" t="inlineStr"/>
       <c r="AQ147" t="inlineStr"/>
@@ -21327,19 +21331,19 @@
         <v>2.2</v>
       </c>
       <c r="H148" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I148" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J148" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="K148" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L148" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="M148" t="n">
         <v>1.04</v>
@@ -21351,7 +21355,7 @@
         <v>1.22</v>
       </c>
       <c r="P148" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="Q148" t="n">
         <v>1.65</v>
@@ -21360,16 +21364,16 @@
         <v>2.1</v>
       </c>
       <c r="S148" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="T148" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="U148" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="V148" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="W148" t="n">
         <v>1.57</v>
@@ -21384,13 +21388,13 @@
         <v>12</v>
       </c>
       <c r="AA148" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB148" t="n">
         <v>22</v>
       </c>
       <c r="AC148" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD148" t="n">
         <v>23</v>
@@ -21399,10 +21403,10 @@
         <v>8.25</v>
       </c>
       <c r="AF148" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AG148" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH148" t="n">
         <v>45</v>
@@ -21411,16 +21415,16 @@
         <v>300</v>
       </c>
       <c r="AJ148" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AK148" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL148" t="n">
         <v>10.5</v>
       </c>
       <c r="AM148" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN148" t="n">
         <v>22</v>
@@ -21465,22 +21469,22 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="H149" t="n">
         <v>3.4</v>
       </c>
       <c r="I149" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="J149" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="K149" t="n">
         <v>2.15</v>
       </c>
       <c r="L149" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="M149" t="n">
         <v>1.07</v>
@@ -21489,58 +21493,58 @@
         <v>6.8</v>
       </c>
       <c r="O149" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P149" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Q149" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R149" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S149" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T149" t="n">
         <v>1.27</v>
       </c>
       <c r="U149" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V149" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="W149" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="X149" t="n">
         <v>1.82</v>
       </c>
       <c r="Y149" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="Z149" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA149" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB149" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AC149" t="n">
         <v>40</v>
       </c>
       <c r="AD149" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE149" t="n">
         <v>6.8</v>
       </c>
       <c r="AF149" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AG149" t="n">
         <v>16</v>
@@ -21552,16 +21556,16 @@
         <v>700</v>
       </c>
       <c r="AJ149" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AK149" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL149" t="n">
         <v>8.25</v>
       </c>
-      <c r="AL149" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AM149" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AN149" t="n">
         <v>15.5</v>
@@ -21630,16 +21634,16 @@
         <v>9</v>
       </c>
       <c r="O150" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P150" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q150" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R150" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S150" t="n">
         <v>3.75</v>
@@ -21765,10 +21769,10 @@
         <v>5.5</v>
       </c>
       <c r="M151" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N151" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O151" t="n">
         <v>1.4</v>
@@ -21783,10 +21787,10 @@
         <v>1.62</v>
       </c>
       <c r="S151" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T151" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U151" t="n">
         <v>1.5</v>
@@ -21892,7 +21896,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H152" t="n">
         <v>3.25</v>
@@ -21901,13 +21905,13 @@
         <v>4.2</v>
       </c>
       <c r="J152" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K152" t="n">
         <v>2</v>
       </c>
       <c r="L152" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M152" t="n">
         <v>1.08</v>
@@ -21916,10 +21920,10 @@
         <v>8</v>
       </c>
       <c r="O152" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P152" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q152" t="n">
         <v>2.35</v>
@@ -21928,16 +21932,16 @@
         <v>1.57</v>
       </c>
       <c r="S152" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T152" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U152" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V152" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W152" t="n">
         <v>2.1</v>
@@ -21955,7 +21959,7 @@
         <v>9</v>
       </c>
       <c r="AB152" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC152" t="n">
         <v>19</v>
@@ -21964,7 +21968,7 @@
         <v>34</v>
       </c>
       <c r="AE152" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF152" t="n">
         <v>6.5</v>
@@ -21982,7 +21986,7 @@
         <v>9.5</v>
       </c>
       <c r="AK152" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL152" t="n">
         <v>15</v>
@@ -21994,15 +21998,15 @@
         <v>41</v>
       </c>
       <c r="AO152" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP152" t="inlineStr"/>
       <c r="AQ152" t="inlineStr"/>
       <c r="AR152" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="153">
@@ -22037,13 +22041,13 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H153" t="n">
         <v>3.3</v>
       </c>
       <c r="I153" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J153" t="n">
         <v>3.6</v>
@@ -22055,16 +22059,16 @@
         <v>3.2</v>
       </c>
       <c r="M153" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N153" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O153" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P153" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q153" t="n">
         <v>2.1</v>
@@ -22091,7 +22095,7 @@
         <v>1.83</v>
       </c>
       <c r="Y153" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z153" t="n">
         <v>13</v>
@@ -22103,7 +22107,7 @@
         <v>29</v>
       </c>
       <c r="AC153" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD153" t="n">
         <v>34</v>
@@ -22199,25 +22203,25 @@
         <v>1.03</v>
       </c>
       <c r="N154" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O154" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P154" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q154" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R154" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S154" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T154" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U154" t="n">
         <v>1.3</v>
@@ -22494,10 +22498,10 @@
         <v>4.33</v>
       </c>
       <c r="Q156" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R156" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S156" t="n">
         <v>2.63</v>
@@ -22746,22 +22750,22 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H158" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I158" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="J158" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="K158" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L158" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="M158" t="n">
         <v>1.06</v>
@@ -22773,10 +22777,10 @@
         <v>1.31</v>
       </c>
       <c r="P158" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q158" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R158" t="n">
         <v>1.8</v>
@@ -22785,25 +22789,25 @@
         <v>3.15</v>
       </c>
       <c r="T158" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="U158" t="n">
         <v>1.44</v>
       </c>
       <c r="V158" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="W158" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="X158" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="Y158" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z158" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA158" t="n">
         <v>12</v>
@@ -22815,7 +22819,7 @@
         <v>32</v>
       </c>
       <c r="AD158" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE158" t="n">
         <v>7.1</v>
@@ -22833,22 +22837,22 @@
         <v>500</v>
       </c>
       <c r="AJ158" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AK158" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL158" t="n">
         <v>8.5</v>
       </c>
       <c r="AM158" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AN158" t="n">
         <v>16</v>
       </c>
       <c r="AO158" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP158" t="inlineStr"/>
       <c r="AQ158" t="inlineStr"/>
@@ -22887,16 +22891,16 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H159" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I159" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J159" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K159" t="n">
         <v>2.1</v>
@@ -22905,10 +22909,10 @@
         <v>3.5</v>
       </c>
       <c r="M159" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N159" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O159" t="n">
         <v>1.29</v>
@@ -22950,7 +22954,7 @@
         <v>9.5</v>
       </c>
       <c r="AB159" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC159" t="n">
         <v>19</v>
@@ -22959,16 +22963,16 @@
         <v>29</v>
       </c>
       <c r="AE159" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF159" t="n">
         <v>6.5</v>
       </c>
       <c r="AG159" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH159" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI159" t="n">
         <v>201</v>
@@ -23187,16 +23191,16 @@
         <v>4.5</v>
       </c>
       <c r="M161" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N161" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O161" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P161" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q161" t="n">
         <v>2.1</v>
@@ -23402,13 +23406,13 @@
         <v>1.06</v>
       </c>
       <c r="N163" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O163" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P163" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q163" t="n">
         <v>2.05</v>
@@ -23417,10 +23421,10 @@
         <v>1.75</v>
       </c>
       <c r="S163" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T163" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U163" t="n">
         <v>1.44</v>
@@ -23699,10 +23703,10 @@
         <v>1.67</v>
       </c>
       <c r="S165" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T165" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U165" t="n">
         <v>1.44</v>
@@ -23804,96 +23808,96 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H166" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I166" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J166" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="K166" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="L166" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P166" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="Q166" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="R166" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="S166" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="T166" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="U166" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="V166" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="W166" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X166" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="Y166" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z166" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA166" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB166" t="n">
         <v>9.75</v>
       </c>
       <c r="AC166" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD166" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE166" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AF166" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG166" t="n">
         <v>18</v>
       </c>
       <c r="AH166" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI166" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AJ166" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AK166" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL166" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM166" t="n">
         <v>175</v>
@@ -24088,7 +24092,7 @@
         <v>5.3</v>
       </c>
       <c r="I168" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="J168" t="n">
         <v>1.72</v>
@@ -24097,7 +24101,7 @@
         <v>2.67</v>
       </c>
       <c r="L168" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M168" t="n">
         <v>1.02</v>
@@ -24106,19 +24110,19 @@
         <v>10</v>
       </c>
       <c r="O168" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P168" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Q168" t="n">
         <v>1.4</v>
       </c>
       <c r="R168" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="S168" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T168" t="n">
         <v>1.75</v>
@@ -24127,31 +24131,31 @@
         <v>1.24</v>
       </c>
       <c r="V168" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="W168" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="X168" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="Y168" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z168" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA168" t="n">
         <v>8.75</v>
       </c>
       <c r="AB168" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AC168" t="n">
         <v>10</v>
       </c>
       <c r="AD168" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE168" t="n">
         <v>10</v>
@@ -24160,16 +24164,16 @@
         <v>11</v>
       </c>
       <c r="AG168" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH168" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI168" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AJ168" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK168" t="n">
         <v>60</v>
@@ -24178,10 +24182,10 @@
         <v>24</v>
       </c>
       <c r="AM168" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AN168" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO168" t="n">
         <v>60</v>
@@ -24637,7 +24641,7 @@
         <v>1.4</v>
       </c>
       <c r="H172" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="I172" t="n">
         <v>6.1</v>
@@ -24646,10 +24650,10 @@
         <v>1.85</v>
       </c>
       <c r="K172" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="L172" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M172" t="n">
         <v>1.03</v>
@@ -24664,10 +24668,10 @@
         <v>4.8</v>
       </c>
       <c r="Q172" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="R172" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="S172" t="n">
         <v>2.1</v>
@@ -24676,10 +24680,10 @@
         <v>1.65</v>
       </c>
       <c r="U172" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="V172" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="W172" t="n">
         <v>1.62</v>
@@ -24688,7 +24692,7 @@
         <v>2.15</v>
       </c>
       <c r="Y172" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z172" t="n">
         <v>8.5</v>
@@ -24730,7 +24734,7 @@
         <v>19.5</v>
       </c>
       <c r="AM172" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN172" t="n">
         <v>60</v>
@@ -24778,106 +24782,106 @@
         <v>2.62</v>
       </c>
       <c r="H173" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I173" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="J173" t="n">
         <v>3.2</v>
       </c>
       <c r="K173" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="L173" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="M173" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N173" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="O173" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="P173" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="Q173" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R173" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S173" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T173" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U173" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V173" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="W173" t="n">
         <v>1.7</v>
       </c>
-      <c r="R173" t="n">
+      <c r="X173" t="n">
         <v>2.05</v>
       </c>
-      <c r="S173" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="T173" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U173" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="V173" t="n">
-        <v>3</v>
-      </c>
-      <c r="W173" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X173" t="n">
-        <v>2.18</v>
-      </c>
       <c r="Y173" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z173" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA173" t="n">
         <v>10</v>
       </c>
       <c r="AB173" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC173" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD173" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE173" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AF173" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AG173" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH173" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI173" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AJ173" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AK173" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL173" t="n">
         <v>9.25</v>
       </c>
       <c r="AM173" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN173" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AO173" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AP173" t="inlineStr"/>
       <c r="AQ173" t="inlineStr"/>
@@ -24925,10 +24929,10 @@
         <v>8.5</v>
       </c>
       <c r="J174" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="K174" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L174" t="n">
         <v>7.3</v>
@@ -24949,7 +24953,7 @@
         <v>1.55</v>
       </c>
       <c r="R174" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="S174" t="n">
         <v>2.3</v>
@@ -24958,10 +24962,10 @@
         <v>1.55</v>
       </c>
       <c r="U174" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="V174" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="W174" t="n">
         <v>1.8</v>
@@ -24970,7 +24974,7 @@
         <v>1.9</v>
       </c>
       <c r="Y174" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Z174" t="n">
         <v>7</v>
@@ -24982,10 +24986,10 @@
         <v>9</v>
       </c>
       <c r="AC174" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AD174" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE174" t="n">
         <v>9</v>
@@ -24994,7 +24998,7 @@
         <v>9.25</v>
       </c>
       <c r="AG174" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH174" t="n">
         <v>70</v>
@@ -25006,7 +25010,7 @@
         <v>27</v>
       </c>
       <c r="AK174" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL174" t="n">
         <v>26</v>
@@ -25060,58 +25064,58 @@
         <v>3.15</v>
       </c>
       <c r="H175" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I175" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J175" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K175" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="L175" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="M175" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N175" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="O175" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="P175" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="Q175" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R175" t="n">
         <v>1.8</v>
       </c>
-      <c r="R175" t="n">
-        <v>1.91</v>
-      </c>
       <c r="S175" t="n">
-        <v>2.87</v>
+        <v>3.15</v>
       </c>
       <c r="T175" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="U175" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="V175" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="W175" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="X175" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y175" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z175" t="n">
         <v>17.5</v>
@@ -25120,7 +25124,7 @@
         <v>11</v>
       </c>
       <c r="AB175" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC175" t="n">
         <v>27</v>
@@ -25129,37 +25133,37 @@
         <v>32</v>
       </c>
       <c r="AE175" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="AF175" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AG175" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH175" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI175" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="AJ175" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AK175" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AL175" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AM175" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN175" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AO175" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AP175" t="inlineStr"/>
       <c r="AQ175" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-08.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
         <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -707,7 +707,7 @@
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -722,22 +722,22 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="R2" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="S2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W2" t="n">
         <v>1.67</v>
@@ -755,10 +755,10 @@
         <v>9.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
         <v>26</v>
@@ -770,7 +770,7 @@
         <v>6.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
@@ -782,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
         <v>11</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN2" t="n">
         <v>23</v>
@@ -836,7 +836,7 @@
         <v>1.33</v>
       </c>
       <c r="H3" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
         <v>8.5</v>
@@ -851,10 +851,10 @@
         <v>8.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
@@ -863,34 +863,34 @@
         <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="X3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA3" t="n">
         <v>9</v>
@@ -899,25 +899,25 @@
         <v>8</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
         <v>29</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI3" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AJ3" t="n">
         <v>17</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J4" t="n">
         <v>3.75</v>
@@ -989,7 +989,7 @@
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -1022,19 +1022,19 @@
         <v>2.75</v>
       </c>
       <c r="W4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
@@ -1061,19 +1061,19 @@
         <v>251</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM4" t="n">
         <v>21</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>29</v>
@@ -1260,52 +1260,52 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R6" t="n">
         <v>2.2</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>15</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.3</v>
-      </c>
       <c r="S6" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T6" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W6" t="n">
         <v>1.67</v>
@@ -1314,7 +1314,7 @@
         <v>2.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
         <v>9</v>
@@ -1323,19 +1323,19 @@
         <v>8.5</v>
       </c>
       <c r="AB6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC6" t="n">
         <v>13</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>12</v>
       </c>
       <c r="AD6" t="n">
         <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1347,22 +1347,22 @@
         <v>151</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM6" t="n">
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP6" t="n">
         <v>2.06</v>
@@ -1576,10 +1576,10 @@
         <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S8" t="n">
         <v>3.75</v>
@@ -1639,7 +1639,7 @@
         <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM8" t="n">
         <v>51</v>
@@ -1687,10 +1687,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
         <v>1.8</v>
@@ -1705,10 +1705,10 @@
         <v>2.38</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
         <v>1.2</v>
@@ -1717,16 +1717,16 @@
         <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U9" t="n">
         <v>1.3</v>
@@ -1735,13 +1735,13 @@
         <v>3.4</v>
       </c>
       <c r="W9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="n">
         <v>23</v>
@@ -1756,7 +1756,7 @@
         <v>29</v>
       </c>
       <c r="AD9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -1765,7 +1765,7 @@
         <v>7.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>41</v>
@@ -2140,22 +2140,22 @@
         <v>2.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="R12" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S12" t="n">
         <v>3.4</v>
@@ -2263,22 +2263,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I13" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K13" t="n">
         <v>1.91</v>
       </c>
       <c r="L13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M13" t="n">
         <v>1.13</v>
@@ -2320,7 +2320,7 @@
         <v>6</v>
       </c>
       <c r="Z13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA13" t="n">
         <v>10</v>
@@ -2329,7 +2329,7 @@
         <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD13" t="n">
         <v>41</v>
@@ -2341,7 +2341,7 @@
         <v>5.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH13" t="n">
         <v>67</v>
@@ -2350,30 +2350,30 @@
         <v>501</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM13" t="n">
         <v>41</v>
       </c>
       <c r="AN13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO13" t="n">
         <v>41</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>51</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="14">
@@ -2574,19 +2574,19 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="S15" t="n">
         <v>1.73</v>
@@ -2694,46 +2694,46 @@
         </is>
       </c>
       <c r="G16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P16" t="n">
         <v>3</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="Q16" t="n">
         <v>2.1</v>
       </c>
-      <c r="L16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>10</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.05</v>
-      </c>
       <c r="R16" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T16" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U16" t="n">
         <v>1.44</v>
@@ -2742,16 +2742,16 @@
         <v>2.63</v>
       </c>
       <c r="W16" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA16" t="n">
         <v>11</v>
@@ -2766,7 +2766,7 @@
         <v>34</v>
       </c>
       <c r="AE16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF16" t="n">
         <v>6</v>
@@ -2778,25 +2778,25 @@
         <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ16" t="n">
         <v>8</v>
       </c>
       <c r="AK16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN16" t="n">
         <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
@@ -2835,13 +2835,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I17" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J17" t="n">
         <v>1.91</v>
@@ -2850,7 +2850,7 @@
         <v>2.5</v>
       </c>
       <c r="L17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2871,10 +2871,10 @@
         <v>2.35</v>
       </c>
       <c r="S17" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U17" t="n">
         <v>1.29</v>
@@ -2913,7 +2913,7 @@
         <v>9.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>51</v>
@@ -2922,7 +2922,7 @@
         <v>201</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK17" t="n">
         <v>34</v>
@@ -2940,10 +2940,10 @@
         <v>41</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -2980,13 +2980,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J18" t="n">
         <v>3</v>
@@ -2998,28 +2998,28 @@
         <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="S18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U18" t="n">
         <v>1.44</v>
@@ -3028,19 +3028,19 @@
         <v>2.63</v>
       </c>
       <c r="W18" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X18" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB18" t="n">
         <v>21</v>
@@ -3052,7 +3052,7 @@
         <v>29</v>
       </c>
       <c r="AE18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF18" t="n">
         <v>6.5</v>
@@ -3064,7 +3064,7 @@
         <v>51</v>
       </c>
       <c r="AI18" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ18" t="n">
         <v>9</v>
@@ -3073,16 +3073,16 @@
         <v>15</v>
       </c>
       <c r="AL18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM18" t="n">
         <v>34</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AO18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
@@ -3121,28 +3121,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K19" t="n">
         <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -3151,10 +3151,10 @@
         <v>3.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R19" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S19" t="n">
         <v>3.5</v>
@@ -3178,7 +3178,7 @@
         <v>6.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA19" t="n">
         <v>8.5</v>
@@ -3196,7 +3196,7 @@
         <v>9.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG19" t="n">
         <v>17</v>
@@ -3205,7 +3205,7 @@
         <v>51</v>
       </c>
       <c r="AI19" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ19" t="n">
         <v>13</v>
@@ -3266,13 +3266,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I20" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J20" t="n">
         <v>4.75</v>
@@ -3290,40 +3290,40 @@
         <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S20" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="T20" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="U20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W20" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X20" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y20" t="n">
         <v>17</v>
       </c>
       <c r="Z20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA20" t="n">
         <v>15</v>
@@ -3338,7 +3338,7 @@
         <v>34</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>8</v>
@@ -3350,13 +3350,13 @@
         <v>41</v>
       </c>
       <c r="AI20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
         <v>8.5</v>
@@ -3371,10 +3371,10 @@
         <v>21</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -3411,16 +3411,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K21" t="n">
         <v>2.3</v>
@@ -3435,22 +3435,22 @@
         <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U21" t="n">
         <v>1.33</v>
@@ -3474,22 +3474,22 @@
         <v>8.5</v>
       </c>
       <c r="AB21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC21" t="n">
         <v>15</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>13</v>
       </c>
       <c r="AD21" t="n">
         <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF21" t="n">
         <v>7</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
         <v>41</v>
@@ -3501,7 +3501,7 @@
         <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
         <v>13</v>
@@ -3515,8 +3515,12 @@
       <c r="AO21" t="n">
         <v>34</v>
       </c>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
+      <c r="AP21" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>1.86</v>
+      </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
     </row>
@@ -3576,10 +3580,10 @@
         <v>5.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q22" t="n">
         <v>3.1</v>
@@ -3657,7 +3661,7 @@
         <v>51</v>
       </c>
       <c r="AP22" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.16</v>
@@ -3719,22 +3723,22 @@
         <v>5.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P23" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R23" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S23" t="n">
         <v>5.5</v>
@@ -3812,10 +3816,10 @@
         <v>1.21</v>
       </c>
       <c r="AR23" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="24">
@@ -3892,10 +3896,10 @@
         <v>1.18</v>
       </c>
       <c r="U24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V24" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W24" t="n">
         <v>2.25</v>
@@ -3999,28 +4003,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H25" t="n">
         <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K25" t="n">
         <v>2.05</v>
       </c>
       <c r="L25" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
         <v>1.36</v>
@@ -4029,10 +4033,10 @@
         <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S25" t="n">
         <v>4</v>
@@ -4041,7 +4045,7 @@
         <v>1.22</v>
       </c>
       <c r="U25" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V25" t="n">
         <v>2.5</v>
@@ -4062,10 +4066,10 @@
         <v>9</v>
       </c>
       <c r="AB25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD25" t="n">
         <v>34</v>
@@ -4074,7 +4078,7 @@
         <v>8.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG25" t="n">
         <v>17</v>
@@ -4086,34 +4090,34 @@
         <v>401</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK25" t="n">
         <v>17</v>
       </c>
       <c r="AL25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM25" t="n">
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO25" t="n">
         <v>41</v>
       </c>
       <c r="AP25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.31</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="26">
@@ -4148,22 +4152,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="H26" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="I26" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K26" t="n">
         <v>1.8</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M26" t="n">
         <v>1.17</v>
@@ -4178,22 +4182,22 @@
         <v>2.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="T26" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="U26" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="V26" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W26" t="n">
         <v>2.5</v>
@@ -4202,13 +4206,13 @@
         <v>1.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB26" t="n">
         <v>41</v>
@@ -4226,26 +4230,26 @@
         <v>6</v>
       </c>
       <c r="AG26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH26" t="n">
         <v>101</v>
       </c>
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL26" t="n">
         <v>11</v>
       </c>
       <c r="AM26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO26" t="n">
         <v>41</v>
@@ -4305,22 +4309,22 @@
         <v>4.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P27" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R27" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S27" t="n">
         <v>7</v>
@@ -4329,10 +4333,10 @@
         <v>1.1</v>
       </c>
       <c r="U27" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V27" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="W27" t="n">
         <v>2.63</v>
@@ -4468,7 +4472,7 @@
         <v>1.11</v>
       </c>
       <c r="U28" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V28" t="n">
         <v>2.1</v>
@@ -4565,28 +4569,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H29" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I29" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K29" t="n">
         <v>1.8</v>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M29" t="n">
         <v>1.17</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O29" t="n">
         <v>1.73</v>
@@ -4613,13 +4617,13 @@
         <v>2.03</v>
       </c>
       <c r="W29" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X29" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Z29" t="n">
         <v>7</v>
@@ -4628,7 +4632,7 @@
         <v>11</v>
       </c>
       <c r="AB29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC29" t="n">
         <v>23</v>
@@ -4637,7 +4641,7 @@
         <v>51</v>
       </c>
       <c r="AE29" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AF29" t="n">
         <v>6.5</v>
@@ -4653,13 +4657,13 @@
         <v>8</v>
       </c>
       <c r="AK29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL29" t="n">
         <v>21</v>
       </c>
-      <c r="AL29" t="n">
-        <v>19</v>
-      </c>
       <c r="AM29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN29" t="n">
         <v>51</v>
@@ -4982,7 +4986,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="H32" t="n">
         <v>3.8</v>
@@ -5012,16 +5016,16 @@
         <v>5.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R32" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S32" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T32" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U32" t="n">
         <v>1.25</v>
@@ -5030,10 +5034,10 @@
         <v>3.75</v>
       </c>
       <c r="W32" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X32" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y32" t="n">
         <v>19</v>
@@ -5057,25 +5061,25 @@
         <v>19</v>
       </c>
       <c r="AF32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG32" t="n">
         <v>11</v>
       </c>
       <c r="AH32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI32" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM32" t="n">
         <v>17</v>
@@ -5139,16 +5143,16 @@
         <v>2.25</v>
       </c>
       <c r="K33" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L33" t="n">
         <v>3.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O33" t="n">
         <v>1.1</v>
@@ -5202,13 +5206,13 @@
         <v>26</v>
       </c>
       <c r="AF33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG33" t="n">
         <v>11</v>
       </c>
       <c r="AH33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI33" t="n">
         <v>67</v>
@@ -5268,61 +5272,61 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I34" t="n">
         <v>2.8</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K34" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L34" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O34" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P34" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R34" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S34" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="U34" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V34" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W34" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X34" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y34" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z34" t="n">
         <v>12</v>
@@ -5337,13 +5341,13 @@
         <v>21</v>
       </c>
       <c r="AD34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE34" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG34" t="n">
         <v>15</v>
@@ -5352,10 +5356,10 @@
         <v>51</v>
       </c>
       <c r="AI34" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK34" t="n">
         <v>13</v>
@@ -5568,22 +5572,22 @@
         <v>8</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O36" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P36" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R36" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S36" t="n">
         <v>2.63</v>
@@ -5857,7 +5861,7 @@
         <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O38" t="n">
         <v>1.18</v>
@@ -5866,10 +5870,10 @@
         <v>4.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R38" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S38" t="n">
         <v>2.5</v>
@@ -5941,10 +5945,10 @@
         <v>34</v>
       </c>
       <c r="AP38" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr"/>
@@ -5981,16 +5985,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H39" t="n">
         <v>3.5</v>
       </c>
       <c r="I39" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J39" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K39" t="n">
         <v>2.3</v>
@@ -6071,7 +6075,7 @@
         <v>11</v>
       </c>
       <c r="AK39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL39" t="n">
         <v>10</v>
@@ -6231,10 +6235,10 @@
         <v>41</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
@@ -6289,10 +6293,10 @@
         <v>6</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O41" t="n">
         <v>1.2</v>
@@ -6412,22 +6416,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H42" t="n">
         <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J42" t="n">
         <v>3.1</v>
       </c>
       <c r="K42" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
         <v>1.1</v>
@@ -6442,34 +6446,34 @@
         <v>2.63</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R42" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U42" t="n">
         <v>1.53</v>
       </c>
-      <c r="S42" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.57</v>
-      </c>
       <c r="V42" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W42" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X42" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Y42" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA42" t="n">
         <v>10</v>
@@ -6481,10 +6485,10 @@
         <v>21</v>
       </c>
       <c r="AD42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF42" t="n">
         <v>6</v>
@@ -6493,7 +6497,7 @@
         <v>17</v>
       </c>
       <c r="AH42" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI42" t="n">
         <v>351</v>
@@ -6508,10 +6512,10 @@
         <v>13</v>
       </c>
       <c r="AM42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO42" t="n">
         <v>41</v>
@@ -6519,10 +6523,10 @@
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
       <c r="AR42" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AS42" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="43">
@@ -6557,7 +6561,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H43" t="n">
         <v>4.1</v>
@@ -6575,10 +6579,10 @@
         <v>7.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O43" t="n">
         <v>1.36</v>
@@ -6605,10 +6609,10 @@
         <v>2.63</v>
       </c>
       <c r="W43" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X43" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y43" t="n">
         <v>5.5</v>
@@ -6629,10 +6633,10 @@
         <v>34</v>
       </c>
       <c r="AE43" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG43" t="n">
         <v>23</v>
@@ -6644,13 +6648,13 @@
         <v>1250</v>
       </c>
       <c r="AJ43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK43" t="n">
         <v>34</v>
       </c>
       <c r="AL43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM43" t="n">
         <v>81</v>
@@ -6704,7 +6708,7 @@
         <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J44" t="n">
         <v>5.5</v>
@@ -6719,19 +6723,19 @@
         <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P44" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R44" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S44" t="n">
         <v>3.4</v>
@@ -6857,10 +6861,10 @@
         <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N45" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O45" t="n">
         <v>1.5</v>
@@ -6988,7 +6992,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H46" t="n">
         <v>4.2</v>
@@ -7003,13 +7007,13 @@
         <v>2.1</v>
       </c>
       <c r="L46" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M46" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O46" t="n">
         <v>1.4</v>
@@ -7018,16 +7022,16 @@
         <v>2.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R46" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S46" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T46" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U46" t="n">
         <v>1.5</v>
@@ -7060,7 +7064,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF46" t="n">
         <v>8.5</v>
@@ -7140,7 +7144,7 @@
         <v>3.5</v>
       </c>
       <c r="H47" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I47" t="n">
         <v>2.3</v>
@@ -7149,16 +7153,16 @@
         <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L47" t="n">
         <v>3.1</v>
       </c>
       <c r="M47" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O47" t="n">
         <v>1.4</v>
@@ -7167,22 +7171,22 @@
         <v>2.75</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R47" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S47" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T47" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U47" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V47" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W47" t="n">
         <v>1.91</v>
@@ -7203,7 +7207,7 @@
         <v>41</v>
       </c>
       <c r="AC47" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD47" t="n">
         <v>41</v>
@@ -7224,7 +7228,7 @@
         <v>351</v>
       </c>
       <c r="AJ47" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK47" t="n">
         <v>10</v>
@@ -7304,10 +7308,10 @@
         <v>7</v>
       </c>
       <c r="M48" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O48" t="n">
         <v>1.5</v>
@@ -7435,10 +7439,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H49" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I49" t="n">
         <v>2.15</v>
@@ -7468,7 +7472,7 @@
         <v>2.05</v>
       </c>
       <c r="R49" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S49" t="n">
         <v>3.5</v>
@@ -7492,7 +7496,7 @@
         <v>9.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA49" t="n">
         <v>12</v>
@@ -7594,10 +7598,10 @@
         <v>7</v>
       </c>
       <c r="M50" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O50" t="n">
         <v>1.36</v>
@@ -7606,16 +7610,16 @@
         <v>3</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R50" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T50" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U50" t="n">
         <v>1.44</v>
@@ -7858,13 +7862,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="H52" t="n">
         <v>6</v>
       </c>
       <c r="I52" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="J52" t="n">
         <v>8.5</v>
@@ -7906,7 +7910,7 @@
         <v>3.25</v>
       </c>
       <c r="W52" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X52" t="n">
         <v>1.6</v>
@@ -7957,7 +7961,7 @@
         <v>7.3</v>
       </c>
       <c r="AN52" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AO52" t="n">
         <v>37</v>
@@ -8170,10 +8174,10 @@
         <v>3.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R54" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S54" t="n">
         <v>3.25</v>
@@ -8299,10 +8303,10 @@
         <v>2.88</v>
       </c>
       <c r="M55" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N55" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O55" t="n">
         <v>1.25</v>
@@ -8311,16 +8315,16 @@
         <v>3.75</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R55" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S55" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T55" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U55" t="n">
         <v>1.36</v>
@@ -8428,10 +8432,10 @@
         <v>6.5</v>
       </c>
       <c r="I56" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="J56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K56" t="n">
         <v>2.75</v>
@@ -8479,19 +8483,19 @@
         <v>29</v>
       </c>
       <c r="Z56" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA56" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB56" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AC56" t="n">
         <v>101</v>
       </c>
       <c r="AD56" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE56" t="n">
         <v>15</v>
@@ -8500,13 +8504,13 @@
         <v>13</v>
       </c>
       <c r="AG56" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH56" t="n">
         <v>101</v>
       </c>
       <c r="AI56" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="AJ56" t="n">
         <v>7.5</v>
@@ -8527,10 +8531,10 @@
         <v>34</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR56" t="inlineStr"/>
       <c r="AS56" t="inlineStr"/>
@@ -8570,7 +8574,7 @@
         <v>1.48</v>
       </c>
       <c r="H57" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I57" t="n">
         <v>5.75</v>
@@ -8579,7 +8583,7 @@
         <v>2.05</v>
       </c>
       <c r="K57" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L57" t="n">
         <v>6</v>
@@ -8591,46 +8595,46 @@
         <v>13</v>
       </c>
       <c r="O57" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P57" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R57" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S57" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T57" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U57" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V57" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W57" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X57" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
       </c>
       <c r="Z57" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA57" t="n">
         <v>8.5</v>
       </c>
       <c r="AB57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC57" t="n">
         <v>12</v>
@@ -8639,13 +8643,13 @@
         <v>26</v>
       </c>
       <c r="AE57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF57" t="n">
         <v>8</v>
       </c>
       <c r="AG57" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH57" t="n">
         <v>51</v>
@@ -8669,7 +8673,7 @@
         <v>41</v>
       </c>
       <c r="AO57" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP57" t="n">
         <v>2</v>
@@ -8712,61 +8716,61 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="H58" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="I58" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="J58" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K58" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="L58" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="M58" t="n">
         <v>1.14</v>
       </c>
       <c r="N58" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="O58" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U58" t="n">
         <v>1.57</v>
       </c>
-      <c r="P58" t="n">
+      <c r="V58" t="n">
         <v>2.25</v>
       </c>
-      <c r="Q58" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="R58" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S58" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="T58" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="U58" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V58" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W58" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="X58" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Y58" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z58" t="n">
         <v>21</v>
@@ -8775,31 +8779,31 @@
         <v>14</v>
       </c>
       <c r="AB58" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AC58" t="n">
         <v>50</v>
       </c>
       <c r="AD58" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE58" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="AF58" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI58" t="n">
         <v>101</v>
       </c>
       <c r="AJ58" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AK58" t="n">
         <v>9</v>
@@ -8808,13 +8812,13 @@
         <v>9.25</v>
       </c>
       <c r="AM58" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN58" t="n">
         <v>22</v>
       </c>
-      <c r="AN58" t="n">
-        <v>23</v>
-      </c>
       <c r="AO58" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP58" t="inlineStr"/>
       <c r="AQ58" t="inlineStr"/>
@@ -8853,7 +8857,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H59" t="n">
         <v>2.6</v>
@@ -8868,7 +8872,7 @@
         <v>1.8</v>
       </c>
       <c r="L59" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="M59" t="n">
         <v>1.16</v>
@@ -8883,13 +8887,13 @@
         <v>2.15</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="R59" t="n">
         <v>1.38</v>
       </c>
       <c r="S59" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="T59" t="n">
         <v>1.13</v>
@@ -8904,7 +8908,7 @@
         <v>2.18</v>
       </c>
       <c r="X59" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Y59" t="n">
         <v>5.7</v>
@@ -8931,7 +8935,7 @@
         <v>5.3</v>
       </c>
       <c r="AG59" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH59" t="n">
         <v>120</v>
@@ -8940,10 +8944,10 @@
         <v>101</v>
       </c>
       <c r="AJ59" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AK59" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL59" t="n">
         <v>12.5</v>
@@ -8955,7 +8959,7 @@
         <v>40</v>
       </c>
       <c r="AO59" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AP59" t="inlineStr"/>
       <c r="AQ59" t="inlineStr"/>
@@ -8994,22 +8998,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H60" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I60" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J60" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K60" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L60" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M60" t="n">
         <v>1.04</v>
@@ -9042,10 +9046,10 @@
         <v>3</v>
       </c>
       <c r="W60" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X60" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y60" t="n">
         <v>7</v>
@@ -9057,7 +9061,7 @@
         <v>8.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC60" t="n">
         <v>12</v>
@@ -9078,13 +9082,13 @@
         <v>51</v>
       </c>
       <c r="AI60" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ60" t="n">
         <v>15</v>
       </c>
       <c r="AK60" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL60" t="n">
         <v>19</v>
@@ -9135,22 +9139,22 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H61" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I61" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K61" t="n">
         <v>2.1</v>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M61" t="n">
         <v>1.06</v>
@@ -9189,22 +9193,22 @@
         <v>1.91</v>
       </c>
       <c r="Y61" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA61" t="n">
         <v>9</v>
       </c>
       <c r="AB61" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC61" t="n">
         <v>19</v>
       </c>
-      <c r="AC61" t="n">
-        <v>17</v>
-      </c>
       <c r="AD61" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE61" t="n">
         <v>10</v>
@@ -9222,13 +9226,13 @@
         <v>251</v>
       </c>
       <c r="AJ61" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL61" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM61" t="n">
         <v>34</v>
@@ -9276,19 +9280,19 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I62" t="n">
         <v>5</v>
       </c>
       <c r="J62" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K62" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L62" t="n">
         <v>5.5</v>
@@ -9300,16 +9304,16 @@
         <v>11</v>
       </c>
       <c r="O62" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P62" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R62" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S62" t="n">
         <v>3.4</v>
@@ -9324,13 +9328,13 @@
         <v>2.75</v>
       </c>
       <c r="W62" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X62" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y62" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z62" t="n">
         <v>7.5</v>
@@ -9339,13 +9343,13 @@
         <v>8.5</v>
       </c>
       <c r="AB62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE62" t="n">
         <v>11</v>
@@ -9360,13 +9364,13 @@
         <v>51</v>
       </c>
       <c r="AI62" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK62" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL62" t="n">
         <v>15</v>
@@ -9417,22 +9421,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H63" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I63" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J63" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K63" t="n">
         <v>2.3</v>
       </c>
       <c r="L63" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M63" t="n">
         <v>1.05</v>
@@ -9465,10 +9469,10 @@
         <v>3</v>
       </c>
       <c r="W63" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X63" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y63" t="n">
         <v>6.5</v>
@@ -9480,7 +9484,7 @@
         <v>8.5</v>
       </c>
       <c r="AB63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC63" t="n">
         <v>13</v>
@@ -9489,28 +9493,28 @@
         <v>29</v>
       </c>
       <c r="AE63" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF63" t="n">
         <v>8.5</v>
       </c>
       <c r="AG63" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH63" t="n">
         <v>67</v>
       </c>
       <c r="AI63" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AJ63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK63" t="n">
         <v>29</v>
       </c>
       <c r="AL63" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM63" t="n">
         <v>67</v>
@@ -9576,10 +9580,10 @@
         <v>4.5</v>
       </c>
       <c r="M64" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N64" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O64" t="n">
         <v>1.5</v>
@@ -9665,10 +9669,10 @@
       <c r="AP64" t="inlineStr"/>
       <c r="AQ64" t="inlineStr"/>
       <c r="AR64" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="65">
@@ -9703,22 +9707,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H65" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I65" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J65" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K65" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L65" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M65" t="n">
         <v>1.04</v>
@@ -9760,7 +9764,7 @@
         <v>7.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA65" t="n">
         <v>8.5</v>
@@ -9775,7 +9779,7 @@
         <v>23</v>
       </c>
       <c r="AE65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF65" t="n">
         <v>7</v>
@@ -9793,7 +9797,7 @@
         <v>13</v>
       </c>
       <c r="AK65" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL65" t="n">
         <v>15</v>
@@ -9898,10 +9902,10 @@
         <v>2</v>
       </c>
       <c r="Y66" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z66" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA66" t="n">
         <v>8.5</v>
@@ -9919,10 +9923,10 @@
         <v>17</v>
       </c>
       <c r="AF66" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG66" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH66" t="n">
         <v>51</v>
@@ -9931,7 +9935,7 @@
         <v>201</v>
       </c>
       <c r="AJ66" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK66" t="n">
         <v>34</v>
@@ -10130,16 +10134,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>4.5</v>
       </c>
       <c r="I68" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K68" t="n">
         <v>2.4</v>
@@ -10148,22 +10152,22 @@
         <v>6</v>
       </c>
       <c r="M68" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N68" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O68" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P68" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R68" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S68" t="n">
         <v>2.63</v>
@@ -10190,10 +10194,10 @@
         <v>7.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC68" t="n">
         <v>12</v>
@@ -10208,7 +10212,7 @@
         <v>8.5</v>
       </c>
       <c r="AG68" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH68" t="n">
         <v>51</v>
@@ -10220,10 +10224,10 @@
         <v>17</v>
       </c>
       <c r="AK68" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL68" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM68" t="n">
         <v>67</v>
@@ -10277,7 +10281,7 @@
         <v>3.4</v>
       </c>
       <c r="I69" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J69" t="n">
         <v>2.4</v>
@@ -10286,25 +10290,25 @@
         <v>2.1</v>
       </c>
       <c r="L69" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M69" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O69" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P69" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R69" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S69" t="n">
         <v>3.75</v>
@@ -10319,13 +10323,13 @@
         <v>2.63</v>
       </c>
       <c r="W69" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X69" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y69" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z69" t="n">
         <v>7.5</v>
@@ -10343,7 +10347,7 @@
         <v>29</v>
       </c>
       <c r="AE69" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF69" t="n">
         <v>6.5</v>
@@ -10352,10 +10356,10 @@
         <v>17</v>
       </c>
       <c r="AH69" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI69" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ69" t="n">
         <v>12</v>
@@ -10373,7 +10377,7 @@
         <v>41</v>
       </c>
       <c r="AO69" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP69" t="inlineStr"/>
       <c r="AQ69" t="inlineStr"/>
@@ -10483,10 +10487,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H71" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I71" t="n">
         <v>5.25</v>
@@ -10501,10 +10505,10 @@
         <v>5.5</v>
       </c>
       <c r="M71" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N71" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O71" t="n">
         <v>1.3</v>
@@ -10516,7 +10520,7 @@
         <v>2.05</v>
       </c>
       <c r="R71" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S71" t="n">
         <v>3.5</v>
@@ -10531,10 +10535,10 @@
         <v>2.63</v>
       </c>
       <c r="W71" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X71" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y71" t="n">
         <v>6.5</v>
@@ -10546,7 +10550,7 @@
         <v>8.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC71" t="n">
         <v>15</v>
@@ -10555,22 +10559,22 @@
         <v>29</v>
       </c>
       <c r="AE71" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF71" t="n">
         <v>7</v>
       </c>
       <c r="AG71" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH71" t="n">
         <v>51</v>
       </c>
       <c r="AI71" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AJ71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK71" t="n">
         <v>26</v>
@@ -10695,46 +10699,46 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I73" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J73" t="n">
         <v>3.75</v>
       </c>
       <c r="K73" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L73" t="n">
         <v>3.6</v>
       </c>
       <c r="M73" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N73" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O73" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P73" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R73" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="S73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T73" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="U73" t="n">
         <v>1.62</v>
@@ -10743,13 +10747,13 @@
         <v>2.2</v>
       </c>
       <c r="W73" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X73" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y73" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z73" t="n">
         <v>12</v>
@@ -10767,7 +10771,7 @@
         <v>41</v>
       </c>
       <c r="AE73" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF73" t="n">
         <v>5.5</v>
@@ -10776,7 +10780,7 @@
         <v>19</v>
       </c>
       <c r="AH73" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="n">
         <v>1250</v>
@@ -10788,13 +10792,13 @@
         <v>12</v>
       </c>
       <c r="AL73" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM73" t="n">
         <v>29</v>
       </c>
       <c r="AN73" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO73" t="n">
         <v>41</v>
@@ -10802,10 +10806,10 @@
       <c r="AP73" t="inlineStr"/>
       <c r="AQ73" t="inlineStr"/>
       <c r="AR73" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="74">
@@ -10840,16 +10844,16 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H74" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I74" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J74" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K74" t="n">
         <v>2.38</v>
@@ -10864,22 +10868,22 @@
         <v>13</v>
       </c>
       <c r="O74" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P74" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R74" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S74" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T74" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U74" t="n">
         <v>1.36</v>
@@ -10900,7 +10904,7 @@
         <v>6.5</v>
       </c>
       <c r="AA74" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB74" t="n">
         <v>9</v>
@@ -10936,7 +10940,7 @@
         <v>23</v>
       </c>
       <c r="AM74" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN74" t="n">
         <v>51</v>
@@ -10981,16 +10985,16 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H75" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I75" t="n">
         <v>5</v>
       </c>
       <c r="J75" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K75" t="n">
         <v>2.1</v>
@@ -11044,7 +11048,7 @@
         <v>8.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC75" t="n">
         <v>15</v>
@@ -11227,10 +11231,10 @@
         <v>26</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AR76" t="inlineStr"/>
       <c r="AS76" t="inlineStr"/>
@@ -11267,16 +11271,16 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I77" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J77" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K77" t="n">
         <v>2.4</v>
@@ -11315,7 +11319,7 @@
         <v>3.5</v>
       </c>
       <c r="W77" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X77" t="n">
         <v>2.5</v>
@@ -11324,28 +11328,28 @@
         <v>11</v>
       </c>
       <c r="Z77" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA77" t="n">
         <v>9</v>
       </c>
       <c r="AB77" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC77" t="n">
         <v>15</v>
       </c>
       <c r="AD77" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE77" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF77" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH77" t="n">
         <v>34</v>
@@ -11412,64 +11416,64 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H78" t="n">
         <v>3.5</v>
       </c>
       <c r="I78" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J78" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K78" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L78" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M78" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N78" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O78" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P78" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="R78" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="S78" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T78" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U78" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V78" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W78" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="X78" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y78" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z78" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA78" t="n">
         <v>11</v>
@@ -11481,28 +11485,28 @@
         <v>21</v>
       </c>
       <c r="AD78" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE78" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF78" t="n">
         <v>7</v>
       </c>
       <c r="AG78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH78" t="n">
         <v>41</v>
       </c>
       <c r="AI78" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK78" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL78" t="n">
         <v>9.5</v>
@@ -11511,10 +11515,10 @@
         <v>21</v>
       </c>
       <c r="AN78" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO78" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP78" t="inlineStr"/>
       <c r="AQ78" t="inlineStr"/>
@@ -11577,10 +11581,10 @@
         <v>17</v>
       </c>
       <c r="O79" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P79" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q79" t="n">
         <v>1.53</v>
@@ -11601,7 +11605,7 @@
         <v>3.5</v>
       </c>
       <c r="W79" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X79" t="n">
         <v>2.5</v>
@@ -11658,10 +11662,10 @@
         <v>26</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AR79" t="inlineStr"/>
       <c r="AS79" t="inlineStr"/>
@@ -11698,13 +11702,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H80" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I80" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J80" t="n">
         <v>3.25</v>
@@ -11713,7 +11717,7 @@
         <v>2.1</v>
       </c>
       <c r="L80" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M80" t="n">
         <v>1.06</v>
@@ -11740,22 +11744,22 @@
         <v>1.29</v>
       </c>
       <c r="U80" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V80" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W80" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="X80" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y80" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA80" t="n">
         <v>10</v>
@@ -11770,19 +11774,19 @@
         <v>29</v>
       </c>
       <c r="AE80" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF80" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG80" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH80" t="n">
         <v>51</v>
       </c>
       <c r="AI80" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ80" t="n">
         <v>9</v>
@@ -11791,16 +11795,16 @@
         <v>13</v>
       </c>
       <c r="AL80" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM80" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO80" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP80" t="inlineStr"/>
       <c r="AQ80" t="inlineStr"/>
@@ -11839,13 +11843,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H81" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I81" t="n">
         <v>3.75</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3.7</v>
       </c>
       <c r="J81" t="n">
         <v>2.4</v>
@@ -11863,22 +11867,22 @@
         <v>15</v>
       </c>
       <c r="O81" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P81" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R81" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S81" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T81" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U81" t="n">
         <v>1.3</v>
@@ -11887,7 +11891,7 @@
         <v>3.4</v>
       </c>
       <c r="W81" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X81" t="n">
         <v>2.25</v>
@@ -11923,7 +11927,7 @@
         <v>41</v>
       </c>
       <c r="AI81" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ81" t="n">
         <v>15</v>
@@ -11938,7 +11942,7 @@
         <v>41</v>
       </c>
       <c r="AN81" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO81" t="n">
         <v>29</v>
@@ -11984,13 +11988,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H82" t="n">
         <v>4.2</v>
       </c>
       <c r="I82" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J82" t="n">
         <v>2.2</v>
@@ -11999,7 +12003,7 @@
         <v>2.4</v>
       </c>
       <c r="L82" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M82" t="n">
         <v>1.03</v>
@@ -12032,16 +12036,16 @@
         <v>3.4</v>
       </c>
       <c r="W82" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X82" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y82" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z82" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA82" t="n">
         <v>8.5</v>
@@ -12056,10 +12060,10 @@
         <v>21</v>
       </c>
       <c r="AE82" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF82" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG82" t="n">
         <v>15</v>
@@ -12129,16 +12133,16 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I83" t="n">
         <v>3.6</v>
       </c>
-      <c r="I83" t="n">
-        <v>3.7</v>
-      </c>
       <c r="J83" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K83" t="n">
         <v>2.2</v>
@@ -12147,10 +12151,10 @@
         <v>4.33</v>
       </c>
       <c r="M83" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N83" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O83" t="n">
         <v>1.25</v>
@@ -12159,16 +12163,16 @@
         <v>3.75</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R83" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S83" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T83" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U83" t="n">
         <v>1.36</v>
@@ -12192,16 +12196,16 @@
         <v>8.5</v>
       </c>
       <c r="AB83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC83" t="n">
         <v>15</v>
       </c>
       <c r="AD83" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE83" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF83" t="n">
         <v>7</v>
@@ -12210,7 +12214,7 @@
         <v>15</v>
       </c>
       <c r="AH83" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI83" t="n">
         <v>201</v>
@@ -12219,7 +12223,7 @@
         <v>12</v>
       </c>
       <c r="AK83" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL83" t="n">
         <v>13</v>
@@ -12445,10 +12449,10 @@
         <v>3.75</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R85" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S85" t="n">
         <v>3.25</v>
@@ -12556,7 +12560,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H86" t="n">
         <v>2.8</v>
@@ -12571,7 +12575,7 @@
         <v>1.83</v>
       </c>
       <c r="L86" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M86" t="n">
         <v>1.14</v>
@@ -12637,7 +12641,7 @@
         <v>19</v>
       </c>
       <c r="AH86" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI86" t="n">
         <v>501</v>
@@ -12705,13 +12709,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H87" t="n">
         <v>3.5</v>
       </c>
       <c r="I87" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J87" t="n">
         <v>4</v>
@@ -12720,7 +12724,7 @@
         <v>2.2</v>
       </c>
       <c r="L87" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M87" t="n">
         <v>1.04</v>
@@ -12735,10 +12739,10 @@
         <v>3.75</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R87" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S87" t="n">
         <v>3</v>
@@ -12753,13 +12757,13 @@
         <v>3</v>
       </c>
       <c r="W87" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X87" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Y87" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z87" t="n">
         <v>19</v>
@@ -12771,10 +12775,10 @@
         <v>41</v>
       </c>
       <c r="AC87" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD87" t="n">
         <v>29</v>
-      </c>
-      <c r="AD87" t="n">
-        <v>34</v>
       </c>
       <c r="AE87" t="n">
         <v>12</v>
@@ -12789,7 +12793,7 @@
         <v>41</v>
       </c>
       <c r="AI87" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ87" t="n">
         <v>8.5</v>
@@ -12798,10 +12802,10 @@
         <v>10</v>
       </c>
       <c r="AL87" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM87" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN87" t="n">
         <v>15</v>
@@ -12810,16 +12814,16 @@
         <v>23</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.43</v>
+        <v>2.39</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AR87" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -12875,19 +12879,19 @@
         <v>1.06</v>
       </c>
       <c r="N88" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O88" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P88" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R88" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S88" t="n">
         <v>3.5</v>
@@ -12938,10 +12942,10 @@
         <v>51</v>
       </c>
       <c r="AI88" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ88" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK88" t="n">
         <v>19</v>
@@ -13136,22 +13140,22 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H90" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I90" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J90" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K90" t="n">
         <v>2.2</v>
       </c>
       <c r="L90" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M90" t="n">
         <v>1.05</v>
@@ -13193,10 +13197,10 @@
         <v>9</v>
       </c>
       <c r="Z90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA90" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB90" t="n">
         <v>23</v>
@@ -13205,13 +13209,13 @@
         <v>19</v>
       </c>
       <c r="AD90" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE90" t="n">
         <v>11</v>
       </c>
       <c r="AF90" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG90" t="n">
         <v>13</v>
@@ -13220,7 +13224,7 @@
         <v>41</v>
       </c>
       <c r="AI90" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ90" t="n">
         <v>10</v>
@@ -13235,7 +13239,7 @@
         <v>29</v>
       </c>
       <c r="AN90" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO90" t="n">
         <v>29</v>
@@ -13277,16 +13281,16 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H91" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I91" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J91" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K91" t="n">
         <v>2.2</v>
@@ -13307,16 +13311,16 @@
         <v>3.5</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R91" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S91" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T91" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U91" t="n">
         <v>1.4</v>
@@ -13340,13 +13344,13 @@
         <v>9.5</v>
       </c>
       <c r="AB91" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC91" t="n">
         <v>19</v>
       </c>
       <c r="AD91" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE91" t="n">
         <v>11</v>
@@ -13364,7 +13368,7 @@
         <v>201</v>
       </c>
       <c r="AJ91" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK91" t="n">
         <v>15</v>
@@ -13442,22 +13446,22 @@
         <v>15</v>
       </c>
       <c r="O92" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P92" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R92" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S92" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T92" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U92" t="n">
         <v>1.3</v>
@@ -13700,42 +13704,42 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="H94" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I94" t="n">
         <v>2.65</v>
       </c>
       <c r="J94" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K94" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L94" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P94" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R94" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="S94" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="T94" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="U94" t="n">
         <v>1.42</v>
@@ -13744,13 +13748,13 @@
         <v>2.45</v>
       </c>
       <c r="W94" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="X94" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="Y94" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z94" t="n">
         <v>13.5</v>
@@ -13762,16 +13766,16 @@
         <v>28</v>
       </c>
       <c r="AC94" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD94" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE94" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF94" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AG94" t="n">
         <v>11.75</v>
@@ -13786,7 +13790,7 @@
         <v>10.25</v>
       </c>
       <c r="AK94" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL94" t="n">
         <v>9.75</v>
@@ -13795,7 +13799,7 @@
         <v>32</v>
       </c>
       <c r="AN94" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO94" t="n">
         <v>25</v>
@@ -13837,42 +13841,42 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="H95" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I95" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="J95" t="n">
-        <v>2.87</v>
+        <v>2.6</v>
       </c>
       <c r="K95" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L95" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P95" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q95" t="n">
         <v>1.65</v>
       </c>
       <c r="R95" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S95" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="T95" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="U95" t="n">
         <v>1.39</v>
@@ -13884,34 +13888,34 @@
         <v>1.53</v>
       </c>
       <c r="X95" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Y95" t="n">
         <v>9.75</v>
       </c>
       <c r="Z95" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA95" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB95" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AC95" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AD95" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE95" t="n">
         <v>12</v>
       </c>
       <c r="AF95" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AG95" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH95" t="n">
         <v>45</v>
@@ -13920,22 +13924,22 @@
         <v>250</v>
       </c>
       <c r="AJ95" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AK95" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AL95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM95" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AN95" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO95" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP95" t="inlineStr"/>
       <c r="AQ95" t="inlineStr"/>
@@ -14004,16 +14008,16 @@
         <v>3.4</v>
       </c>
       <c r="Q96" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R96" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S96" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T96" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U96" t="n">
         <v>1.4</v>
@@ -14115,13 +14119,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H97" t="n">
         <v>4.75</v>
       </c>
       <c r="I97" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J97" t="n">
         <v>1.8</v>
@@ -14133,10 +14137,10 @@
         <v>8</v>
       </c>
       <c r="M97" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N97" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O97" t="n">
         <v>1.18</v>
@@ -14145,10 +14149,10 @@
         <v>4.5</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R97" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S97" t="n">
         <v>2.5</v>
@@ -14178,7 +14182,7 @@
         <v>9</v>
       </c>
       <c r="AB97" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC97" t="n">
         <v>11</v>
@@ -14202,7 +14206,7 @@
         <v>351</v>
       </c>
       <c r="AJ97" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK97" t="n">
         <v>41</v>
@@ -14214,7 +14218,7 @@
         <v>101</v>
       </c>
       <c r="AN97" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO97" t="n">
         <v>51</v>
@@ -14260,7 +14264,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H98" t="n">
         <v>2.88</v>
@@ -14269,19 +14273,19 @@
         <v>2.8</v>
       </c>
       <c r="J98" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K98" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L98" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M98" t="n">
         <v>1.08</v>
       </c>
       <c r="N98" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O98" t="n">
         <v>1.4</v>
@@ -14290,10 +14294,10 @@
         <v>2.75</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R98" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S98" t="n">
         <v>4.33</v>
@@ -14302,16 +14306,16 @@
         <v>1.2</v>
       </c>
       <c r="U98" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V98" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W98" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X98" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y98" t="n">
         <v>7</v>
@@ -14320,25 +14324,25 @@
         <v>11</v>
       </c>
       <c r="AA98" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB98" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC98" t="n">
         <v>23</v>
       </c>
       <c r="AD98" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE98" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF98" t="n">
         <v>6</v>
       </c>
       <c r="AG98" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH98" t="n">
         <v>51</v>
@@ -14347,13 +14351,13 @@
         <v>351</v>
       </c>
       <c r="AJ98" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK98" t="n">
         <v>13</v>
       </c>
       <c r="AL98" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM98" t="n">
         <v>29</v>
@@ -14550,19 +14554,19 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H100" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I100" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="J100" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K100" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L100" t="n">
         <v>1.91</v>
@@ -14574,16 +14578,16 @@
         <v>15</v>
       </c>
       <c r="O100" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P100" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R100" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S100" t="n">
         <v>2.63</v>
@@ -14592,10 +14596,10 @@
         <v>1.44</v>
       </c>
       <c r="U100" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V100" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W100" t="n">
         <v>1.91</v>
@@ -14607,25 +14611,25 @@
         <v>17</v>
       </c>
       <c r="Z100" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA100" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB100" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AC100" t="n">
         <v>51</v>
       </c>
       <c r="AD100" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE100" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF100" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG100" t="n">
         <v>21</v>
@@ -14634,7 +14638,7 @@
         <v>51</v>
       </c>
       <c r="AI100" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ100" t="n">
         <v>7.5</v>
@@ -14646,7 +14650,7 @@
         <v>8.5</v>
       </c>
       <c r="AM100" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN100" t="n">
         <v>12</v>
@@ -14691,22 +14695,22 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="H101" t="n">
         <v>2.88</v>
       </c>
       <c r="I101" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J101" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K101" t="n">
         <v>2</v>
       </c>
       <c r="L101" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M101" t="n">
         <v>1.08</v>
@@ -14715,22 +14719,22 @@
         <v>8</v>
       </c>
       <c r="O101" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P101" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R101" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S101" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T101" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U101" t="n">
         <v>1.5</v>
@@ -14739,31 +14743,31 @@
         <v>2.5</v>
       </c>
       <c r="W101" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X101" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y101" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z101" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA101" t="n">
         <v>10</v>
       </c>
       <c r="AB101" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC101" t="n">
         <v>23</v>
-      </c>
-      <c r="AC101" t="n">
-        <v>21</v>
       </c>
       <c r="AD101" t="n">
         <v>34</v>
       </c>
       <c r="AE101" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF101" t="n">
         <v>5.5</v>
@@ -14775,22 +14779,22 @@
         <v>51</v>
       </c>
       <c r="AI101" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ101" t="n">
         <v>8.5</v>
       </c>
       <c r="AK101" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL101" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM101" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN101" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO101" t="n">
         <v>41</v>
@@ -14836,22 +14840,22 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H102" t="n">
         <v>3</v>
       </c>
       <c r="I102" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J102" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>3.2</v>
       </c>
       <c r="K102" t="n">
         <v>2</v>
       </c>
       <c r="L102" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M102" t="n">
         <v>1.08</v>
@@ -14866,16 +14870,16 @@
         <v>2.75</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R102" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S102" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T102" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U102" t="n">
         <v>1.5</v>
@@ -14893,13 +14897,13 @@
         <v>7</v>
       </c>
       <c r="Z102" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA102" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB102" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC102" t="n">
         <v>21</v>
@@ -14977,22 +14981,22 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H103" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I103" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J103" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K103" t="n">
         <v>2.3</v>
       </c>
       <c r="L103" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M103" t="n">
         <v>1.04</v>
@@ -15007,10 +15011,10 @@
         <v>4</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R103" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S103" t="n">
         <v>2.75</v>
@@ -15025,28 +15029,28 @@
         <v>3.25</v>
       </c>
       <c r="W103" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="X103" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y103" t="n">
         <v>15</v>
       </c>
       <c r="Z103" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA103" t="n">
         <v>15</v>
       </c>
       <c r="AB103" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC103" t="n">
         <v>34</v>
       </c>
       <c r="AD103" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE103" t="n">
         <v>12</v>
@@ -15055,25 +15059,25 @@
         <v>7</v>
       </c>
       <c r="AG103" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH103" t="n">
         <v>41</v>
       </c>
       <c r="AI103" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ103" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK103" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AL103" t="n">
         <v>8.5</v>
       </c>
       <c r="AM103" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN103" t="n">
         <v>13</v>
@@ -15118,46 +15122,46 @@
         </is>
       </c>
       <c r="G104" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H104" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I104" t="n">
+        <v>5</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L104" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N104" t="n">
+        <v>9</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P104" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R104" t="n">
         <v>1.62</v>
       </c>
-      <c r="H104" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I104" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J104" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K104" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L104" t="n">
-        <v>6</v>
-      </c>
-      <c r="M104" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N104" t="n">
-        <v>8</v>
-      </c>
-      <c r="O104" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P104" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R104" t="n">
-        <v>1.65</v>
-      </c>
       <c r="S104" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T104" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U104" t="n">
         <v>1.5</v>
@@ -15166,22 +15170,22 @@
         <v>2.5</v>
       </c>
       <c r="W104" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X104" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y104" t="n">
         <v>5.5</v>
       </c>
       <c r="Z104" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA104" t="n">
         <v>9</v>
       </c>
       <c r="AB104" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC104" t="n">
         <v>15</v>
@@ -15196,28 +15200,28 @@
         <v>7</v>
       </c>
       <c r="AG104" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH104" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI104" t="n">
         <v>501</v>
       </c>
       <c r="AJ104" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK104" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL104" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM104" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN104" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO104" t="n">
         <v>51</v>
@@ -15259,114 +15263,118 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I105" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="J105" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K105" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L105" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>7</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P105" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U105" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V105" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W105" t="n">
         <v>2</v>
       </c>
-      <c r="L105" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M105" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N105" t="n">
-        <v>8</v>
-      </c>
-      <c r="O105" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P105" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R105" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S105" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T105" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U105" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V105" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W105" t="n">
-        <v>1.95</v>
-      </c>
       <c r="X105" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y105" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE105" t="n">
         <v>7</v>
       </c>
-      <c r="Z105" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA105" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB105" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC105" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD105" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE105" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AF105" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG105" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH105" t="n">
         <v>51</v>
       </c>
       <c r="AI105" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ105" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AK105" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AL105" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM105" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN105" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO105" t="n">
         <v>41</v>
       </c>
       <c r="AP105" t="inlineStr"/>
       <c r="AQ105" t="inlineStr"/>
-      <c r="AR105" t="inlineStr"/>
-      <c r="AS105" t="inlineStr"/>
+      <c r="AR105" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -16383,22 +16391,22 @@
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P113" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R113" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S113" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="T113" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="U113" t="n">
         <v>1.39</v>
@@ -16407,16 +16415,16 @@
         <v>2.55</v>
       </c>
       <c r="W113" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="X113" t="n">
         <v>1.75</v>
       </c>
       <c r="Y113" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Z113" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AA113" t="n">
         <v>8.25</v>
@@ -16428,7 +16436,7 @@
         <v>12.5</v>
       </c>
       <c r="AD113" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE113" t="n">
         <v>11</v>
@@ -16437,13 +16445,13 @@
         <v>7.8</v>
       </c>
       <c r="AG113" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH113" t="n">
         <v>90</v>
       </c>
       <c r="AI113" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AJ113" t="n">
         <v>14</v>
@@ -16781,7 +16789,7 @@
         <v>1.48</v>
       </c>
       <c r="H116" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I116" t="n">
         <v>6</v>
@@ -16793,7 +16801,7 @@
         <v>2.2</v>
       </c>
       <c r="L116" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M116" t="n">
         <v>1.07</v>
@@ -16808,10 +16816,10 @@
         <v>3.25</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R116" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S116" t="n">
         <v>3.5</v>
@@ -16826,10 +16834,10 @@
         <v>2.63</v>
       </c>
       <c r="W116" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X116" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y116" t="n">
         <v>6</v>
@@ -16859,13 +16867,13 @@
         <v>21</v>
       </c>
       <c r="AH116" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI116" t="n">
-        <v>101</v>
+        <v>1000</v>
       </c>
       <c r="AJ116" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK116" t="n">
         <v>34</v>
@@ -16919,19 +16927,19 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H117" t="n">
         <v>3.1</v>
       </c>
       <c r="I117" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J117" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K117" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L117" t="n">
         <v>4.5</v>
@@ -16976,13 +16984,13 @@
         <v>6</v>
       </c>
       <c r="Z117" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA117" t="n">
         <v>9.5</v>
       </c>
       <c r="AB117" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC117" t="n">
         <v>19</v>
@@ -17519,7 +17527,7 @@
         <v>1.91</v>
       </c>
       <c r="K121" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L121" t="n">
         <v>7</v>
@@ -17561,16 +17569,16 @@
         <v>1.8</v>
       </c>
       <c r="Y121" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z121" t="n">
         <v>7</v>
       </c>
       <c r="AA121" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB121" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC121" t="n">
         <v>12</v>
@@ -17612,16 +17620,16 @@
         <v>51</v>
       </c>
       <c r="AP121" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AR121" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AS121" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="122">
@@ -17677,7 +17685,7 @@
         <v>1.06</v>
       </c>
       <c r="N122" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O122" t="n">
         <v>1.33</v>
@@ -18079,52 +18087,52 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H125" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I125" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="J125" t="n">
         <v>5</v>
       </c>
       <c r="K125" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L125" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M125" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N125" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O125" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P125" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R125" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S125" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T125" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U125" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V125" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W125" t="n">
         <v>2.38</v>
@@ -18133,16 +18141,16 @@
         <v>1.53</v>
       </c>
       <c r="Y125" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Z125" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA125" t="n">
         <v>15</v>
       </c>
       <c r="AB125" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC125" t="n">
         <v>41</v>
@@ -18151,16 +18159,16 @@
         <v>51</v>
       </c>
       <c r="AE125" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF125" t="n">
         <v>6.5</v>
       </c>
       <c r="AG125" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH125" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI125" t="n">
         <v>1250</v>
@@ -18169,16 +18177,16 @@
         <v>5</v>
       </c>
       <c r="AK125" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AL125" t="n">
         <v>10</v>
       </c>
       <c r="AM125" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN125" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO125" t="n">
         <v>41</v>
@@ -18224,16 +18232,16 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H126" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I126" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J126" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K126" t="n">
         <v>2.75</v>
@@ -18272,10 +18280,10 @@
         <v>3.5</v>
       </c>
       <c r="W126" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X126" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y126" t="n">
         <v>7.5</v>
@@ -18287,7 +18295,7 @@
         <v>10</v>
       </c>
       <c r="AB126" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC126" t="n">
         <v>11</v>
@@ -18299,15 +18307,17 @@
         <v>15</v>
       </c>
       <c r="AF126" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG126" t="n">
         <v>29</v>
       </c>
       <c r="AH126" t="n">
-        <v>101</v>
-      </c>
-      <c r="AI126" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>501</v>
+      </c>
       <c r="AJ126" t="n">
         <v>26</v>
       </c>
@@ -18318,19 +18328,19 @@
         <v>34</v>
       </c>
       <c r="AM126" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AN126" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AO126" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AR126" t="inlineStr"/>
       <c r="AS126" t="inlineStr"/>
@@ -18367,16 +18377,16 @@
         </is>
       </c>
       <c r="G127" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H127" t="n">
         <v>3.1</v>
       </c>
-      <c r="H127" t="n">
-        <v>3</v>
-      </c>
       <c r="I127" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J127" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K127" t="n">
         <v>2</v>
@@ -18397,16 +18407,16 @@
         <v>2.75</v>
       </c>
       <c r="Q127" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R127" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S127" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T127" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U127" t="n">
         <v>1.5</v>
@@ -18415,31 +18425,31 @@
         <v>2.5</v>
       </c>
       <c r="W127" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X127" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y127" t="n">
         <v>8.5</v>
       </c>
       <c r="Z127" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA127" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB127" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD127" t="n">
         <v>34</v>
       </c>
-      <c r="AC127" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD127" t="n">
-        <v>41</v>
-      </c>
       <c r="AE127" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF127" t="n">
         <v>6</v>
@@ -18451,10 +18461,10 @@
         <v>51</v>
       </c>
       <c r="AI127" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ127" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK127" t="n">
         <v>11</v>
@@ -18538,10 +18548,10 @@
         <v>3.25</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R128" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S128" t="n">
         <v>3.75</v>
@@ -18670,7 +18680,7 @@
         <v>1.08</v>
       </c>
       <c r="N129" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O129" t="n">
         <v>1.4</v>
@@ -18679,10 +18689,10 @@
         <v>2.75</v>
       </c>
       <c r="Q129" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R129" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S129" t="n">
         <v>4</v>
@@ -18811,7 +18821,7 @@
         <v>1.07</v>
       </c>
       <c r="N130" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O130" t="n">
         <v>1.36</v>
@@ -18820,16 +18830,16 @@
         <v>3</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R130" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S130" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T130" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U130" t="n">
         <v>1.44</v>
@@ -18847,7 +18857,7 @@
         <v>6</v>
       </c>
       <c r="Z130" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA130" t="n">
         <v>9</v>
@@ -18859,10 +18869,10 @@
         <v>17</v>
       </c>
       <c r="AD130" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE130" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF130" t="n">
         <v>7</v>
@@ -18931,22 +18941,22 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H131" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I131" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J131" t="n">
         <v>3.25</v>
       </c>
       <c r="K131" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L131" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M131" t="n">
         <v>1.06</v>
@@ -18961,10 +18971,10 @@
         <v>3.25</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R131" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S131" t="n">
         <v>3.75</v>
@@ -18979,10 +18989,10 @@
         <v>2.63</v>
       </c>
       <c r="W131" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X131" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y131" t="n">
         <v>8</v>
@@ -19003,10 +19013,10 @@
         <v>34</v>
       </c>
       <c r="AE131" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF131" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG131" t="n">
         <v>15</v>
@@ -19015,22 +19025,22 @@
         <v>51</v>
       </c>
       <c r="AI131" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ131" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK131" t="n">
         <v>13</v>
       </c>
       <c r="AL131" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM131" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN131" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO131" t="n">
         <v>34</v>
@@ -19072,22 +19082,22 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="H132" t="n">
         <v>3.7</v>
       </c>
       <c r="I132" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="J132" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K132" t="n">
         <v>2.4</v>
       </c>
       <c r="L132" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="M132" t="n">
         <v>1.02</v>
@@ -19105,7 +19115,7 @@
         <v>1.39</v>
       </c>
       <c r="R132" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="S132" t="n">
         <v>1.93</v>
@@ -19120,25 +19130,25 @@
         <v>3.65</v>
       </c>
       <c r="W132" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X132" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="Y132" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z132" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AA132" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AB132" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC132" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AD132" t="n">
         <v>20</v>
@@ -19159,19 +19169,19 @@
         <v>120</v>
       </c>
       <c r="AJ132" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK132" t="n">
         <v>14</v>
       </c>
-      <c r="AK132" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AL132" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AM132" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN132" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO132" t="n">
         <v>16</v>
@@ -19213,22 +19223,22 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H133" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I133" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="J133" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K133" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L133" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="M133" t="n">
         <v>1.03</v>
@@ -19237,19 +19247,19 @@
         <v>9.25</v>
       </c>
       <c r="O133" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P133" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R133" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="S133" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T133" t="n">
         <v>1.6</v>
@@ -19258,7 +19268,7 @@
         <v>1.28</v>
       </c>
       <c r="V133" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="W133" t="n">
         <v>1.5</v>
@@ -19267,19 +19277,19 @@
         <v>2.42</v>
       </c>
       <c r="Y133" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z133" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA133" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB133" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC133" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD133" t="n">
         <v>26</v>
@@ -19288,10 +19298,10 @@
         <v>9.25</v>
       </c>
       <c r="AF133" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AG133" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH133" t="n">
         <v>37</v>
@@ -19300,16 +19310,16 @@
         <v>200</v>
       </c>
       <c r="AJ133" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK133" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AL133" t="n">
         <v>8.5</v>
       </c>
       <c r="AM133" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AN133" t="n">
         <v>13</v>
@@ -19354,73 +19364,73 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="H134" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I134" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J134" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="K134" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="L134" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="M134" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N134" t="n">
         <v>9.75</v>
       </c>
       <c r="O134" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="P134" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="R134" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="S134" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="T134" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="U134" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="V134" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="W134" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X134" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="Y134" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Z134" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA134" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB134" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AC134" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD134" t="n">
         <v>32</v>
@@ -19429,7 +19439,7 @@
         <v>9.75</v>
       </c>
       <c r="AF134" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AG134" t="n">
         <v>13.5</v>
@@ -19438,25 +19448,25 @@
         <v>40</v>
       </c>
       <c r="AI134" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AJ134" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK134" t="n">
         <v>10</v>
       </c>
       <c r="AL134" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AM134" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AN134" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AO134" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AP134" t="inlineStr"/>
       <c r="AQ134" t="inlineStr"/>
@@ -19495,28 +19505,28 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="H135" t="n">
         <v>3.4</v>
       </c>
       <c r="I135" t="n">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="J135" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K135" t="n">
         <v>2.1</v>
       </c>
       <c r="L135" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M135" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N135" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O135" t="n">
         <v>1.29</v>
@@ -19549,19 +19559,19 @@
         <v>2</v>
       </c>
       <c r="Y135" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z135" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA135" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB135" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC135" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD135" t="n">
         <v>29</v>
@@ -19573,7 +19583,7 @@
         <v>6.5</v>
       </c>
       <c r="AG135" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH135" t="n">
         <v>41</v>
@@ -19582,19 +19592,19 @@
         <v>450</v>
       </c>
       <c r="AJ135" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK135" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL135" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM135" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN135" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO135" t="n">
         <v>29</v>
@@ -19777,28 +19787,28 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="H137" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I137" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="J137" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K137" t="n">
         <v>2.75</v>
       </c>
       <c r="L137" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M137" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="N137" t="n">
-        <v>13</v>
+        <v>1.02</v>
       </c>
       <c r="O137" t="n">
         <v>1.11</v>
@@ -19813,10 +19823,10 @@
         <v>2.75</v>
       </c>
       <c r="S137" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T137" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="U137" t="n">
         <v>1.22</v>
@@ -19834,10 +19844,10 @@
         <v>26</v>
       </c>
       <c r="Z137" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA137" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB137" t="n">
         <v>101</v>
@@ -19846,13 +19856,13 @@
         <v>51</v>
       </c>
       <c r="AD137" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE137" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF137" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG137" t="n">
         <v>23</v>
@@ -19861,7 +19871,7 @@
         <v>51</v>
       </c>
       <c r="AI137" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AJ137" t="n">
         <v>10</v>
@@ -19873,7 +19883,7 @@
         <v>10</v>
       </c>
       <c r="AM137" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AN137" t="n">
         <v>11</v>
@@ -20059,109 +20069,109 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="H139" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I139" t="n">
         <v>1.75</v>
       </c>
       <c r="J139" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="K139" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L139" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="M139" t="n">
         <v>1.06</v>
       </c>
       <c r="N139" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="O139" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="P139" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="R139" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S139" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="T139" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="U139" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="V139" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="W139" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="X139" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="Y139" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Z139" t="n">
         <v>24</v>
       </c>
       <c r="AA139" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB139" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AC139" t="n">
         <v>40</v>
       </c>
       <c r="AD139" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE139" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AF139" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AG139" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH139" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AI139" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AJ139" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="AK139" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL139" t="n">
         <v>8</v>
       </c>
-      <c r="AL139" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AM139" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AN139" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO139" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP139" t="inlineStr"/>
       <c r="AQ139" t="inlineStr"/>
@@ -20200,22 +20210,22 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="H140" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="I140" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="J140" t="n">
         <v>1.5</v>
       </c>
       <c r="K140" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="L140" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="M140" t="n">
         <v>1.02</v>
@@ -20224,85 +20234,85 @@
         <v>9.75</v>
       </c>
       <c r="O140" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P140" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="R140" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="S140" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="T140" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="U140" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="V140" t="n">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="W140" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="X140" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="Y140" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z140" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB140" t="n">
         <v>8.25</v>
-      </c>
-      <c r="AA140" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB140" t="n">
-        <v>7.9</v>
       </c>
       <c r="AC140" t="n">
         <v>10</v>
       </c>
       <c r="AD140" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE140" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF140" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG140" t="n">
         <v>25</v>
       </c>
       <c r="AH140" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI140" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AJ140" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK140" t="n">
         <v>110</v>
       </c>
       <c r="AL140" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM140" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AN140" t="n">
         <v>120</v>
       </c>
       <c r="AO140" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AP140" t="inlineStr"/>
       <c r="AQ140" t="inlineStr"/>
@@ -20341,109 +20351,109 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H141" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I141" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J141" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="K141" t="n">
         <v>2.05</v>
       </c>
       <c r="L141" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M141" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N141" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O141" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P141" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="R141" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="S141" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="T141" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="U141" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="V141" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="W141" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X141" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="Y141" t="n">
-        <v>8.25</v>
+        <v>7.4</v>
       </c>
       <c r="Z141" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="AA141" t="n">
         <v>8.75</v>
       </c>
       <c r="AB141" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC141" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AD141" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE141" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AF141" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AG141" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH141" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AI141" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AJ141" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK141" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL141" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AM141" t="n">
         <v>40</v>
       </c>
       <c r="AN141" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO141" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP141" t="inlineStr"/>
       <c r="AQ141" t="inlineStr"/>
@@ -20623,7 +20633,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="H143" t="n">
         <v>3.25</v>
@@ -20632,7 +20642,7 @@
         <v>1.85</v>
       </c>
       <c r="J143" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="K143" t="n">
         <v>2.12</v>
@@ -20644,7 +20654,7 @@
         <v>1.07</v>
       </c>
       <c r="N143" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="O143" t="n">
         <v>1.33</v>
@@ -20662,7 +20672,7 @@
         <v>3.3</v>
       </c>
       <c r="T143" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="U143" t="n">
         <v>1.38</v>
@@ -20671,16 +20681,16 @@
         <v>2.9</v>
       </c>
       <c r="W143" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X143" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Y143" t="n">
         <v>12</v>
       </c>
       <c r="Z143" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA143" t="n">
         <v>15</v>
@@ -20692,10 +20702,10 @@
         <v>45</v>
       </c>
       <c r="AD143" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE143" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AF143" t="n">
         <v>6.6</v>
@@ -20710,22 +20720,22 @@
         <v>600</v>
       </c>
       <c r="AJ143" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AK143" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AL143" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AM143" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AN143" t="n">
         <v>16.5</v>
       </c>
       <c r="AO143" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP143" t="inlineStr"/>
       <c r="AQ143" t="inlineStr"/>
@@ -20767,19 +20777,19 @@
         <v>1.57</v>
       </c>
       <c r="H144" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I144" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J144" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="K144" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L144" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="M144" t="n">
         <v>1.05</v>
@@ -20812,7 +20822,7 @@
         <v>2.85</v>
       </c>
       <c r="W144" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="X144" t="n">
         <v>1.82</v>
@@ -20821,7 +20831,7 @@
         <v>6.5</v>
       </c>
       <c r="Z144" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA144" t="n">
         <v>8.75</v>
@@ -20842,19 +20852,19 @@
         <v>8.25</v>
       </c>
       <c r="AG144" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH144" t="n">
         <v>100</v>
       </c>
       <c r="AI144" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AJ144" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK144" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AL144" t="n">
         <v>18.5</v>
@@ -20914,13 +20924,13 @@
         <v>2.95</v>
       </c>
       <c r="J145" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="K145" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L145" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M145" t="n">
         <v>1.06</v>
@@ -20959,7 +20969,7 @@
         <v>2.12</v>
       </c>
       <c r="Y145" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z145" t="n">
         <v>13.5</v>
@@ -20968,7 +20978,7 @@
         <v>9.5</v>
       </c>
       <c r="AB145" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC145" t="n">
         <v>19.5</v>
@@ -20992,10 +21002,10 @@
         <v>450</v>
       </c>
       <c r="AJ145" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK145" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL145" t="n">
         <v>11</v>
@@ -21007,7 +21017,7 @@
         <v>27</v>
       </c>
       <c r="AO145" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP145" t="inlineStr"/>
       <c r="AQ145" t="inlineStr"/>
@@ -21049,10 +21059,10 @@
         <v>1.7</v>
       </c>
       <c r="H146" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I146" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="J146" t="n">
         <v>2.25</v>
@@ -21067,43 +21077,43 @@
         <v>1.05</v>
       </c>
       <c r="N146" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O146" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P146" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S146" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U146" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V146" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X146" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z146" t="n">
         <v>8.75</v>
-      </c>
-      <c r="O146" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P146" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q146" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R146" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S146" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T146" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U146" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="V146" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="W146" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X146" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Y146" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z146" t="n">
-        <v>9</v>
       </c>
       <c r="AA146" t="n">
         <v>8.5</v>
@@ -21112,22 +21122,22 @@
         <v>14</v>
       </c>
       <c r="AC146" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD146" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE146" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF146" t="n">
         <v>7.8</v>
       </c>
       <c r="AG146" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH146" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI146" t="n">
         <v>500</v>
@@ -21139,7 +21149,7 @@
         <v>30</v>
       </c>
       <c r="AL146" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AM146" t="n">
         <v>90</v>
@@ -21190,55 +21200,55 @@
         <v>2.65</v>
       </c>
       <c r="H147" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I147" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="J147" t="n">
         <v>3.15</v>
       </c>
       <c r="K147" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L147" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="M147" t="n">
         <v>1.07</v>
       </c>
       <c r="N147" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="O147" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P147" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R147" t="n">
         <v>1.75</v>
       </c>
       <c r="S147" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T147" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U147" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="V147" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="W147" t="n">
         <v>1.72</v>
       </c>
       <c r="X147" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Y147" t="n">
         <v>8.5</v>
@@ -21247,7 +21257,7 @@
         <v>13.5</v>
       </c>
       <c r="AA147" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB147" t="n">
         <v>30</v>
@@ -21259,7 +21269,7 @@
         <v>30</v>
       </c>
       <c r="AE147" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AF147" t="n">
         <v>6</v>
@@ -21274,13 +21284,13 @@
         <v>450</v>
       </c>
       <c r="AJ147" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK147" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL147" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AM147" t="n">
         <v>30</v>
@@ -21331,40 +21341,40 @@
         <v>2.2</v>
       </c>
       <c r="H148" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I148" t="n">
         <v>2.9</v>
       </c>
       <c r="J148" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="K148" t="n">
         <v>2.22</v>
       </c>
       <c r="L148" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="M148" t="n">
         <v>1.04</v>
       </c>
       <c r="N148" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O148" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P148" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q148" t="n">
         <v>1.65</v>
       </c>
       <c r="R148" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S148" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="T148" t="n">
         <v>1.45</v>
@@ -21376,19 +21386,19 @@
         <v>3</v>
       </c>
       <c r="W148" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="X148" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y148" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z148" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA148" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB148" t="n">
         <v>22</v>
@@ -21397,28 +21407,28 @@
         <v>16</v>
       </c>
       <c r="AD148" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE148" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF148" t="n">
         <v>7.1</v>
       </c>
       <c r="AG148" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH148" t="n">
         <v>45</v>
       </c>
       <c r="AI148" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AJ148" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK148" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL148" t="n">
         <v>10.5</v>
@@ -21469,22 +21479,22 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="H149" t="n">
         <v>3.4</v>
       </c>
       <c r="I149" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="J149" t="n">
         <v>4.5</v>
       </c>
       <c r="K149" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L149" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="M149" t="n">
         <v>1.07</v>
@@ -21493,13 +21503,13 @@
         <v>6.8</v>
       </c>
       <c r="O149" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P149" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q149" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R149" t="n">
         <v>1.72</v>
@@ -21511,34 +21521,34 @@
         <v>1.27</v>
       </c>
       <c r="U149" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V149" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="W149" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="X149" t="n">
         <v>1.82</v>
       </c>
       <c r="Y149" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z149" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA149" t="n">
         <v>14</v>
       </c>
       <c r="AB149" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AC149" t="n">
         <v>40</v>
       </c>
       <c r="AD149" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE149" t="n">
         <v>6.8</v>
@@ -21556,16 +21566,16 @@
         <v>700</v>
       </c>
       <c r="AJ149" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AK149" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AL149" t="n">
         <v>8.25</v>
       </c>
       <c r="AM149" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AN149" t="n">
         <v>15.5</v>
@@ -21610,28 +21620,28 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H150" t="n">
         <v>3</v>
       </c>
       <c r="I150" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J150" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K150" t="n">
         <v>2.05</v>
       </c>
       <c r="L150" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M150" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N150" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O150" t="n">
         <v>1.36</v>
@@ -21640,16 +21650,16 @@
         <v>3</v>
       </c>
       <c r="Q150" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R150" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S150" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T150" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U150" t="n">
         <v>1.44</v>
@@ -21664,16 +21674,16 @@
         <v>1.83</v>
       </c>
       <c r="Y150" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z150" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA150" t="n">
         <v>11</v>
       </c>
       <c r="AB150" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC150" t="n">
         <v>23</v>
@@ -21694,7 +21704,7 @@
         <v>51</v>
       </c>
       <c r="AI150" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ150" t="n">
         <v>8</v>
@@ -21706,10 +21716,10 @@
         <v>10</v>
       </c>
       <c r="AM150" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN150" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO150" t="n">
         <v>34</v>
@@ -21914,10 +21924,10 @@
         <v>5</v>
       </c>
       <c r="M152" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N152" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O152" t="n">
         <v>1.44</v>
@@ -21926,10 +21936,10 @@
         <v>2.63</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R152" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S152" t="n">
         <v>4.5</v>
@@ -22003,10 +22013,10 @@
       <c r="AP152" t="inlineStr"/>
       <c r="AQ152" t="inlineStr"/>
       <c r="AR152" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -22065,10 +22075,10 @@
         <v>10</v>
       </c>
       <c r="O153" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P153" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q153" t="n">
         <v>2.1</v>
@@ -22327,22 +22337,22 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H155" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I155" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J155" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K155" t="n">
         <v>2.25</v>
       </c>
       <c r="L155" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M155" t="n">
         <v>1.04</v>
@@ -22351,22 +22361,22 @@
         <v>12</v>
       </c>
       <c r="O155" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P155" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q155" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R155" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S155" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T155" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U155" t="n">
         <v>1.36</v>
@@ -22375,25 +22385,25 @@
         <v>3</v>
       </c>
       <c r="W155" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X155" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y155" t="n">
         <v>8</v>
       </c>
       <c r="Z155" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA155" t="n">
         <v>8.5</v>
       </c>
       <c r="AB155" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC155" t="n">
         <v>15</v>
-      </c>
-      <c r="AC155" t="n">
-        <v>13</v>
       </c>
       <c r="AD155" t="n">
         <v>23</v>
@@ -22417,19 +22427,19 @@
         <v>13</v>
       </c>
       <c r="AK155" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL155" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM155" t="n">
         <v>41</v>
       </c>
       <c r="AN155" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO155" t="n">
         <v>34</v>
-      </c>
-      <c r="AO155" t="n">
-        <v>41</v>
       </c>
       <c r="AP155" t="inlineStr"/>
       <c r="AQ155" t="inlineStr"/>
@@ -22468,64 +22478,64 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H156" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I156" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J156" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K156" t="n">
         <v>2.25</v>
-      </c>
-      <c r="K156" t="n">
-        <v>2.3</v>
       </c>
       <c r="L156" t="n">
         <v>4.75</v>
       </c>
       <c r="M156" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N156" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O156" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P156" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q156" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="R156" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="S156" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="T156" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="U156" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V156" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W156" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X156" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y156" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z156" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Z156" t="n">
-        <v>9</v>
       </c>
       <c r="AA156" t="n">
         <v>8.5</v>
@@ -22540,25 +22550,25 @@
         <v>23</v>
       </c>
       <c r="AE156" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF156" t="n">
         <v>7</v>
       </c>
       <c r="AG156" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ156" t="n">
         <v>13</v>
       </c>
-      <c r="AH156" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI156" t="n">
-        <v>151</v>
-      </c>
-      <c r="AJ156" t="n">
-        <v>15</v>
-      </c>
       <c r="AK156" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL156" t="n">
         <v>15</v>
@@ -22612,19 +22622,19 @@
         <v>1.38</v>
       </c>
       <c r="H157" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="I157" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="J157" t="n">
         <v>1.85</v>
       </c>
       <c r="K157" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L157" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="M157" t="n">
         <v>1.04</v>
@@ -22636,25 +22646,25 @@
         <v>1.23</v>
       </c>
       <c r="P157" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q157" t="n">
         <v>1.7</v>
       </c>
       <c r="R157" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S157" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="T157" t="n">
         <v>1.42</v>
       </c>
       <c r="U157" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="V157" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="W157" t="n">
         <v>1.98</v>
@@ -22684,7 +22694,7 @@
         <v>8.25</v>
       </c>
       <c r="AF157" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AG157" t="n">
         <v>21</v>
@@ -22693,7 +22703,7 @@
         <v>100</v>
       </c>
       <c r="AI157" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AJ157" t="n">
         <v>19</v>
@@ -22702,10 +22712,10 @@
         <v>50</v>
       </c>
       <c r="AL157" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM157" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AN157" t="n">
         <v>90</v>
@@ -22909,22 +22919,22 @@
         <v>3.5</v>
       </c>
       <c r="M159" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N159" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O159" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P159" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q159" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R159" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S159" t="n">
         <v>3.4</v>
@@ -23032,28 +23042,28 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="H160" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I160" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="J160" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="K160" t="n">
         <v>2.25</v>
       </c>
       <c r="L160" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="M160" t="n">
         <v>1.04</v>
       </c>
       <c r="N160" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O160" t="n">
         <v>1.22</v>
@@ -23062,10 +23072,10 @@
         <v>4</v>
       </c>
       <c r="Q160" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R160" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S160" t="n">
         <v>2.75</v>
@@ -23074,37 +23084,37 @@
         <v>1.4</v>
       </c>
       <c r="U160" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V160" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W160" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X160" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y160" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z160" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA160" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB160" t="n">
         <v>41</v>
       </c>
       <c r="AC160" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD160" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE160" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF160" t="n">
         <v>7</v>
@@ -23116,19 +23126,19 @@
         <v>41</v>
       </c>
       <c r="AI160" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ160" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK160" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AL160" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM160" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN160" t="n">
         <v>15</v>
@@ -23945,82 +23955,82 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H167" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="I167" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="J167" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="K167" t="n">
         <v>2.42</v>
       </c>
       <c r="L167" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="M167" t="n">
         <v>1.03</v>
       </c>
       <c r="N167" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O167" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P167" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="Q167" t="n">
         <v>1.47</v>
       </c>
       <c r="R167" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="S167" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T167" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="U167" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="V167" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="W167" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="X167" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="Y167" t="n">
         <v>10</v>
       </c>
       <c r="Z167" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA167" t="n">
         <v>8</v>
       </c>
       <c r="AB167" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC167" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AD167" t="n">
         <v>18</v>
       </c>
       <c r="AE167" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF167" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG167" t="n">
         <v>13.5</v>
@@ -24032,19 +24042,19 @@
         <v>250</v>
       </c>
       <c r="AJ167" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AK167" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AL167" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AM167" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN167" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AO167" t="n">
         <v>37</v>
@@ -24089,19 +24099,19 @@
         <v>1.31</v>
       </c>
       <c r="H168" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I168" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J168" t="n">
         <v>1.72</v>
       </c>
       <c r="K168" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="L168" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="M168" t="n">
         <v>1.02</v>
@@ -24110,40 +24120,40 @@
         <v>10</v>
       </c>
       <c r="O168" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P168" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Q168" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R168" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="S168" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T168" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U168" t="n">
         <v>1.24</v>
       </c>
       <c r="V168" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="W168" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="X168" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="Y168" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z168" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA168" t="n">
         <v>8.75</v>
@@ -24155,25 +24165,25 @@
         <v>10</v>
       </c>
       <c r="AD168" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE168" t="n">
         <v>10</v>
       </c>
       <c r="AF168" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AG168" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH168" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI168" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AJ168" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK168" t="n">
         <v>60</v>
@@ -24185,10 +24195,10 @@
         <v>175</v>
       </c>
       <c r="AN168" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO168" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AP168" t="inlineStr"/>
       <c r="AQ168" t="inlineStr"/>
@@ -24638,22 +24648,22 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H172" t="n">
         <v>4.45</v>
       </c>
       <c r="I172" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="J172" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="K172" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="L172" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="M172" t="n">
         <v>1.03</v>
@@ -24665,13 +24675,13 @@
         <v>1.15</v>
       </c>
       <c r="P172" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="Q172" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R172" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="S172" t="n">
         <v>2.1</v>
@@ -24680,16 +24690,16 @@
         <v>1.65</v>
       </c>
       <c r="U172" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="V172" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="W172" t="n">
         <v>1.62</v>
       </c>
       <c r="X172" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="Y172" t="n">
         <v>9.75</v>
@@ -24704,7 +24714,7 @@
         <v>10.75</v>
       </c>
       <c r="AC172" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AD172" t="n">
         <v>19</v>
@@ -24716,31 +24726,31 @@
         <v>9.5</v>
       </c>
       <c r="AG172" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH172" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI172" t="n">
         <v>300</v>
       </c>
       <c r="AJ172" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK172" t="n">
         <v>45</v>
       </c>
       <c r="AL172" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AM172" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN172" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO172" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP172" t="inlineStr"/>
       <c r="AQ172" t="inlineStr"/>
@@ -24779,46 +24789,46 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="H173" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I173" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="J173" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K173" t="n">
         <v>2.18</v>
       </c>
       <c r="L173" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="M173" t="n">
         <v>1.05</v>
       </c>
       <c r="N173" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O173" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P173" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q173" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R173" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S173" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="T173" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="U173" t="n">
         <v>1.38</v>
@@ -24827,34 +24837,34 @@
         <v>2.82</v>
       </c>
       <c r="W173" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="X173" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Y173" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z173" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA173" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AB173" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC173" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD173" t="n">
         <v>29</v>
       </c>
       <c r="AE173" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AF173" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AG173" t="n">
         <v>13.5</v>
@@ -24869,19 +24879,19 @@
         <v>8.75</v>
       </c>
       <c r="AK173" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AL173" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AM173" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AN173" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO173" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP173" t="inlineStr"/>
       <c r="AQ173" t="inlineStr"/>
@@ -25070,52 +25080,52 @@
         <v>2.15</v>
       </c>
       <c r="J175" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K175" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L175" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="M175" t="n">
         <v>1.07</v>
       </c>
       <c r="N175" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="O175" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P175" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="Q175" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="R175" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S175" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T175" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="U175" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V175" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="W175" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="X175" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y175" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z175" t="n">
         <v>17.5</v>
@@ -25127,31 +25137,31 @@
         <v>45</v>
       </c>
       <c r="AC175" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD175" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE175" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AF175" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AG175" t="n">
         <v>13.5</v>
       </c>
       <c r="AH175" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI175" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AJ175" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AK175" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AL175" t="n">
         <v>8.75</v>
@@ -25160,10 +25170,10 @@
         <v>21</v>
       </c>
       <c r="AN175" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO175" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AP175" t="inlineStr"/>
       <c r="AQ175" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-08.xlsx
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
         <v>1.22</v>
@@ -722,10 +722,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
         <v>2.75</v>
@@ -734,10 +734,10 @@
         <v>1.44</v>
       </c>
       <c r="U2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W2" t="n">
         <v>1.62</v>
@@ -746,16 +746,16 @@
         <v>2.2</v>
       </c>
       <c r="Y2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA2" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>9</v>
-      </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
         <v>17</v>
@@ -764,7 +764,7 @@
         <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>6.5</v>
@@ -779,22 +779,22 @@
         <v>151</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>11</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -857,22 +857,22 @@
         <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S3" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="T3" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="U3" t="n">
         <v>1.29</v>
@@ -938,10 +938,10 @@
         <v>67</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -1035,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
         <v>12</v>
@@ -1044,7 +1044,7 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD4" t="n">
         <v>34</v>
@@ -1848,52 +1848,52 @@
         <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R10" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="S10" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="U10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y10" t="n">
         <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
         <v>10</v>
@@ -1908,31 +1908,31 @@
         <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
         <v>29</v>
       </c>
       <c r="AI10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK10" t="n">
         <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN10" t="n">
         <v>19</v>
@@ -1941,10 +1941,10 @@
         <v>21</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
@@ -2126,13 +2126,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -2141,7 +2141,7 @@
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2192,7 +2192,7 @@
         <v>51</v>
       </c>
       <c r="AC12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD12" t="n">
         <v>41</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
         <v>3</v>
@@ -2454,16 +2454,16 @@
         <v>1.4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W14" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="X14" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y14" t="n">
         <v>11</v>
@@ -2472,7 +2472,7 @@
         <v>15</v>
       </c>
       <c r="AA14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB14" t="n">
         <v>29</v>
@@ -2481,37 +2481,37 @@
         <v>21</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
         <v>6.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
         <v>41</v>
       </c>
       <c r="AI14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM14" t="n">
         <v>23</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
         <v>23</v>
@@ -2557,40 +2557,40 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="H15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O15" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R15" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="S15" t="n">
         <v>1.83</v>
@@ -2605,19 +2605,19 @@
         <v>4.33</v>
       </c>
       <c r="W15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
         <v>7</v>
       </c>
       <c r="AA15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB15" t="n">
         <v>7</v>
@@ -2629,22 +2629,22 @@
         <v>29</v>
       </c>
       <c r="AE15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
         <v>29</v>
       </c>
       <c r="AH15" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI15" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AJ15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="n">
         <v>67</v>
@@ -2653,10 +2653,10 @@
         <v>41</v>
       </c>
       <c r="AM15" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AN15" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AO15" t="n">
         <v>67</v>
@@ -2761,13 +2761,13 @@
         <v>10</v>
       </c>
       <c r="AB16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC16" t="n">
         <v>23</v>
       </c>
       <c r="AD16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE16" t="n">
         <v>7</v>
@@ -2785,13 +2785,13 @@
         <v>401</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK16" t="n">
         <v>13</v>
       </c>
       <c r="AL16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM16" t="n">
         <v>29</v>
@@ -3274,22 +3274,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J20" t="n">
         <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -3298,22 +3298,22 @@
         <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T20" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U20" t="n">
         <v>1.3</v>
@@ -3349,7 +3349,7 @@
         <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG20" t="n">
         <v>15</v>
@@ -3370,7 +3370,7 @@
         <v>8.5</v>
       </c>
       <c r="AM20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN20" t="n">
         <v>12</v>
@@ -3379,10 +3379,10 @@
         <v>21</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -3419,28 +3419,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H21" t="n">
         <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J21" t="n">
         <v>2.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O21" t="n">
         <v>1.2</v>
@@ -3449,34 +3449,34 @@
         <v>4.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R21" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W21" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X21" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA21" t="n">
         <v>8.5</v>
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD21" t="n">
         <v>21</v>
@@ -3497,37 +3497,37 @@
         <v>7.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
         <v>41</v>
       </c>
       <c r="AI21" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
         <v>21</v>
       </c>
       <c r="AL21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM21" t="n">
         <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
         <v>1.8</v>
@@ -3609,7 +3609,7 @@
         <v>1.73</v>
       </c>
       <c r="V22" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
         <v>2.5</v>
@@ -3627,16 +3627,16 @@
         <v>11</v>
       </c>
       <c r="AB22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE22" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AF22" t="n">
         <v>6</v>
@@ -3654,19 +3654,19 @@
         <v>7.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="n">
         <v>17</v>
       </c>
       <c r="AM22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN22" t="n">
         <v>41</v>
       </c>
       <c r="AO22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP22" t="n">
         <v>5.6</v>
@@ -3713,22 +3713,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K23" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
         <v>1.1</v>
@@ -3743,16 +3743,16 @@
         <v>2.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R23" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U23" t="n">
         <v>1.57</v>
@@ -3770,13 +3770,13 @@
         <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA23" t="n">
         <v>9.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
         <v>19</v>
@@ -3800,10 +3800,10 @@
         <v>101</v>
       </c>
       <c r="AJ23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
         <v>17</v>
@@ -3812,7 +3812,7 @@
         <v>51</v>
       </c>
       <c r="AN23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO23" t="n">
         <v>51</v>
@@ -3824,10 +3824,10 @@
         <v>1.22</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="24">
@@ -3862,16 +3862,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -3919,13 +3919,13 @@
         <v>5.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA24" t="n">
         <v>9</v>
       </c>
       <c r="AB24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="n">
         <v>17</v>
@@ -4116,16 +4116,16 @@
         <v>41</v>
       </c>
       <c r="AP25" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="26">
@@ -4178,10 +4178,10 @@
         <v>3.4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O26" t="n">
         <v>1.67</v>
@@ -4202,10 +4202,10 @@
         <v>1.1</v>
       </c>
       <c r="U26" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V26" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="W26" t="n">
         <v>2.5</v>
@@ -4595,10 +4595,10 @@
         <v>6.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O29" t="n">
         <v>1.8</v>
@@ -4613,10 +4613,10 @@
         <v>1.29</v>
       </c>
       <c r="S29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T29" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="U29" t="n">
         <v>1.8</v>
@@ -5280,52 +5280,52 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H34" t="n">
         <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K34" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M34" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O34" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="R34" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T34" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U34" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V34" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W34" t="n">
         <v>1.95</v>
@@ -5334,16 +5334,16 @@
         <v>1.8</v>
       </c>
       <c r="Y34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC34" t="n">
         <v>19</v>
@@ -5352,7 +5352,7 @@
         <v>34</v>
       </c>
       <c r="AE34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF34" t="n">
         <v>6.5</v>
@@ -5364,22 +5364,22 @@
         <v>51</v>
       </c>
       <c r="AI34" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN34" t="n">
         <v>34</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>29</v>
       </c>
       <c r="AO34" t="n">
         <v>41</v>
@@ -5421,52 +5421,52 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H35" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K35" t="n">
         <v>2.25</v>
       </c>
-      <c r="K35" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O35" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="R35" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S35" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T35" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U35" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V35" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W35" t="n">
         <v>1.75</v>
@@ -5478,13 +5478,13 @@
         <v>8</v>
       </c>
       <c r="Z35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA35" t="n">
         <v>8.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC35" t="n">
         <v>13</v>
@@ -5493,10 +5493,10 @@
         <v>23</v>
       </c>
       <c r="AE35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG35" t="n">
         <v>15</v>
@@ -5508,19 +5508,19 @@
         <v>201</v>
       </c>
       <c r="AJ35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL35" t="n">
         <v>15</v>
       </c>
       <c r="AM35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO35" t="n">
         <v>41</v>
@@ -5562,22 +5562,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H36" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J36" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K36" t="n">
         <v>2.6</v>
       </c>
       <c r="L36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
@@ -5592,40 +5592,40 @@
         <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="R36" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S36" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T36" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U36" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V36" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W36" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X36" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="Y36" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA36" t="n">
         <v>9</v>
       </c>
       <c r="AB36" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC36" t="n">
         <v>11</v>
@@ -5634,19 +5634,19 @@
         <v>26</v>
       </c>
       <c r="AE36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH36" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI36" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AJ36" t="n">
         <v>23</v>
@@ -5655,22 +5655,22 @@
         <v>41</v>
       </c>
       <c r="AL36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM36" t="n">
         <v>101</v>
       </c>
       <c r="AN36" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AO36" t="n">
         <v>51</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
@@ -5707,22 +5707,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="J37" t="n">
         <v>3.4</v>
       </c>
       <c r="K37" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L37" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
@@ -5731,22 +5731,22 @@
         <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R37" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S37" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U37" t="n">
         <v>1.4</v>
@@ -5755,19 +5755,19 @@
         <v>2.75</v>
       </c>
       <c r="W37" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X37" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y37" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA37" t="n">
         <v>10</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>11</v>
       </c>
       <c r="AB37" t="n">
         <v>29</v>
@@ -5779,7 +5779,7 @@
         <v>29</v>
       </c>
       <c r="AE37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF37" t="n">
         <v>6.5</v>
@@ -5797,19 +5797,19 @@
         <v>9</v>
       </c>
       <c r="AK37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
@@ -5848,22 +5848,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I38" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J38" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K38" t="n">
         <v>2.38</v>
       </c>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M38" t="n">
         <v>1.04</v>
@@ -5896,16 +5896,16 @@
         <v>3.25</v>
       </c>
       <c r="W38" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X38" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y38" t="n">
         <v>8</v>
       </c>
       <c r="Z38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA38" t="n">
         <v>8.5</v>
@@ -5914,7 +5914,7 @@
         <v>12</v>
       </c>
       <c r="AC38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD38" t="n">
         <v>23</v>
@@ -5926,7 +5926,7 @@
         <v>8</v>
       </c>
       <c r="AG38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH38" t="n">
         <v>51</v>
@@ -5938,10 +5938,10 @@
         <v>15</v>
       </c>
       <c r="AK38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM38" t="n">
         <v>51</v>
@@ -6174,10 +6174,10 @@
         <v>2.6</v>
       </c>
       <c r="S40" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T40" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U40" t="n">
         <v>1.25</v>
@@ -6283,19 +6283,19 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H41" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I41" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J41" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L41" t="n">
         <v>6</v>
@@ -6307,22 +6307,22 @@
         <v>15</v>
       </c>
       <c r="O41" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P41" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R41" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S41" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T41" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U41" t="n">
         <v>1.3</v>
@@ -6331,16 +6331,16 @@
         <v>3.4</v>
       </c>
       <c r="W41" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X41" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z41" t="n">
         <v>8</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>7.5</v>
       </c>
       <c r="AA41" t="n">
         <v>8.5</v>
@@ -6355,10 +6355,10 @@
         <v>23</v>
       </c>
       <c r="AE41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF41" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG41" t="n">
         <v>17</v>
@@ -6370,7 +6370,7 @@
         <v>201</v>
       </c>
       <c r="AJ41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK41" t="n">
         <v>34</v>
@@ -6710,7 +6710,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H44" t="n">
         <v>3.6</v>
@@ -6851,40 +6851,40 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H45" t="n">
         <v>3.1</v>
       </c>
       <c r="I45" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K45" t="n">
         <v>1.91</v>
       </c>
       <c r="L45" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M45" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O45" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P45" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R45" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S45" t="n">
         <v>5.5</v>
@@ -6893,10 +6893,10 @@
         <v>1.14</v>
       </c>
       <c r="U45" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V45" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W45" t="n">
         <v>2.2</v>
@@ -6914,10 +6914,10 @@
         <v>10</v>
       </c>
       <c r="AB45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD45" t="n">
         <v>41</v>
@@ -6938,10 +6938,10 @@
         <v>101</v>
       </c>
       <c r="AJ45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL45" t="n">
         <v>13</v>
@@ -6962,10 +6962,10 @@
         <v>1.21</v>
       </c>
       <c r="AR45" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="46">
@@ -7018,10 +7018,10 @@
         <v>8.5</v>
       </c>
       <c r="M46" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O46" t="n">
         <v>1.36</v>
@@ -7149,16 +7149,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H47" t="n">
         <v>2.88</v>
       </c>
       <c r="I47" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K47" t="n">
         <v>2</v>
@@ -7206,13 +7206,13 @@
         <v>9</v>
       </c>
       <c r="Z47" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA47" t="n">
         <v>13</v>
       </c>
       <c r="AB47" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC47" t="n">
         <v>29</v>
@@ -7239,7 +7239,7 @@
         <v>7</v>
       </c>
       <c r="AK47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL47" t="n">
         <v>10</v>
@@ -7588,13 +7588,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H50" t="n">
         <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J50" t="n">
         <v>2.3</v>
@@ -7603,7 +7603,7 @@
         <v>2.05</v>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M50" t="n">
         <v>1.08</v>
@@ -7636,13 +7636,13 @@
         <v>2.5</v>
       </c>
       <c r="W50" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X50" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y50" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z50" t="n">
         <v>6.5</v>
@@ -7651,22 +7651,22 @@
         <v>9</v>
       </c>
       <c r="AB50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD50" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE50" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF50" t="n">
         <v>7</v>
       </c>
       <c r="AG50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH50" t="n">
         <v>81</v>
@@ -7678,10 +7678,10 @@
         <v>12</v>
       </c>
       <c r="AK50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM50" t="n">
         <v>67</v>
@@ -7729,109 +7729,109 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="H51" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I51" t="n">
-        <v>5.3</v>
+        <v>4.45</v>
       </c>
       <c r="J51" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="K51" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L51" t="n">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="M51" t="n">
         <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="O51" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P51" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R51" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S51" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T51" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="U51" t="n">
         <v>1.42</v>
       </c>
       <c r="V51" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="W51" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="X51" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Y51" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="Z51" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AA51" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB51" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AD51" t="n">
         <v>32</v>
       </c>
       <c r="AE51" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AF51" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AG51" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH51" t="n">
         <v>90</v>
       </c>
       <c r="AI51" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AJ51" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AK51" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AL51" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AM51" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AN51" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AO51" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AP51" t="inlineStr"/>
       <c r="AQ51" t="inlineStr"/>
@@ -7870,13 +7870,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="H52" t="n">
         <v>6</v>
       </c>
       <c r="I52" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="J52" t="n">
         <v>8.5</v>
@@ -7894,52 +7894,52 @@
         <v>10</v>
       </c>
       <c r="O52" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P52" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="Q52" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T52" t="n">
         <v>1.57</v>
       </c>
-      <c r="R52" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="S52" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1.55</v>
-      </c>
       <c r="U52" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="V52" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W52" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="X52" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="Y52" t="n">
         <v>23</v>
       </c>
       <c r="Z52" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AA52" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB52" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AC52" t="n">
         <v>175</v>
       </c>
       <c r="AD52" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AE52" t="n">
         <v>10</v>
@@ -7948,31 +7948,31 @@
         <v>13</v>
       </c>
       <c r="AG52" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH52" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AI52" t="n">
         <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AK52" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AL52" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AM52" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AN52" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AO52" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AP52" t="inlineStr"/>
       <c r="AQ52" t="inlineStr"/>
@@ -8011,28 +8011,28 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="H53" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I53" t="n">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="J53" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K53" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L53" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="M53" t="n">
         <v>1.06</v>
       </c>
       <c r="N53" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="O53" t="n">
         <v>1.31</v>
@@ -8047,73 +8047,73 @@
         <v>1.83</v>
       </c>
       <c r="S53" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T53" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="U53" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="V53" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="W53" t="n">
         <v>1.72</v>
       </c>
       <c r="X53" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Y53" t="n">
         <v>8.75</v>
       </c>
       <c r="Z53" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA53" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AB53" t="n">
         <v>35</v>
       </c>
       <c r="AC53" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AD53" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE53" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AF53" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AG53" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH53" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI53" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AJ53" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AK53" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AL53" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AM53" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN53" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO53" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP53" t="inlineStr"/>
       <c r="AQ53" t="inlineStr"/>
@@ -8323,10 +8323,10 @@
         <v>3.75</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R55" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S55" t="n">
         <v>3</v>
@@ -8579,22 +8579,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H57" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I57" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J57" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K57" t="n">
         <v>2.3</v>
       </c>
       <c r="L57" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M57" t="n">
         <v>1.05</v>
@@ -8627,10 +8627,10 @@
         <v>3</v>
       </c>
       <c r="W57" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X57" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y57" t="n">
         <v>6.5</v>
@@ -8642,13 +8642,13 @@
         <v>8.5</v>
       </c>
       <c r="AB57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC57" t="n">
         <v>13</v>
       </c>
       <c r="AD57" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE57" t="n">
         <v>11</v>
@@ -8669,16 +8669,16 @@
         <v>15</v>
       </c>
       <c r="AK57" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL57" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM57" t="n">
         <v>67</v>
       </c>
       <c r="AN57" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO57" t="n">
         <v>51</v>
@@ -8874,55 +8874,55 @@
         <v>3.4</v>
       </c>
       <c r="J59" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K59" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="M59" t="n">
         <v>1.14</v>
       </c>
       <c r="N59" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="O59" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P59" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="R59" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S59" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T59" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="U59" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V59" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="W59" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X59" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y59" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="Z59" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AA59" t="n">
         <v>9.75</v>
@@ -8931,34 +8931,34 @@
         <v>30</v>
       </c>
       <c r="AC59" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AD59" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE59" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="AF59" t="n">
         <v>5.1</v>
       </c>
       <c r="AG59" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH59" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI59" t="n">
         <v>900</v>
       </c>
       <c r="AJ59" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AK59" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL59" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AM59" t="n">
         <v>55</v>
@@ -9288,19 +9288,19 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H62" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I62" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J62" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K62" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L62" t="n">
         <v>5</v>
@@ -9318,31 +9318,31 @@
         <v>3.4</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="R62" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S62" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T62" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U62" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V62" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W62" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X62" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y62" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z62" t="n">
         <v>8</v>
@@ -9351,16 +9351,16 @@
         <v>8.5</v>
       </c>
       <c r="AB62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC62" t="n">
         <v>15</v>
       </c>
       <c r="AD62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF62" t="n">
         <v>7</v>
@@ -9372,13 +9372,13 @@
         <v>51</v>
       </c>
       <c r="AI62" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ62" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK62" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL62" t="n">
         <v>15</v>
@@ -9856,22 +9856,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H66" t="n">
         <v>4.5</v>
       </c>
       <c r="I66" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K66" t="n">
         <v>2.4</v>
       </c>
       <c r="L66" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M66" t="n">
         <v>1.03</v>
@@ -9904,10 +9904,10 @@
         <v>3.4</v>
       </c>
       <c r="W66" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X66" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y66" t="n">
         <v>8</v>
@@ -9931,7 +9931,7 @@
         <v>15</v>
       </c>
       <c r="AF66" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG66" t="n">
         <v>17</v>
@@ -9952,7 +9952,7 @@
         <v>17</v>
       </c>
       <c r="AM66" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN66" t="n">
         <v>41</v>
@@ -10157,13 +10157,13 @@
         <v>2.38</v>
       </c>
       <c r="L68" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M68" t="n">
         <v>1.04</v>
       </c>
       <c r="N68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O68" t="n">
         <v>1.22</v>
@@ -10172,10 +10172,10 @@
         <v>4</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R68" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S68" t="n">
         <v>2.75</v>
@@ -10190,10 +10190,10 @@
         <v>3.25</v>
       </c>
       <c r="W68" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X68" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y68" t="n">
         <v>7</v>
@@ -10211,10 +10211,10 @@
         <v>12</v>
       </c>
       <c r="AD68" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF68" t="n">
         <v>8.5</v>
@@ -10525,10 +10525,10 @@
         <v>2.75</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R71" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S71" t="n">
         <v>4.33</v>
@@ -10997,16 +10997,16 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H75" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I75" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J75" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K75" t="n">
         <v>2.2</v>
@@ -11021,16 +11021,16 @@
         <v>9.5</v>
       </c>
       <c r="O75" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P75" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q75" t="n">
         <v>2.05</v>
       </c>
       <c r="R75" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S75" t="n">
         <v>3.5</v>
@@ -11060,7 +11060,7 @@
         <v>8.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC75" t="n">
         <v>15</v>
@@ -11087,13 +11087,13 @@
         <v>13</v>
       </c>
       <c r="AK75" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM75" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN75" t="n">
         <v>41</v>
@@ -12434,7 +12434,7 @@
         <v>2.88</v>
       </c>
       <c r="H85" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I85" t="n">
         <v>2.3</v>
@@ -12455,34 +12455,34 @@
         <v>11</v>
       </c>
       <c r="O85" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P85" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R85" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X85" t="n">
         <v>2</v>
-      </c>
-      <c r="S85" t="n">
-        <v>3</v>
-      </c>
-      <c r="T85" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U85" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V85" t="n">
-        <v>3</v>
-      </c>
-      <c r="W85" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X85" t="n">
-        <v>2.1</v>
       </c>
       <c r="Y85" t="n">
         <v>10</v>
@@ -12515,10 +12515,10 @@
         <v>41</v>
       </c>
       <c r="AI85" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ85" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK85" t="n">
         <v>12</v>
@@ -12721,22 +12721,22 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="H87" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I87" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="J87" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K87" t="n">
         <v>2.3</v>
       </c>
       <c r="L87" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M87" t="n">
         <v>1.04</v>
@@ -12778,7 +12778,7 @@
         <v>15</v>
       </c>
       <c r="Z87" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA87" t="n">
         <v>15</v>
@@ -12805,19 +12805,19 @@
         <v>41</v>
       </c>
       <c r="AI87" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ87" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK87" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>9</v>
       </c>
       <c r="AL87" t="n">
         <v>8.5</v>
       </c>
       <c r="AM87" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN87" t="n">
         <v>13</v>
@@ -13011,22 +13011,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="H89" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I89" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J89" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K89" t="n">
         <v>2.3</v>
       </c>
       <c r="L89" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M89" t="n">
         <v>1.03</v>
@@ -13068,25 +13068,25 @@
         <v>9</v>
       </c>
       <c r="Z89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA89" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB89" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC89" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD89" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE89" t="n">
         <v>13</v>
       </c>
       <c r="AF89" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG89" t="n">
         <v>13</v>
@@ -13101,19 +13101,19 @@
         <v>13</v>
       </c>
       <c r="AK89" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM89" t="n">
         <v>41</v>
       </c>
       <c r="AN89" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO89" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP89" t="inlineStr"/>
       <c r="AQ89" t="inlineStr"/>
@@ -13152,13 +13152,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H90" t="n">
         <v>3.25</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J90" t="n">
         <v>3</v>
@@ -13167,7 +13167,7 @@
         <v>2.2</v>
       </c>
       <c r="L90" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M90" t="n">
         <v>1.05</v>
@@ -13206,7 +13206,7 @@
         <v>2.1</v>
       </c>
       <c r="Y90" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z90" t="n">
         <v>12</v>
@@ -13215,7 +13215,7 @@
         <v>9.5</v>
       </c>
       <c r="AB90" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC90" t="n">
         <v>19</v>
@@ -13239,7 +13239,7 @@
         <v>151</v>
       </c>
       <c r="AJ90" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK90" t="n">
         <v>15</v>
@@ -13248,7 +13248,7 @@
         <v>11</v>
       </c>
       <c r="AM90" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN90" t="n">
         <v>23</v>
@@ -14161,10 +14161,10 @@
         <v>4.5</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R97" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S97" t="n">
         <v>2.5</v>
@@ -14236,10 +14236,10 @@
         <v>51</v>
       </c>
       <c r="AP97" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR97" t="inlineStr"/>
       <c r="AS97" t="inlineStr"/>
@@ -14285,10 +14285,10 @@
         <v>2.8</v>
       </c>
       <c r="J98" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K98" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L98" t="n">
         <v>3.6</v>
@@ -14297,7 +14297,7 @@
         <v>1.08</v>
       </c>
       <c r="N98" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O98" t="n">
         <v>1.4</v>
@@ -14306,10 +14306,10 @@
         <v>2.75</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R98" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S98" t="n">
         <v>4.33</v>
@@ -14318,25 +14318,25 @@
         <v>1.2</v>
       </c>
       <c r="U98" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V98" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W98" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X98" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y98" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z98" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA98" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB98" t="n">
         <v>26</v>
@@ -14345,16 +14345,16 @@
         <v>23</v>
       </c>
       <c r="AD98" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE98" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF98" t="n">
         <v>6</v>
       </c>
       <c r="AG98" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH98" t="n">
         <v>51</v>
@@ -14363,7 +14363,7 @@
         <v>351</v>
       </c>
       <c r="AJ98" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK98" t="n">
         <v>13</v>
@@ -14421,22 +14421,22 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H99" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" t="n">
         <v>2.88</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J99" t="n">
-        <v>4</v>
-      </c>
-      <c r="K99" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L99" t="n">
-        <v>3.2</v>
       </c>
       <c r="M99" t="n">
         <v>1.1</v>
@@ -14445,28 +14445,28 @@
         <v>7</v>
       </c>
       <c r="O99" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P99" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R99" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S99" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T99" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U99" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V99" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W99" t="n">
         <v>2</v>
@@ -14475,19 +14475,19 @@
         <v>1.73</v>
       </c>
       <c r="Y99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z99" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB99" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC99" t="n">
         <v>34</v>
-      </c>
-      <c r="AC99" t="n">
-        <v>29</v>
       </c>
       <c r="AD99" t="n">
         <v>41</v>
@@ -14502,7 +14502,7 @@
         <v>17</v>
       </c>
       <c r="AH99" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI99" t="n">
         <v>900</v>
@@ -14511,13 +14511,13 @@
         <v>6.5</v>
       </c>
       <c r="AK99" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL99" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM99" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN99" t="n">
         <v>21</v>
@@ -14528,10 +14528,10 @@
       <c r="AP99" t="inlineStr"/>
       <c r="AQ99" t="inlineStr"/>
       <c r="AR99" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AS99" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="100">
@@ -14566,28 +14566,28 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H100" t="n">
         <v>4.75</v>
       </c>
       <c r="I100" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J100" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K100" t="n">
         <v>2.5</v>
       </c>
       <c r="L100" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="M100" t="n">
         <v>1.03</v>
       </c>
       <c r="N100" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O100" t="n">
         <v>1.2</v>
@@ -14596,16 +14596,16 @@
         <v>4.33</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R100" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S100" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T100" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U100" t="n">
         <v>1.3</v>
@@ -14614,10 +14614,10 @@
         <v>3.4</v>
       </c>
       <c r="W100" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X100" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y100" t="n">
         <v>19</v>
@@ -14635,7 +14635,7 @@
         <v>51</v>
       </c>
       <c r="AD100" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE100" t="n">
         <v>15</v>
@@ -14647,10 +14647,10 @@
         <v>21</v>
       </c>
       <c r="AH100" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI100" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ100" t="n">
         <v>7.5</v>
@@ -14662,13 +14662,13 @@
         <v>8.5</v>
       </c>
       <c r="AM100" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN100" t="n">
         <v>11</v>
       </c>
       <c r="AO100" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP100" t="inlineStr"/>
       <c r="AQ100" t="inlineStr"/>
@@ -15283,16 +15283,16 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H105" t="n">
         <v>2.9</v>
       </c>
       <c r="I105" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J105" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K105" t="n">
         <v>1.95</v>
@@ -15349,13 +15349,13 @@
         <v>26</v>
       </c>
       <c r="AC105" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD105" t="n">
         <v>41</v>
       </c>
       <c r="AE105" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF105" t="n">
         <v>5.5</v>
@@ -15364,7 +15364,7 @@
         <v>17</v>
       </c>
       <c r="AH105" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI105" t="n">
         <v>451</v>
@@ -15390,10 +15390,10 @@
       <c r="AP105" t="inlineStr"/>
       <c r="AQ105" t="inlineStr"/>
       <c r="AR105" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -15712,10 +15712,10 @@
         <v>3.8</v>
       </c>
       <c r="I108" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J108" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K108" t="n">
         <v>2.3</v>
@@ -15736,10 +15736,10 @@
         <v>4.33</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R108" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S108" t="n">
         <v>2.63</v>
@@ -15772,7 +15772,7 @@
         <v>34</v>
       </c>
       <c r="AC108" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD108" t="n">
         <v>26</v>
@@ -15805,10 +15805,10 @@
         <v>21</v>
       </c>
       <c r="AN108" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO108" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP108" t="n">
         <v>2.05</v>
@@ -15881,10 +15881,10 @@
         <v>3.75</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R109" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S109" t="n">
         <v>3.25</v>
@@ -16528,22 +16528,22 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H114" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I114" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="J114" t="n">
         <v>1.7</v>
       </c>
       <c r="K114" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="L114" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
@@ -16554,10 +16554,10 @@
         <v>5</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R114" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="S114" t="n">
         <v>2.1</v>
@@ -16568,7 +16568,7 @@
       <c r="U114" t="inlineStr"/>
       <c r="V114" t="inlineStr"/>
       <c r="W114" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="X114" t="n">
         <v>1.8</v>
@@ -16577,13 +16577,13 @@
         <v>8.5</v>
       </c>
       <c r="Z114" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AA114" t="n">
         <v>8.75</v>
       </c>
       <c r="AB114" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AC114" t="n">
         <v>10.25</v>
@@ -16595,7 +16595,7 @@
         <v>16</v>
       </c>
       <c r="AF114" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG114" t="n">
         <v>20</v>
@@ -16610,16 +16610,16 @@
         <v>30</v>
       </c>
       <c r="AK114" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL114" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM114" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AN114" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AO114" t="n">
         <v>75</v>
@@ -16806,19 +16806,19 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H116" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I116" t="n">
         <v>6</v>
       </c>
       <c r="J116" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K116" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L116" t="n">
         <v>6.5</v>
@@ -16836,22 +16836,22 @@
         <v>3.4</v>
       </c>
       <c r="Q116" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R116" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S116" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T116" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U116" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V116" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W116" t="n">
         <v>2.1</v>
@@ -16875,10 +16875,10 @@
         <v>13</v>
       </c>
       <c r="AD116" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE116" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF116" t="n">
         <v>8</v>
@@ -16899,7 +16899,7 @@
         <v>34</v>
       </c>
       <c r="AL116" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM116" t="n">
         <v>67</v>
@@ -16947,22 +16947,22 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H117" t="n">
         <v>3.1</v>
       </c>
       <c r="I117" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J117" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K117" t="n">
         <v>2</v>
       </c>
       <c r="L117" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M117" t="n">
         <v>1.08</v>
@@ -16995,22 +16995,22 @@
         <v>2.38</v>
       </c>
       <c r="W117" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X117" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Y117" t="n">
         <v>6</v>
       </c>
       <c r="Z117" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA117" t="n">
         <v>9.5</v>
       </c>
       <c r="AB117" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC117" t="n">
         <v>19</v>
@@ -17034,7 +17034,7 @@
         <v>800</v>
       </c>
       <c r="AJ117" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK117" t="n">
         <v>17</v>
@@ -17092,22 +17092,22 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H118" t="n">
         <v>3.3</v>
       </c>
       <c r="I118" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="J118" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K118" t="n">
         <v>2.3</v>
       </c>
       <c r="L118" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M118" t="n">
         <v>1.03</v>
@@ -17146,7 +17146,7 @@
         <v>2.38</v>
       </c>
       <c r="Y118" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z118" t="n">
         <v>15</v>
@@ -17155,7 +17155,7 @@
         <v>10</v>
       </c>
       <c r="AB118" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC118" t="n">
         <v>19</v>
@@ -17185,13 +17185,13 @@
         <v>15</v>
       </c>
       <c r="AL118" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM118" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN118" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO118" t="n">
         <v>23</v>
@@ -17237,28 +17237,28 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H119" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I119" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J119" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K119" t="n">
         <v>2.75</v>
       </c>
       <c r="L119" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M119" t="n">
         <v>1.03</v>
       </c>
       <c r="N119" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O119" t="n">
         <v>1.17</v>
@@ -17285,19 +17285,19 @@
         <v>3.5</v>
       </c>
       <c r="W119" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X119" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y119" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z119" t="n">
         <v>6</v>
       </c>
       <c r="AA119" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB119" t="n">
         <v>6.5</v>
@@ -17312,7 +17312,7 @@
         <v>15</v>
       </c>
       <c r="AF119" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG119" t="n">
         <v>34</v>
@@ -17333,7 +17333,7 @@
         <v>34</v>
       </c>
       <c r="AM119" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AN119" t="n">
         <v>81</v>
@@ -17342,16 +17342,16 @@
         <v>81</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AR119" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AS119" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="120">
@@ -17395,7 +17395,7 @@
         <v>8</v>
       </c>
       <c r="J120" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K120" t="n">
         <v>2.5</v>
@@ -17410,16 +17410,16 @@
         <v>15</v>
       </c>
       <c r="O120" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P120" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R120" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S120" t="n">
         <v>2.63</v>
@@ -17440,7 +17440,7 @@
         <v>1.67</v>
       </c>
       <c r="Y120" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z120" t="n">
         <v>6.5</v>
@@ -17449,7 +17449,7 @@
         <v>9</v>
       </c>
       <c r="AB120" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC120" t="n">
         <v>12</v>
@@ -17479,7 +17479,7 @@
         <v>41</v>
       </c>
       <c r="AL120" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM120" t="n">
         <v>101</v>
@@ -17491,16 +17491,16 @@
         <v>51</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.21</v>
+        <v>2.14</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="AR120" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AS120" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="121">
@@ -17825,88 +17825,88 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H123" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I123" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J123" t="n">
         <v>2.1</v>
       </c>
       <c r="K123" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L123" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N123" t="n">
+        <v>11</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P123" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>2</v>
+      </c>
+      <c r="R123" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S123" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U123" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V123" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W123" t="n">
         <v>2.1</v>
       </c>
-      <c r="L123" t="n">
-        <v>7</v>
-      </c>
-      <c r="M123" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N123" t="n">
-        <v>10</v>
-      </c>
-      <c r="O123" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P123" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q123" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R123" t="n">
+      <c r="X123" t="n">
         <v>1.67</v>
       </c>
-      <c r="S123" t="n">
-        <v>4</v>
-      </c>
-      <c r="T123" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U123" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V123" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W123" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X123" t="n">
-        <v>1.62</v>
-      </c>
       <c r="Y123" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z123" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA123" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB123" t="n">
         <v>10</v>
       </c>
       <c r="AC123" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD123" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE123" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF123" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG123" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH123" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI123" t="n">
         <v>501</v>
@@ -17921,7 +17921,7 @@
         <v>21</v>
       </c>
       <c r="AM123" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN123" t="n">
         <v>51</v>
@@ -18141,10 +18141,10 @@
         <v>2.1</v>
       </c>
       <c r="Q125" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R125" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S125" t="n">
         <v>7</v>
@@ -18156,7 +18156,7 @@
         <v>1.73</v>
       </c>
       <c r="V125" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="W125" t="n">
         <v>2.5</v>
@@ -18274,10 +18274,10 @@
         <v>11</v>
       </c>
       <c r="M126" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N126" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O126" t="n">
         <v>1.17</v>
@@ -18286,16 +18286,16 @@
         <v>5</v>
       </c>
       <c r="Q126" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S126" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T126" t="n">
         <v>1.53</v>
-      </c>
-      <c r="R126" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S126" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T126" t="n">
-        <v>1.57</v>
       </c>
       <c r="U126" t="n">
         <v>1.29</v>
@@ -18304,10 +18304,10 @@
         <v>3.5</v>
       </c>
       <c r="W126" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X126" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Y126" t="n">
         <v>7.5</v>
@@ -18316,7 +18316,7 @@
         <v>6</v>
       </c>
       <c r="AA126" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB126" t="n">
         <v>7</v>
@@ -18325,10 +18325,10 @@
         <v>11</v>
       </c>
       <c r="AD126" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE126" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF126" t="n">
         <v>13</v>
@@ -18358,13 +18358,13 @@
         <v>81</v>
       </c>
       <c r="AO126" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AR126" t="inlineStr"/>
       <c r="AS126" t="inlineStr"/>
@@ -18452,7 +18452,7 @@
         <v>2</v>
       </c>
       <c r="X127" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Y127" t="n">
         <v>7.5</v>
@@ -18846,10 +18846,10 @@
         <v>5</v>
       </c>
       <c r="M130" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N130" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O130" t="n">
         <v>1.36</v>
@@ -18879,7 +18879,7 @@
         <v>2</v>
       </c>
       <c r="X130" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Y130" t="n">
         <v>6</v>
@@ -18891,10 +18891,10 @@
         <v>9</v>
       </c>
       <c r="AB130" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC130" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD130" t="n">
         <v>29</v>
@@ -18915,7 +18915,7 @@
         <v>351</v>
       </c>
       <c r="AJ130" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK130" t="n">
         <v>21</v>
@@ -18969,28 +18969,28 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H131" t="n">
         <v>3.2</v>
       </c>
       <c r="I131" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J131" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K131" t="n">
         <v>2.1</v>
       </c>
       <c r="L131" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M131" t="n">
         <v>1.06</v>
       </c>
       <c r="N131" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O131" t="n">
         <v>1.33</v>
@@ -19005,10 +19005,10 @@
         <v>1.75</v>
       </c>
       <c r="S131" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T131" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U131" t="n">
         <v>1.44</v>
@@ -19020,16 +19020,16 @@
         <v>1.8</v>
       </c>
       <c r="X131" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y131" t="n">
         <v>8</v>
       </c>
       <c r="Z131" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA131" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB131" t="n">
         <v>23</v>
@@ -19056,10 +19056,10 @@
         <v>251</v>
       </c>
       <c r="AJ131" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK131" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL131" t="n">
         <v>11</v>
@@ -19251,109 +19251,109 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H133" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I133" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="J133" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K133" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L133" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="M133" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N133" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="O133" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P133" t="n">
-        <v>4.05</v>
+        <v>4.45</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="R133" t="n">
-        <v>2.18</v>
+        <v>2.37</v>
       </c>
       <c r="S133" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="T133" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="U133" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="V133" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="W133" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="X133" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="Y133" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="Z133" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AA133" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AB133" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AC133" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD133" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE133" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF133" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG133" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH133" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI133" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AJ133" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK133" t="n">
         <v>10.75</v>
       </c>
       <c r="AL133" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AM133" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AN133" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO133" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AP133" t="inlineStr"/>
       <c r="AQ133" t="inlineStr"/>
@@ -19392,22 +19392,22 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="H134" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="I134" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J134" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K134" t="n">
         <v>2.52</v>
       </c>
       <c r="L134" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="M134" t="n">
         <v>1.03</v>
@@ -19437,7 +19437,7 @@
         <v>1.25</v>
       </c>
       <c r="V134" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="W134" t="n">
         <v>1.52</v>
@@ -19446,19 +19446,19 @@
         <v>2.37</v>
       </c>
       <c r="Y134" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z134" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA134" t="n">
         <v>15</v>
       </c>
       <c r="AB134" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AC134" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD134" t="n">
         <v>32</v>
@@ -19467,10 +19467,10 @@
         <v>9.75</v>
       </c>
       <c r="AF134" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AG134" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH134" t="n">
         <v>40</v>
@@ -19479,22 +19479,22 @@
         <v>200</v>
       </c>
       <c r="AJ134" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK134" t="n">
         <v>10</v>
       </c>
       <c r="AL134" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AM134" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AN134" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AO134" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AP134" t="inlineStr"/>
       <c r="AQ134" t="inlineStr"/>
@@ -19698,22 +19698,22 @@
         <v>8.5</v>
       </c>
       <c r="O136" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P136" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R136" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S136" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T136" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U136" t="n">
         <v>1.4</v>
@@ -19815,16 +19815,16 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H137" t="n">
         <v>6.5</v>
       </c>
       <c r="I137" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="J137" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K137" t="n">
         <v>2.75</v>
@@ -19863,10 +19863,10 @@
         <v>4</v>
       </c>
       <c r="W137" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="X137" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Y137" t="n">
         <v>26</v>
@@ -19878,7 +19878,7 @@
         <v>23</v>
       </c>
       <c r="AB137" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AC137" t="n">
         <v>51</v>
@@ -19905,19 +19905,19 @@
         <v>11</v>
       </c>
       <c r="AK137" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM137" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AL137" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AM137" t="n">
-        <v>9</v>
       </c>
       <c r="AN137" t="n">
         <v>11</v>
       </c>
       <c r="AO137" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP137" t="inlineStr"/>
       <c r="AQ137" t="inlineStr"/>
@@ -20379,37 +20379,37 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="H141" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I141" t="n">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="J141" t="n">
-        <v>2.77</v>
+        <v>2.5</v>
       </c>
       <c r="K141" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L141" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N141" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O141" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P141" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q141" t="n">
         <v>2</v>
-      </c>
-      <c r="L141" t="n">
-        <v>4</v>
-      </c>
-      <c r="M141" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N141" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="O141" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P141" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="Q141" t="n">
-        <v>2.02</v>
       </c>
       <c r="R141" t="n">
         <v>1.72</v>
@@ -20418,70 +20418,70 @@
         <v>3.4</v>
       </c>
       <c r="T141" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="U141" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="V141" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="W141" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="X141" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y141" t="n">
-        <v>7.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z141" t="n">
-        <v>10.25</v>
+        <v>8.25</v>
       </c>
       <c r="AA141" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB141" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AC141" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD141" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE141" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AF141" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AG141" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH141" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI141" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AJ141" t="n">
-        <v>9</v>
+        <v>10.75</v>
       </c>
       <c r="AK141" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AL141" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="AM141" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO141" t="n">
         <v>45</v>
-      </c>
-      <c r="AN141" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO141" t="n">
-        <v>40</v>
       </c>
       <c r="AP141" t="inlineStr"/>
       <c r="AQ141" t="inlineStr"/>
@@ -21084,22 +21084,22 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H146" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I146" t="n">
         <v>5.9</v>
       </c>
       <c r="J146" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="K146" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L146" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M146" t="n">
         <v>1.05</v>
@@ -21111,7 +21111,7 @@
         <v>1.25</v>
       </c>
       <c r="P146" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q146" t="n">
         <v>1.75</v>
@@ -21120,25 +21120,25 @@
         <v>2</v>
       </c>
       <c r="S146" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T146" t="n">
         <v>1.4</v>
       </c>
       <c r="U146" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="V146" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="W146" t="n">
         <v>1.82</v>
       </c>
       <c r="X146" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Y146" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Z146" t="n">
         <v>7.7</v>
@@ -21159,7 +21159,7 @@
         <v>8.5</v>
       </c>
       <c r="AF146" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AG146" t="n">
         <v>17.5</v>
@@ -21177,7 +21177,7 @@
         <v>40</v>
       </c>
       <c r="AL146" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AM146" t="n">
         <v>150</v>
@@ -21507,106 +21507,106 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.3</v>
+        <v>4.85</v>
       </c>
       <c r="H149" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I149" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="J149" t="n">
-        <v>4.75</v>
+        <v>5.1</v>
       </c>
       <c r="K149" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L149" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="M149" t="n">
         <v>1.08</v>
       </c>
       <c r="N149" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O149" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P149" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="Q149" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R149" t="n">
         <v>1.65</v>
       </c>
       <c r="S149" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="T149" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="U149" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="V149" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="W149" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X149" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Y149" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="Z149" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA149" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AB149" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AC149" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD149" t="n">
         <v>60</v>
       </c>
       <c r="AE149" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AF149" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AG149" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH149" t="n">
         <v>100</v>
       </c>
       <c r="AI149" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AJ149" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AK149" t="n">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="AL149" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AM149" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AN149" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO149" t="n">
         <v>32</v>
@@ -21934,22 +21934,22 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H152" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I152" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J152" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K152" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L152" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M152" t="n">
         <v>1.1</v>
@@ -21976,10 +21976,10 @@
         <v>1.17</v>
       </c>
       <c r="U152" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V152" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W152" t="n">
         <v>2.2</v>
@@ -22006,7 +22006,7 @@
         <v>41</v>
       </c>
       <c r="AE152" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF152" t="n">
         <v>6.5</v>
@@ -22021,7 +22021,7 @@
         <v>101</v>
       </c>
       <c r="AJ152" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK152" t="n">
         <v>21</v>
@@ -22079,13 +22079,13 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H153" t="n">
         <v>3.1</v>
       </c>
       <c r="I153" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J153" t="n">
         <v>3.6</v>
@@ -22094,7 +22094,7 @@
         <v>2.05</v>
       </c>
       <c r="L153" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M153" t="n">
         <v>1.07</v>
@@ -22127,16 +22127,16 @@
         <v>2.63</v>
       </c>
       <c r="W153" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X153" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y153" t="n">
         <v>9</v>
       </c>
       <c r="Z153" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA153" t="n">
         <v>11</v>
@@ -22145,7 +22145,7 @@
         <v>29</v>
       </c>
       <c r="AC153" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD153" t="n">
         <v>34</v>
@@ -22169,7 +22169,7 @@
         <v>8</v>
       </c>
       <c r="AK153" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL153" t="n">
         <v>10</v>
@@ -22181,7 +22181,7 @@
         <v>21</v>
       </c>
       <c r="AO153" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP153" t="inlineStr"/>
       <c r="AQ153" t="inlineStr"/>
@@ -22220,46 +22220,46 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H154" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I154" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J154" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K154" t="n">
         <v>2.5</v>
       </c>
       <c r="L154" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M154" t="n">
         <v>1.03</v>
       </c>
       <c r="N154" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O154" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P154" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q154" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="R154" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="S154" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T154" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U154" t="n">
         <v>1.3</v>
@@ -22295,7 +22295,7 @@
         <v>15</v>
       </c>
       <c r="AF154" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG154" t="n">
         <v>21</v>
@@ -22307,7 +22307,7 @@
         <v>301</v>
       </c>
       <c r="AJ154" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK154" t="n">
         <v>41</v>
@@ -22325,10 +22325,10 @@
         <v>51</v>
       </c>
       <c r="AP154" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR154" t="inlineStr"/>
       <c r="AS154" t="inlineStr"/>
@@ -22365,13 +22365,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H155" t="n">
         <v>3.5</v>
       </c>
       <c r="I155" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J155" t="n">
         <v>2.5</v>
@@ -22380,7 +22380,7 @@
         <v>2.2</v>
       </c>
       <c r="L155" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M155" t="n">
         <v>1.05</v>
@@ -22395,22 +22395,22 @@
         <v>3.75</v>
       </c>
       <c r="Q155" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R155" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S155" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T155" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U155" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V155" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W155" t="n">
         <v>1.73</v>
@@ -22419,55 +22419,55 @@
         <v>2</v>
       </c>
       <c r="Y155" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z155" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA155" t="n">
         <v>8.5</v>
       </c>
       <c r="AB155" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC155" t="n">
         <v>15</v>
       </c>
       <c r="AD155" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE155" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF155" t="n">
         <v>6.5</v>
       </c>
       <c r="AG155" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH155" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI155" t="n">
         <v>201</v>
       </c>
       <c r="AJ155" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK155" t="n">
         <v>21</v>
       </c>
       <c r="AL155" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM155" t="n">
         <v>41</v>
       </c>
       <c r="AN155" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO155" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP155" t="inlineStr"/>
       <c r="AQ155" t="inlineStr"/>
@@ -22506,22 +22506,22 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H156" t="n">
         <v>3.7</v>
       </c>
       <c r="I156" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J156" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K156" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L156" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M156" t="n">
         <v>1.05</v>
@@ -22536,10 +22536,10 @@
         <v>3.75</v>
       </c>
       <c r="Q156" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R156" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S156" t="n">
         <v>3.25</v>
@@ -22548,34 +22548,34 @@
         <v>1.33</v>
       </c>
       <c r="U156" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V156" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W156" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X156" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y156" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z156" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA156" t="n">
         <v>8.5</v>
       </c>
       <c r="AB156" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC156" t="n">
         <v>13</v>
       </c>
       <c r="AD156" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE156" t="n">
         <v>11</v>
@@ -22590,7 +22590,7 @@
         <v>51</v>
       </c>
       <c r="AI156" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ156" t="n">
         <v>13</v>
@@ -22605,7 +22605,7 @@
         <v>51</v>
       </c>
       <c r="AN156" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO156" t="n">
         <v>41</v>
@@ -23070,22 +23070,22 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H160" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I160" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="J160" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K160" t="n">
         <v>2.25</v>
       </c>
       <c r="L160" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M160" t="n">
         <v>1.04</v>
@@ -23094,16 +23094,16 @@
         <v>13</v>
       </c>
       <c r="O160" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P160" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q160" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R160" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S160" t="n">
         <v>3</v>
@@ -23118,16 +23118,16 @@
         <v>3</v>
       </c>
       <c r="W160" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X160" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y160" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z160" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA160" t="n">
         <v>13</v>
@@ -23148,7 +23148,7 @@
         <v>7</v>
       </c>
       <c r="AG160" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH160" t="n">
         <v>41</v>
@@ -23160,13 +23160,13 @@
         <v>8</v>
       </c>
       <c r="AK160" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL160" t="n">
         <v>8.5</v>
       </c>
       <c r="AM160" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN160" t="n">
         <v>15</v>
@@ -23705,16 +23705,16 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H165" t="n">
         <v>3.3</v>
       </c>
       <c r="I165" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J165" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K165" t="n">
         <v>2</v>
@@ -23726,7 +23726,7 @@
         <v>1.08</v>
       </c>
       <c r="N165" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O165" t="n">
         <v>1.44</v>
@@ -23762,7 +23762,7 @@
         <v>5.5</v>
       </c>
       <c r="Z165" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA165" t="n">
         <v>9</v>
@@ -23780,7 +23780,7 @@
         <v>7.5</v>
       </c>
       <c r="AF165" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG165" t="n">
         <v>21</v>
@@ -23792,7 +23792,7 @@
         <v>351</v>
       </c>
       <c r="AJ165" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK165" t="n">
         <v>23</v>
@@ -23812,10 +23812,10 @@
       <c r="AP165" t="inlineStr"/>
       <c r="AQ165" t="inlineStr"/>
       <c r="AR165" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="166">
@@ -23987,22 +23987,22 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="H167" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I167" t="n">
-        <v>5.7</v>
+        <v>7.3</v>
       </c>
       <c r="J167" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="K167" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="L167" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="M167" t="n">
         <v>1.03</v>
@@ -24011,85 +24011,85 @@
         <v>9.25</v>
       </c>
       <c r="O167" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P167" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="Q167" t="n">
         <v>1.47</v>
       </c>
       <c r="R167" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="S167" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T167" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="U167" t="n">
         <v>1.28</v>
       </c>
       <c r="V167" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="W167" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="X167" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="Y167" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z167" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AA167" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB167" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="AC167" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AD167" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AE167" t="n">
         <v>9.25</v>
       </c>
       <c r="AF167" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AG167" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AH167" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AI167" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AJ167" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK167" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AL167" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AM167" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AN167" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AO167" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AP167" t="inlineStr"/>
       <c r="AQ167" t="inlineStr"/>
@@ -24131,10 +24131,10 @@
         <v>1.31</v>
       </c>
       <c r="H168" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I168" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="J168" t="n">
         <v>1.72</v>
@@ -24143,7 +24143,7 @@
         <v>2.7</v>
       </c>
       <c r="L168" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M168" t="n">
         <v>1.02</v>
@@ -24152,22 +24152,22 @@
         <v>10</v>
       </c>
       <c r="O168" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P168" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Q168" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R168" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="S168" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T168" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U168" t="n">
         <v>1.24</v>
@@ -24176,16 +24176,16 @@
         <v>3.65</v>
       </c>
       <c r="W168" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="X168" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="Y168" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z168" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA168" t="n">
         <v>8.75</v>
@@ -24197,7 +24197,7 @@
         <v>10</v>
       </c>
       <c r="AD168" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE168" t="n">
         <v>10</v>
@@ -24206,28 +24206,28 @@
         <v>11.25</v>
       </c>
       <c r="AG168" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH168" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI168" t="n">
         <v>350</v>
       </c>
       <c r="AJ168" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK168" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL168" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM168" t="n">
         <v>175</v>
       </c>
       <c r="AN168" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO168" t="n">
         <v>55</v>
@@ -24406,57 +24406,57 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H170" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I170" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J170" t="n">
         <v>2.25</v>
       </c>
       <c r="K170" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L170" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P170" t="n">
-        <v>2.57</v>
+        <v>2.45</v>
       </c>
       <c r="Q170" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R170" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S170" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T170" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U170" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V170" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W170" t="n">
         <v>2.12</v>
       </c>
-      <c r="R170" t="n">
+      <c r="X170" t="n">
         <v>1.57</v>
       </c>
-      <c r="S170" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T170" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="U170" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V170" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W170" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="X170" t="n">
-        <v>1.62</v>
-      </c>
       <c r="Y170" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Z170" t="n">
         <v>6.8</v>
@@ -24468,43 +24468,43 @@
         <v>12.5</v>
       </c>
       <c r="AC170" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD170" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE170" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="AF170" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AG170" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AH170" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI170" t="n">
         <v>900</v>
       </c>
       <c r="AJ170" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK170" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL170" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AM170" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN170" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AO170" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AP170" t="inlineStr"/>
       <c r="AQ170" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-08.xlsx
@@ -833,19 +833,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
         <v>1.67</v>
       </c>
       <c r="K3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L3" t="n">
         <v>9.5</v>
@@ -854,7 +854,7 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
@@ -863,10 +863,10 @@
         <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="S3" t="n">
         <v>2.38</v>
@@ -887,13 +887,13 @@
         <v>1.67</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z3" t="n">
         <v>6</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB3" t="n">
         <v>7.5</v>
@@ -908,7 +908,7 @@
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
         <v>26</v>
@@ -926,22 +926,22 @@
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AO3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -978,22 +978,22 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.5</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.6</v>
-      </c>
       <c r="I4" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1002,52 +1002,52 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="n">
         <v>11</v>
       </c>
-      <c r="Z4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>12</v>
-      </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD4" t="n">
         <v>29</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>34</v>
       </c>
       <c r="AE4" t="n">
         <v>11</v>
@@ -1056,7 +1056,7 @@
         <v>6.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
@@ -1065,19 +1065,19 @@
         <v>201</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN4" t="n">
         <v>19</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>17</v>
       </c>
       <c r="AO4" t="n">
         <v>26</v>
@@ -1872,10 +1872,10 @@
         <v>2.63</v>
       </c>
       <c r="S10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U10" t="n">
         <v>1.25</v>
@@ -2267,13 +2267,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H13" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I13" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
         <v>3.2</v>
@@ -2282,55 +2282,55 @@
         <v>1.91</v>
       </c>
       <c r="L13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.57</v>
       </c>
-      <c r="P13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W13" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="X13" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA13" t="n">
         <v>10</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
         <v>23</v>
@@ -2339,16 +2339,16 @@
         <v>41</v>
       </c>
       <c r="AE13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF13" t="n">
         <v>5.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI13" t="n">
         <v>501</v>
@@ -2363,21 +2363,21 @@
         <v>13</v>
       </c>
       <c r="AM13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="n">
         <v>34</v>
       </c>
       <c r="AO13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="14">
@@ -2698,22 +2698,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
         <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
         <v>1.95</v>
       </c>
       <c r="L16" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
@@ -2728,16 +2728,16 @@
         <v>2.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U16" t="n">
         <v>1.53</v>
@@ -2752,31 +2752,31 @@
         <v>1.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA16" t="n">
         <v>11</v>
       </c>
-      <c r="AA16" t="n">
-        <v>10</v>
-      </c>
       <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
         <v>26</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>23</v>
       </c>
       <c r="AD16" t="n">
         <v>41</v>
       </c>
       <c r="AE16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF16" t="n">
         <v>6</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
         <v>51</v>
@@ -2785,22 +2785,22 @@
         <v>401</v>
       </c>
       <c r="AJ16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
@@ -2843,16 +2843,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H17" t="n">
         <v>4.75</v>
       </c>
       <c r="I17" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K17" t="n">
         <v>2.5</v>
@@ -2885,10 +2885,10 @@
         <v>1.5</v>
       </c>
       <c r="U17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W17" t="n">
         <v>1.8</v>
@@ -2897,7 +2897,7 @@
         <v>1.95</v>
       </c>
       <c r="Y17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z17" t="n">
         <v>7.5</v>
@@ -2915,28 +2915,28 @@
         <v>23</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>9.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>51</v>
       </c>
       <c r="AI17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK17" t="n">
         <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
         <v>67</v>
@@ -2948,10 +2948,10 @@
         <v>41</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -3304,10 +3304,10 @@
         <v>4.33</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S20" t="n">
         <v>2.75</v>
@@ -3524,10 +3524,10 @@
         <v>29</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3564,22 +3564,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="H22" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
         <v>1.8</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M22" t="n">
         <v>1.14</v>
@@ -3609,7 +3609,7 @@
         <v>1.73</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="W22" t="n">
         <v>2.5</v>
@@ -3621,16 +3621,16 @@
         <v>5</v>
       </c>
       <c r="Z22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA22" t="n">
         <v>11</v>
       </c>
       <c r="AB22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD22" t="n">
         <v>41</v>
@@ -3654,13 +3654,13 @@
         <v>7.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN22" t="n">
         <v>41</v>
@@ -3713,22 +3713,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H23" t="n">
         <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J23" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K23" t="n">
         <v>1.95</v>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.1</v>
@@ -3776,7 +3776,7 @@
         <v>9.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
         <v>19</v>
@@ -3812,7 +3812,7 @@
         <v>51</v>
       </c>
       <c r="AN23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO23" t="n">
         <v>51</v>
@@ -3821,13 +3821,13 @@
         <v>4.3</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="24">
@@ -3880,34 +3880,34 @@
         <v>5.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S24" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T24" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V24" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W24" t="n">
         <v>2.2</v>
@@ -3934,7 +3934,7 @@
         <v>34</v>
       </c>
       <c r="AE24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF24" t="n">
         <v>7</v>
@@ -3949,7 +3949,7 @@
         <v>501</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK24" t="n">
         <v>21</v>
@@ -3967,16 +3967,16 @@
         <v>51</v>
       </c>
       <c r="AP24" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="25">
@@ -4160,34 +4160,34 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H26" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="I26" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="J26" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
         <v>1.8</v>
       </c>
       <c r="L26" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M26" t="n">
         <v>1.17</v>
       </c>
       <c r="N26" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O26" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P26" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q26" t="n">
         <v>3.4</v>
@@ -4214,28 +4214,28 @@
         <v>1.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD26" t="n">
         <v>51</v>
       </c>
       <c r="AE26" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG26" t="n">
         <v>21</v>
@@ -4245,19 +4245,19 @@
       </c>
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK26" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM26" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN26" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AO26" t="n">
         <v>51</v>
@@ -4438,16 +4438,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H28" t="n">
         <v>2.75</v>
       </c>
       <c r="I28" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J28" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K28" t="n">
         <v>1.83</v>
@@ -4462,10 +4462,10 @@
         <v>5.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q28" t="n">
         <v>3.1</v>
@@ -4495,10 +4495,10 @@
         <v>6</v>
       </c>
       <c r="Z28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA28" t="n">
         <v>11</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>12</v>
       </c>
       <c r="AB28" t="n">
         <v>26</v>
@@ -4601,10 +4601,10 @@
         <v>4.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P29" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Q29" t="n">
         <v>3.6</v>
@@ -4619,10 +4619,10 @@
         <v>1.07</v>
       </c>
       <c r="U29" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W29" t="n">
         <v>3</v>
@@ -4716,16 +4716,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K30" t="n">
         <v>1.83</v>
@@ -4734,10 +4734,10 @@
         <v>6</v>
       </c>
       <c r="M30" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.67</v>
@@ -4758,10 +4758,10 @@
         <v>1.1</v>
       </c>
       <c r="U30" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V30" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
         <v>2.75</v>
@@ -4782,7 +4782,7 @@
         <v>15</v>
       </c>
       <c r="AC30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD30" t="n">
         <v>51</v>
@@ -5848,22 +5848,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="H38" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I38" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="K38" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L38" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
         <v>1.04</v>
@@ -5872,28 +5872,28 @@
         <v>13</v>
       </c>
       <c r="O38" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="R38" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="S38" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T38" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U38" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V38" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W38" t="n">
         <v>1.8</v>
@@ -5902,7 +5902,7 @@
         <v>1.95</v>
       </c>
       <c r="Y38" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z38" t="n">
         <v>8</v>
@@ -5911,43 +5911,43 @@
         <v>8.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD38" t="n">
         <v>23</v>
       </c>
       <c r="AE38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF38" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH38" t="n">
         <v>51</v>
       </c>
       <c r="AI38" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL38" t="n">
         <v>15</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>17</v>
       </c>
       <c r="AM38" t="n">
         <v>51</v>
       </c>
       <c r="AN38" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO38" t="n">
         <v>41</v>
@@ -6138,40 +6138,40 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H40" t="n">
         <v>4.75</v>
       </c>
       <c r="I40" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J40" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
         <v>2.6</v>
       </c>
       <c r="L40" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
         <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O40" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P40" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R40" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S40" t="n">
         <v>2.1</v>
@@ -6186,31 +6186,31 @@
         <v>3.75</v>
       </c>
       <c r="W40" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X40" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
       </c>
       <c r="Z40" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA40" t="n">
         <v>8.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC40" t="n">
         <v>11</v>
       </c>
       <c r="AD40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE40" t="n">
         <v>21</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>19</v>
       </c>
       <c r="AF40" t="n">
         <v>9.5</v>
@@ -6222,10 +6222,10 @@
         <v>41</v>
       </c>
       <c r="AI40" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK40" t="n">
         <v>34</v>
@@ -6237,7 +6237,7 @@
         <v>51</v>
       </c>
       <c r="AN40" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO40" t="n">
         <v>34</v>
@@ -6283,46 +6283,46 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H41" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I41" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K41" t="n">
         <v>2.5</v>
       </c>
       <c r="L41" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O41" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P41" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R41" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S41" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T41" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U41" t="n">
         <v>1.3</v>
@@ -6331,31 +6331,31 @@
         <v>3.4</v>
       </c>
       <c r="W41" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="X41" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z41" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA41" t="n">
         <v>8.5</v>
       </c>
       <c r="AB41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC41" t="n">
         <v>11</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>12</v>
       </c>
       <c r="AD41" t="n">
         <v>23</v>
       </c>
       <c r="AE41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF41" t="n">
         <v>8.5</v>
@@ -6367,28 +6367,32 @@
         <v>51</v>
       </c>
       <c r="AI41" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM41" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>1.8</v>
+      </c>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
     </row>
@@ -6851,22 +6855,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H45" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I45" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="J45" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K45" t="n">
         <v>1.91</v>
       </c>
       <c r="L45" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M45" t="n">
         <v>1.11</v>
@@ -6893,10 +6897,10 @@
         <v>1.14</v>
       </c>
       <c r="U45" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V45" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W45" t="n">
         <v>2.2</v>
@@ -6908,28 +6912,28 @@
         <v>5.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC45" t="n">
         <v>21</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>23</v>
       </c>
       <c r="AD45" t="n">
         <v>41</v>
       </c>
       <c r="AE45" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF45" t="n">
         <v>6</v>
       </c>
       <c r="AG45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH45" t="n">
         <v>81</v>
@@ -6938,19 +6942,19 @@
         <v>101</v>
       </c>
       <c r="AJ45" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AK45" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL45" t="n">
         <v>15</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>13</v>
       </c>
       <c r="AM45" t="n">
         <v>41</v>
       </c>
       <c r="AN45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO45" t="n">
         <v>51</v>
@@ -7000,28 +7004,28 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H46" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I46" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K46" t="n">
         <v>2.2</v>
       </c>
       <c r="L46" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M46" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O46" t="n">
         <v>1.36</v>
@@ -7048,13 +7052,13 @@
         <v>2.63</v>
       </c>
       <c r="W46" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="X46" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y46" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z46" t="n">
         <v>5.5</v>
@@ -7063,7 +7067,7 @@
         <v>9.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC46" t="n">
         <v>15</v>
@@ -7072,16 +7076,16 @@
         <v>41</v>
       </c>
       <c r="AE46" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG46" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH46" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI46" t="n">
         <v>101</v>
@@ -7090,7 +7094,7 @@
         <v>13</v>
       </c>
       <c r="AK46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL46" t="n">
         <v>23</v>
@@ -7149,61 +7153,61 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H47" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I47" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J47" t="n">
         <v>3.75</v>
       </c>
       <c r="K47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W47" t="n">
         <v>2</v>
       </c>
-      <c r="L47" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N47" t="n">
-        <v>8</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P47" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V47" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W47" t="n">
-        <v>1.91</v>
-      </c>
       <c r="X47" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y47" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z47" t="n">
         <v>15</v>
@@ -7221,7 +7225,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF47" t="n">
         <v>5.5</v>
@@ -7245,7 +7249,7 @@
         <v>10</v>
       </c>
       <c r="AM47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN47" t="n">
         <v>21</v>
@@ -7260,10 +7264,10 @@
         <v>1.3</v>
       </c>
       <c r="AR47" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="48">
@@ -7298,16 +7302,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H48" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I48" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J48" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K48" t="n">
         <v>2</v>
@@ -8579,16 +8583,16 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H57" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J57" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K57" t="n">
         <v>2.3</v>
@@ -8636,7 +8640,7 @@
         <v>6.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA57" t="n">
         <v>8.5</v>
@@ -8660,13 +8664,13 @@
         <v>19</v>
       </c>
       <c r="AH57" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI57" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK57" t="n">
         <v>34</v>
@@ -8675,7 +8679,7 @@
         <v>21</v>
       </c>
       <c r="AM57" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN57" t="n">
         <v>51</v>
@@ -10997,13 +11001,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H75" t="n">
         <v>3.9</v>
       </c>
       <c r="I75" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J75" t="n">
         <v>2.2</v>
@@ -11015,10 +11019,10 @@
         <v>6</v>
       </c>
       <c r="M75" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N75" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O75" t="n">
         <v>1.3</v>
@@ -11027,10 +11031,10 @@
         <v>3.4</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R75" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S75" t="n">
         <v>3.5</v>
@@ -11039,10 +11043,10 @@
         <v>1.29</v>
       </c>
       <c r="U75" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V75" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W75" t="n">
         <v>2</v>
@@ -11063,7 +11067,7 @@
         <v>11</v>
       </c>
       <c r="AC75" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD75" t="n">
         <v>29</v>
@@ -11096,7 +11100,7 @@
         <v>67</v>
       </c>
       <c r="AN75" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO75" t="n">
         <v>51</v>
@@ -11569,16 +11573,16 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H79" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I79" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J79" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K79" t="n">
         <v>2.5</v>
@@ -11632,7 +11636,7 @@
         <v>9</v>
       </c>
       <c r="AB79" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC79" t="n">
         <v>13</v>
@@ -11656,22 +11660,22 @@
         <v>101</v>
       </c>
       <c r="AJ79" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK79" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL79" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM79" t="n">
         <v>41</v>
       </c>
       <c r="AN79" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO79" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP79" t="n">
         <v>1.8</v>
@@ -12721,13 +12725,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H87" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I87" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J87" t="n">
         <v>5</v>
@@ -12736,7 +12740,7 @@
         <v>2.3</v>
       </c>
       <c r="L87" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M87" t="n">
         <v>1.04</v>
@@ -12751,7 +12755,7 @@
         <v>4</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R87" t="n">
         <v>2.1</v>
@@ -12769,10 +12773,10 @@
         <v>3.25</v>
       </c>
       <c r="W87" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X87" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y87" t="n">
         <v>15</v>
@@ -12787,10 +12791,10 @@
         <v>51</v>
       </c>
       <c r="AC87" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD87" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE87" t="n">
         <v>13</v>
@@ -13182,16 +13186,16 @@
         <v>3.75</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R90" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S90" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T90" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U90" t="n">
         <v>1.4</v>
@@ -15736,10 +15740,10 @@
         <v>4.33</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R108" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S108" t="n">
         <v>2.63</v>
@@ -15881,10 +15885,10 @@
         <v>3.75</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R109" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S109" t="n">
         <v>3.25</v>
@@ -16947,13 +16951,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H117" t="n">
         <v>3.1</v>
       </c>
       <c r="I117" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J117" t="n">
         <v>2.88</v>
@@ -16968,7 +16972,7 @@
         <v>1.08</v>
       </c>
       <c r="N117" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O117" t="n">
         <v>1.44</v>
@@ -17001,7 +17005,7 @@
         <v>1.73</v>
       </c>
       <c r="Y117" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z117" t="n">
         <v>9</v>
@@ -17013,7 +17017,7 @@
         <v>19</v>
       </c>
       <c r="AC117" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD117" t="n">
         <v>34</v>
@@ -17031,7 +17035,7 @@
         <v>67</v>
       </c>
       <c r="AI117" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AJ117" t="n">
         <v>8.5</v>
@@ -17237,28 +17241,28 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="H119" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J119" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="K119" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M119" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N119" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O119" t="n">
         <v>1.17</v>
@@ -17267,10 +17271,10 @@
         <v>5</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R119" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S119" t="n">
         <v>2.38</v>
@@ -17285,28 +17289,28 @@
         <v>3.5</v>
       </c>
       <c r="W119" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="X119" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y119" t="n">
         <v>7.5</v>
       </c>
       <c r="Z119" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA119" t="n">
         <v>11</v>
       </c>
       <c r="AB119" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC119" t="n">
         <v>12</v>
       </c>
       <c r="AD119" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE119" t="n">
         <v>15</v>
@@ -17315,10 +17319,10 @@
         <v>15</v>
       </c>
       <c r="AG119" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH119" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI119" t="n">
         <v>351</v>
@@ -17336,7 +17340,7 @@
         <v>201</v>
       </c>
       <c r="AN119" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AO119" t="n">
         <v>81</v>
@@ -17392,22 +17396,22 @@
         <v>5</v>
       </c>
       <c r="I120" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J120" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K120" t="n">
         <v>2.5</v>
       </c>
       <c r="L120" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M120" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N120" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O120" t="n">
         <v>1.2</v>
@@ -17428,16 +17432,16 @@
         <v>1.44</v>
       </c>
       <c r="U120" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V120" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W120" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X120" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Y120" t="n">
         <v>7.5</v>
@@ -17449,13 +17453,13 @@
         <v>9</v>
       </c>
       <c r="AB120" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC120" t="n">
         <v>12</v>
       </c>
       <c r="AD120" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE120" t="n">
         <v>13</v>
@@ -17464,7 +17468,7 @@
         <v>10</v>
       </c>
       <c r="AG120" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH120" t="n">
         <v>67</v>
@@ -17479,10 +17483,10 @@
         <v>41</v>
       </c>
       <c r="AL120" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM120" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN120" t="n">
         <v>51</v>
@@ -17535,7 +17539,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H121" t="n">
         <v>4.33</v>
@@ -17544,7 +17548,7 @@
         <v>7</v>
       </c>
       <c r="J121" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K121" t="n">
         <v>2.38</v>
@@ -17553,10 +17557,10 @@
         <v>7</v>
       </c>
       <c r="M121" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N121" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O121" t="n">
         <v>1.25</v>
@@ -17589,16 +17593,16 @@
         <v>1.73</v>
       </c>
       <c r="Y121" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z121" t="n">
         <v>6.5</v>
       </c>
       <c r="AA121" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB121" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC121" t="n">
         <v>12</v>
@@ -17613,10 +17617,10 @@
         <v>8.5</v>
       </c>
       <c r="AG121" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH121" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI121" t="n">
         <v>351</v>
@@ -17625,7 +17629,7 @@
         <v>17</v>
       </c>
       <c r="AK121" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL121" t="n">
         <v>21</v>
@@ -17640,16 +17644,16 @@
         <v>51</v>
       </c>
       <c r="AP121" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="AR121" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AS121" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
@@ -17966,22 +17970,22 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H124" t="n">
         <v>3.1</v>
       </c>
       <c r="I124" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J124" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K124" t="n">
         <v>1.95</v>
       </c>
       <c r="L124" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M124" t="n">
         <v>1.08</v>
@@ -17996,16 +18000,16 @@
         <v>2.63</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R124" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S124" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T124" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U124" t="n">
         <v>1.53</v>
@@ -18029,10 +18033,10 @@
         <v>11</v>
       </c>
       <c r="AB124" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC124" t="n">
         <v>29</v>
-      </c>
-      <c r="AC124" t="n">
-        <v>26</v>
       </c>
       <c r="AD124" t="n">
         <v>41</v>
@@ -18047,7 +18051,7 @@
         <v>17</v>
       </c>
       <c r="AH124" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI124" t="n">
         <v>401</v>
@@ -18062,21 +18066,21 @@
         <v>10</v>
       </c>
       <c r="AM124" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN124" t="n">
         <v>23</v>
       </c>
       <c r="AO124" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP124" t="inlineStr"/>
       <c r="AQ124" t="inlineStr"/>
       <c r="AR124" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="125">
@@ -18286,7 +18290,7 @@
         <v>5</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R126" t="n">
         <v>2.35</v>
@@ -18401,70 +18405,70 @@
         </is>
       </c>
       <c r="G127" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H127" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J127" t="n">
+        <v>4</v>
+      </c>
+      <c r="K127" t="n">
+        <v>2</v>
+      </c>
+      <c r="L127" t="n">
         <v>3</v>
       </c>
-      <c r="H127" t="n">
-        <v>3</v>
-      </c>
-      <c r="I127" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J127" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K127" t="n">
+      <c r="M127" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N127" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O127" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P127" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R127" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S127" t="n">
+        <v>4</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V127" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W127" t="n">
         <v>1.95</v>
       </c>
-      <c r="L127" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M127" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N127" t="n">
-        <v>7</v>
-      </c>
-      <c r="O127" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P127" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R127" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S127" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T127" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U127" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V127" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W127" t="n">
-        <v>2</v>
-      </c>
       <c r="X127" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y127" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Z127" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA127" t="n">
         <v>13</v>
       </c>
-      <c r="AA127" t="n">
-        <v>12</v>
-      </c>
       <c r="AB127" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC127" t="n">
         <v>29</v>
@@ -18473,45 +18477,45 @@
         <v>41</v>
       </c>
       <c r="AE127" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF127" t="n">
         <v>6</v>
       </c>
       <c r="AG127" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH127" t="n">
         <v>51</v>
       </c>
       <c r="AI127" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AJ127" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK127" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL127" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM127" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AN127" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO127" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP127" t="inlineStr"/>
       <c r="AQ127" t="inlineStr"/>
       <c r="AR127" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="128">
@@ -19002,7 +19006,7 @@
         <v>2.05</v>
       </c>
       <c r="R131" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S131" t="n">
         <v>3.75</v>
@@ -22506,7 +22510,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H156" t="n">
         <v>3.7</v>
@@ -22518,16 +22522,16 @@
         <v>2.3</v>
       </c>
       <c r="K156" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L156" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M156" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N156" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O156" t="n">
         <v>1.25</v>
@@ -22536,34 +22540,34 @@
         <v>3.75</v>
       </c>
       <c r="Q156" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R156" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S156" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T156" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U156" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V156" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W156" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="X156" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Y156" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z156" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA156" t="n">
         <v>8.5</v>
@@ -22575,10 +22579,10 @@
         <v>13</v>
       </c>
       <c r="AD156" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE156" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF156" t="n">
         <v>7</v>
@@ -22590,7 +22594,7 @@
         <v>51</v>
       </c>
       <c r="AI156" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ156" t="n">
         <v>13</v>
@@ -22605,7 +22609,7 @@
         <v>51</v>
       </c>
       <c r="AN156" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO156" t="n">
         <v>41</v>
@@ -24269,27 +24273,27 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.67</v>
+        <v>2.45</v>
       </c>
       <c r="H169" t="n">
         <v>3.2</v>
       </c>
       <c r="I169" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="J169" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K169" t="n">
         <v>2.07</v>
       </c>
       <c r="L169" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P169" t="n">
         <v>2.77</v>
@@ -24310,61 +24314,61 @@
         <v>1.4</v>
       </c>
       <c r="V169" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="W169" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X169" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Y169" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="Z169" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AA169" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB169" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AC169" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD169" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE169" t="n">
         <v>8.75</v>
       </c>
       <c r="AF169" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AG169" t="n">
         <v>14.5</v>
       </c>
       <c r="AH169" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI169" t="n">
         <v>600</v>
       </c>
       <c r="AJ169" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK169" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AL169" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AM169" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AN169" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO169" t="n">
         <v>35</v>
@@ -24543,105 +24547,109 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H171" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="I171" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="J171" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K171" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="L171" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-      <c r="N171" t="inlineStr"/>
+        <v>3.45</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N171" t="n">
+        <v>6.4</v>
+      </c>
       <c r="O171" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="P171" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="Q171" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="R171" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="S171" t="n">
-        <v>3.95</v>
+        <v>4.15</v>
       </c>
       <c r="T171" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="U171" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V171" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="W171" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X171" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Y171" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="Z171" t="n">
         <v>11.5</v>
       </c>
       <c r="AA171" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB171" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC171" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AD171" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE171" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="AF171" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AG171" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH171" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AI171" t="n">
         <v>800</v>
       </c>
       <c r="AJ171" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AK171" t="n">
         <v>12.5</v>
       </c>
       <c r="AL171" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AM171" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN171" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO171" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP171" t="inlineStr"/>
       <c r="AQ171" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-08.xlsx
@@ -1008,10 +1008,10 @@
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R4" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="S4" t="n">
         <v>3.2</v>
@@ -3564,58 +3564,58 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="I22" t="n">
         <v>3.9</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L22" t="n">
         <v>4.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="N22" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P22" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="R22" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="S22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T22" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="U22" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="V22" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="W22" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="X22" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y22" t="n">
         <v>5</v>
@@ -3627,16 +3627,16 @@
         <v>11</v>
       </c>
       <c r="AB22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE22" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AF22" t="n">
         <v>6</v>
@@ -3645,19 +3645,19 @@
         <v>23</v>
       </c>
       <c r="AH22" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI22" t="n">
         <v>101</v>
       </c>
       <c r="AJ22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK22" t="n">
         <v>17</v>
       </c>
       <c r="AL22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM22" t="n">
         <v>41</v>
@@ -3666,13 +3666,13 @@
         <v>41</v>
       </c>
       <c r="AO22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP22" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AR22" t="n">
         <v>2.05</v>
@@ -3713,28 +3713,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J23" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K23" t="n">
         <v>1.95</v>
       </c>
       <c r="L23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.5</v>
@@ -3761,25 +3761,25 @@
         <v>2.25</v>
       </c>
       <c r="W23" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y23" t="n">
         <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA23" t="n">
         <v>9.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD23" t="n">
         <v>41</v>
@@ -3788,10 +3788,10 @@
         <v>6.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH23" t="n">
         <v>81</v>
@@ -3800,19 +3800,19 @@
         <v>101</v>
       </c>
       <c r="AJ23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK23" t="n">
         <v>23</v>
       </c>
       <c r="AL23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM23" t="n">
         <v>51</v>
       </c>
       <c r="AN23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO23" t="n">
         <v>51</v>
@@ -3862,19 +3862,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
         <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L24" t="n">
         <v>5.5</v>
@@ -3892,10 +3892,10 @@
         <v>2.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R24" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S24" t="n">
         <v>4.33</v>
@@ -3952,7 +3952,7 @@
         <v>9.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL24" t="n">
         <v>15</v>
@@ -3967,10 +3967,10 @@
         <v>51</v>
       </c>
       <c r="AP24" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AR24" t="n">
         <v>1.78</v>
@@ -4011,28 +4011,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K25" t="n">
         <v>2.05</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M25" t="n">
         <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.36</v>
@@ -4059,46 +4059,46 @@
         <v>2.63</v>
       </c>
       <c r="W25" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X25" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y25" t="n">
         <v>7</v>
       </c>
       <c r="Z25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA25" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA25" t="n">
-        <v>9</v>
-      </c>
       <c r="AB25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD25" t="n">
         <v>34</v>
       </c>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
         <v>51</v>
       </c>
       <c r="AI25" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK25" t="n">
         <v>15</v>
@@ -4110,7 +4110,7 @@
         <v>34</v>
       </c>
       <c r="AN25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO25" t="n">
         <v>41</v>
@@ -7004,13 +7004,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H46" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="I46" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="J46" t="n">
         <v>1.95</v>
@@ -7022,10 +7022,10 @@
         <v>9</v>
       </c>
       <c r="M46" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O46" t="n">
         <v>1.36</v>
@@ -7076,37 +7076,37 @@
         <v>41</v>
       </c>
       <c r="AE46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF46" t="n">
         <v>9</v>
       </c>
-      <c r="AF46" t="n">
-        <v>10</v>
-      </c>
       <c r="AG46" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH46" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI46" t="n">
         <v>101</v>
       </c>
       <c r="AJ46" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK46" t="n">
         <v>41</v>
       </c>
       <c r="AL46" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM46" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN46" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AO46" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP46" t="n">
         <v>3.3</v>
@@ -7153,70 +7153,70 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="H47" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="I47" t="n">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L47" t="n">
         <v>3.75</v>
       </c>
-      <c r="K47" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.2</v>
-      </c>
       <c r="M47" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N47" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O47" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R47" t="n">
         <v>1.44</v>
       </c>
-      <c r="P47" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.5</v>
-      </c>
       <c r="S47" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="T47" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="U47" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V47" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="W47" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X47" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y47" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Z47" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB47" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC47" t="n">
         <v>29</v>
@@ -7225,16 +7225,16 @@
         <v>41</v>
       </c>
       <c r="AE47" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AF47" t="n">
         <v>5.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH47" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI47" t="n">
         <v>351</v>
@@ -7243,31 +7243,31 @@
         <v>7</v>
       </c>
       <c r="AK47" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL47" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AM47" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN47" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AO47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP47" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AR47" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="48">
@@ -7302,16 +7302,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H48" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I48" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J48" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K48" t="n">
         <v>2</v>
@@ -15710,16 +15710,16 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H108" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I108" t="n">
         <v>2.15</v>
       </c>
       <c r="J108" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K108" t="n">
         <v>2.3</v>
@@ -15740,10 +15740,10 @@
         <v>4.33</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R108" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S108" t="n">
         <v>2.63</v>
@@ -15776,7 +15776,7 @@
         <v>34</v>
       </c>
       <c r="AC108" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD108" t="n">
         <v>26</v>
@@ -15785,7 +15785,7 @@
         <v>15</v>
       </c>
       <c r="AF108" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG108" t="n">
         <v>13</v>
@@ -15809,10 +15809,10 @@
         <v>21</v>
       </c>
       <c r="AN108" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO108" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP108" t="n">
         <v>2.05</v>
@@ -15855,22 +15855,22 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H109" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I109" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J109" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K109" t="n">
         <v>2.3</v>
       </c>
       <c r="L109" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M109" t="n">
         <v>1.04</v>
@@ -15903,10 +15903,10 @@
         <v>3</v>
       </c>
       <c r="W109" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X109" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y109" t="n">
         <v>6.5</v>
@@ -15918,7 +15918,7 @@
         <v>8.5</v>
       </c>
       <c r="AB109" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC109" t="n">
         <v>13</v>
@@ -15930,7 +15930,7 @@
         <v>11</v>
       </c>
       <c r="AF109" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG109" t="n">
         <v>21</v>
@@ -15939,7 +15939,7 @@
         <v>67</v>
       </c>
       <c r="AI109" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AJ109" t="n">
         <v>15</v>
@@ -16129,101 +16129,105 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="H111" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="I111" t="n">
-        <v>6.5</v>
+        <v>5.1</v>
       </c>
       <c r="J111" t="n">
-        <v>1.95</v>
+        <v>2.22</v>
       </c>
       <c r="K111" t="n">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="L111" t="n">
-        <v>6.1</v>
+        <v>5.1</v>
       </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P111" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="R111" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="S111" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="T111" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
+        <v>1.32</v>
+      </c>
+      <c r="U111" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V111" t="n">
+        <v>2.57</v>
+      </c>
       <c r="W111" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="X111" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="Y111" t="n">
         <v>6.8</v>
       </c>
       <c r="Z111" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AA111" t="n">
         <v>8</v>
       </c>
       <c r="AB111" t="n">
-        <v>9.75</v>
+        <v>12.5</v>
       </c>
       <c r="AC111" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AD111" t="n">
         <v>26</v>
       </c>
       <c r="AE111" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AF111" t="n">
-        <v>8.25</v>
+        <v>7.1</v>
       </c>
       <c r="AG111" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH111" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>600</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM111" t="n">
         <v>90</v>
       </c>
-      <c r="AI111" t="n">
-        <v>700</v>
-      </c>
-      <c r="AJ111" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK111" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL111" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM111" t="n">
-        <v>150</v>
-      </c>
       <c r="AN111" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AO111" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AP111" t="inlineStr"/>
       <c r="AQ111" t="inlineStr"/>
@@ -17557,10 +17561,10 @@
         <v>7</v>
       </c>
       <c r="M121" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N121" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O121" t="n">
         <v>1.25</v>
@@ -17569,16 +17573,16 @@
         <v>3.75</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R121" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S121" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T121" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U121" t="n">
         <v>1.36</v>
@@ -17644,16 +17648,16 @@
         <v>51</v>
       </c>
       <c r="AP121" t="n">
-        <v>2.39</v>
+        <v>2.43</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AR121" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AS121" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="122">
@@ -24410,39 +24414,39 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H170" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="I170" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="J170" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K170" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="L170" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P170" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q170" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="R170" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S170" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T170" t="n">
         <v>1.18</v>
@@ -24454,61 +24458,61 @@
         <v>2.32</v>
       </c>
       <c r="W170" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="X170" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Y170" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Z170" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AA170" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB170" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AC170" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD170" t="n">
         <v>37</v>
       </c>
       <c r="AE170" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="AF170" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AG170" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH170" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AI170" t="n">
         <v>900</v>
       </c>
       <c r="AJ170" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AK170" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AL170" t="n">
         <v>18.5</v>
       </c>
       <c r="AM170" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN170" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AO170" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AP170" t="inlineStr"/>
       <c r="AQ170" t="inlineStr"/>
@@ -24547,82 +24551,82 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="H171" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="I171" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="J171" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K171" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="L171" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="M171" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N171" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O171" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P171" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="Q171" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="R171" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S171" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="T171" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="U171" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V171" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="W171" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="X171" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Y171" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="Z171" t="n">
         <v>11.5</v>
       </c>
       <c r="AA171" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB171" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC171" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD171" t="n">
         <v>50</v>
       </c>
       <c r="AE171" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AF171" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AG171" t="n">
         <v>18</v>
@@ -24637,7 +24641,7 @@
         <v>6.6</v>
       </c>
       <c r="AK171" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL171" t="n">
         <v>11</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-08.xlsx
@@ -3862,16 +3862,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H24" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J24" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K24" t="n">
         <v>2.05</v>
@@ -3880,10 +3880,10 @@
         <v>5.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
         <v>1.4</v>
@@ -3910,16 +3910,16 @@
         <v>2.5</v>
       </c>
       <c r="W24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X24" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y24" t="n">
         <v>5.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA24" t="n">
         <v>9</v>
@@ -3943,7 +3943,7 @@
         <v>21</v>
       </c>
       <c r="AH24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI24" t="n">
         <v>501</v>
@@ -3952,7 +3952,7 @@
         <v>9.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL24" t="n">
         <v>15</v>
@@ -3967,7 +3967,7 @@
         <v>51</v>
       </c>
       <c r="AP24" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.3</v>
@@ -4011,16 +4011,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I25" t="n">
         <v>3.2</v>
       </c>
-      <c r="I25" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>2.05</v>
@@ -4029,28 +4029,28 @@
         <v>3.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R25" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S25" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U25" t="n">
         <v>1.44</v>
@@ -4068,7 +4068,7 @@
         <v>7</v>
       </c>
       <c r="Z25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA25" t="n">
         <v>9.5</v>
@@ -4077,10 +4077,10 @@
         <v>21</v>
       </c>
       <c r="AC25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE25" t="n">
         <v>8.5</v>
@@ -4110,22 +4110,22 @@
         <v>34</v>
       </c>
       <c r="AN25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO25" t="n">
         <v>41</v>
       </c>
       <c r="AP25" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.29</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="26">
@@ -4855,13 +4855,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H31" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I31" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
@@ -4870,13 +4870,13 @@
         <v>1.8</v>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N31" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.73</v>
@@ -4888,7 +4888,7 @@
         <v>3.5</v>
       </c>
       <c r="R31" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S31" t="n">
         <v>8</v>
@@ -4927,16 +4927,16 @@
         <v>51</v>
       </c>
       <c r="AE31" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AF31" t="n">
         <v>6</v>
       </c>
       <c r="AG31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH31" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="n">
@@ -4946,13 +4946,13 @@
         <v>19</v>
       </c>
       <c r="AL31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM31" t="n">
         <v>51</v>
       </c>
       <c r="AN31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO31" t="n">
         <v>67</v>
@@ -7302,16 +7302,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H48" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I48" t="n">
         <v>5.75</v>
       </c>
       <c r="J48" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K48" t="n">
         <v>2</v>
@@ -7326,10 +7326,10 @@
         <v>7</v>
       </c>
       <c r="O48" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P48" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q48" t="n">
         <v>2.4</v>
@@ -7356,7 +7356,7 @@
         <v>1.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Z48" t="n">
         <v>6</v>
@@ -7407,16 +7407,16 @@
         <v>67</v>
       </c>
       <c r="AP48" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR48" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -15710,7 +15710,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H108" t="n">
         <v>3.6</v>
@@ -15719,7 +15719,7 @@
         <v>2.15</v>
       </c>
       <c r="J108" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K108" t="n">
         <v>2.3</v>
@@ -15734,49 +15734,49 @@
         <v>15</v>
       </c>
       <c r="O108" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P108" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R108" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S108" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T108" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U108" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V108" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W108" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X108" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y108" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA108" t="n">
         <v>12</v>
-      </c>
-      <c r="Z108" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA108" t="n">
-        <v>11</v>
       </c>
       <c r="AB108" t="n">
         <v>34</v>
       </c>
       <c r="AC108" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD108" t="n">
         <v>26</v>
@@ -15785,19 +15785,19 @@
         <v>15</v>
       </c>
       <c r="AF108" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG108" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH108" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI108" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ108" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK108" t="n">
         <v>12</v>
@@ -15809,10 +15809,10 @@
         <v>21</v>
       </c>
       <c r="AN108" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO108" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP108" t="n">
         <v>2.05</v>
@@ -15855,7 +15855,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H109" t="n">
         <v>4.33</v>
@@ -15864,31 +15864,31 @@
         <v>6.5</v>
       </c>
       <c r="J109" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K109" t="n">
         <v>2.3</v>
       </c>
       <c r="L109" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M109" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N109" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O109" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P109" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R109" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S109" t="n">
         <v>3.25</v>
@@ -15903,10 +15903,10 @@
         <v>3</v>
       </c>
       <c r="W109" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X109" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y109" t="n">
         <v>6.5</v>
@@ -15918,7 +15918,7 @@
         <v>8.5</v>
       </c>
       <c r="AB109" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC109" t="n">
         <v>13</v>
@@ -15930,7 +15930,7 @@
         <v>11</v>
       </c>
       <c r="AF109" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG109" t="n">
         <v>21</v>
@@ -15939,7 +15939,7 @@
         <v>67</v>
       </c>
       <c r="AI109" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AJ109" t="n">
         <v>15</v>
@@ -16266,42 +16266,42 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="H112" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I112" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J112" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="K112" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L112" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P112" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R112" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S112" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="T112" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr"/>
@@ -16312,52 +16312,52 @@
         <v>1.93</v>
       </c>
       <c r="Y112" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z112" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA112" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB112" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AC112" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AD112" t="n">
         <v>40</v>
       </c>
       <c r="AE112" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF112" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AG112" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH112" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI112" t="n">
         <v>450</v>
       </c>
       <c r="AJ112" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AK112" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL112" t="n">
         <v>8.25</v>
       </c>
       <c r="AM112" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AN112" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO112" t="n">
         <v>24</v>
@@ -16399,27 +16399,27 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="H113" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I113" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="J113" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="K113" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L113" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P113" t="n">
         <v>3.2</v>
@@ -16431,10 +16431,10 @@
         <v>1.85</v>
       </c>
       <c r="S113" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="T113" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="U113" t="n">
         <v>1.39</v>
@@ -16443,61 +16443,61 @@
         <v>2.55</v>
       </c>
       <c r="W113" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="X113" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="Y113" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="Z113" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA113" t="n">
         <v>8.25</v>
       </c>
       <c r="AB113" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AC113" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD113" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AE113" t="n">
         <v>11</v>
       </c>
       <c r="AF113" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AG113" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH113" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AI113" t="n">
         <v>700</v>
       </c>
       <c r="AJ113" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK113" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AL113" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AM113" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN113" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AO113" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AP113" t="inlineStr"/>
       <c r="AQ113" t="inlineStr"/>
@@ -16536,13 +16536,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H114" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I114" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="J114" t="n">
         <v>1.7</v>
@@ -16551,7 +16551,7 @@
         <v>2.52</v>
       </c>
       <c r="L114" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
@@ -16562,13 +16562,13 @@
         <v>5</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="R114" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="S114" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T114" t="n">
         <v>1.57</v>
@@ -16582,16 +16582,16 @@
         <v>1.8</v>
       </c>
       <c r="Y114" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AA114" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z114" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AA114" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AB114" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AC114" t="n">
         <v>10.25</v>
@@ -16600,10 +16600,10 @@
         <v>24</v>
       </c>
       <c r="AE114" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF114" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AG114" t="n">
         <v>20</v>
@@ -16612,25 +16612,25 @@
         <v>80</v>
       </c>
       <c r="AI114" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AJ114" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK114" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL114" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM114" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AN114" t="n">
         <v>110</v>
       </c>
       <c r="AO114" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AP114" t="inlineStr"/>
       <c r="AQ114" t="inlineStr"/>
@@ -17543,22 +17543,22 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="H121" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I121" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J121" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K121" t="n">
         <v>2.38</v>
       </c>
       <c r="L121" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M121" t="n">
         <v>1.05</v>
@@ -17573,16 +17573,16 @@
         <v>3.75</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R121" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S121" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T121" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U121" t="n">
         <v>1.36</v>
@@ -17591,22 +17591,22 @@
         <v>3</v>
       </c>
       <c r="W121" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X121" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y121" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z121" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA121" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB121" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AB121" t="n">
-        <v>9.5</v>
       </c>
       <c r="AC121" t="n">
         <v>12</v>
@@ -17618,13 +17618,13 @@
         <v>11</v>
       </c>
       <c r="AF121" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG121" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AH121" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI121" t="n">
         <v>351</v>
@@ -17633,13 +17633,13 @@
         <v>17</v>
       </c>
       <c r="AK121" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL121" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM121" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN121" t="n">
         <v>51</v>
@@ -24554,19 +24554,19 @@
         <v>2.65</v>
       </c>
       <c r="H171" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="I171" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="J171" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K171" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="L171" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="M171" t="n">
         <v>1.11</v>
@@ -24575,58 +24575,58 @@
         <v>6.2</v>
       </c>
       <c r="O171" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P171" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="Q171" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="R171" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S171" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="T171" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="U171" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V171" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="W171" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="X171" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Y171" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="Z171" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA171" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB171" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC171" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD171" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE171" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AF171" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AG171" t="n">
         <v>18</v>
@@ -24638,16 +24638,16 @@
         <v>800</v>
       </c>
       <c r="AJ171" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AK171" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL171" t="n">
         <v>11</v>
       </c>
       <c r="AM171" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN171" t="n">
         <v>30</v>
